--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -8,15 +8,16 @@
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
-    <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="AVL" sheetId="10" r:id="rId3"/>
+    <sheet name="NTS 1-20" sheetId="11" r:id="rId2"/>
+    <sheet name="Data" sheetId="2" r:id="rId3"/>
+    <sheet name="AVL" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
   <si>
     <t>Car Avg Lifetime, years (Page 22, Table 7)</t>
   </si>
@@ -42,36 +43,12 @@
     <t>Bureau of Transportation Statistics</t>
   </si>
   <si>
-    <t>National Transportation Statistics 2013</t>
-  </si>
-  <si>
     <t>http://www.rita.dot.gov/bts/sites/rita.dot.gov.bts/files/publications/national_transportation_statistics/index.html</t>
   </si>
   <si>
-    <t>Avg Car Sales from 2008-2012, thousands of vehicles (Table 1-20, Row 4)</t>
-  </si>
-  <si>
-    <t>Avg Light Truck Sales from 2008-2012, thousands of vehicles (Table 1-21, Row 4)</t>
-  </si>
-  <si>
-    <t>Tables 1-20 (Row 4) and 1-21 (Row 4)</t>
-  </si>
-  <si>
-    <t>Heavy Truck Avg Lifetime, years (Table 3-14, Row 38)</t>
-  </si>
-  <si>
     <t>Oak Ridge National Laboratory</t>
   </si>
   <si>
-    <t>Transportation Energy Data Book Ed. 32</t>
-  </si>
-  <si>
-    <t>http://cta.ornl.gov/data/tedb32/Spreadsheets/Table3_14.xls</t>
-  </si>
-  <si>
-    <t>Table 3-14, Row 38</t>
-  </si>
-  <si>
     <t>Table</t>
   </si>
   <si>
@@ -223,16 +200,125 @@
   </si>
   <si>
     <t>Lifetime (yr)</t>
+  </si>
+  <si>
+    <t>Heavy Truck Avg Lifetime, years (Table 3-14, Row 43)</t>
+  </si>
+  <si>
+    <t>Transportation Energy Data Book Ed. 34</t>
+  </si>
+  <si>
+    <t>Table 3-14, Row 43</t>
+  </si>
+  <si>
+    <t>http://cta.ornl.gov/data/tedb34/Spreadsheets/Table3_14.xls</t>
+  </si>
+  <si>
+    <t>National Transportation Statistics 2015</t>
+  </si>
+  <si>
+    <t>Table 1-20:  Productions, Production Shares, and Production-Weighted Fuel Economies of New Domestic and Imported Automobiles (Thousands of vehicles)</t>
+  </si>
+  <si>
+    <t>TOTAL productions</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Car SUV</t>
+  </si>
+  <si>
+    <t>Pickup</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Truck SUV</t>
+  </si>
+  <si>
+    <t>Market share, percent</t>
+  </si>
+  <si>
+    <t>Fuel economy, mpg</t>
+  </si>
+  <si>
+    <r>
+      <t>KEY:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  mpg = miles per gallon; N = data are not available;  R = revised; SUV = sport utility vehicle.</t>
+    </r>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Numbers may not add to totals due to rounding.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This table is not comparable to previous publication's tables due to changes in the source data. </t>
+  </si>
+  <si>
+    <t>The Environmental Protection Agency changed the vehicle classifications, combining wagons with the rest of the cars and dropping the small, medium, large categories of cars, pickups, sport-utilities, and vans. The fuel economy displayed in those tables has been adjusted to provide the best estimate of real-world performance.</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">U.S. Department of Energy, Office of Energy Efficiency and Renewable Energy, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Transportation Energy Data Book</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, Edition 33, tables 4.7, table 4.9 and table 4.11 (Oak Ridge, TN), available at http://cta.ornl.gov/data/index.shtml as of Dec. 8, 2015.</t>
+    </r>
+  </si>
+  <si>
+    <t>Avg Light Truck Sales from 2010-2013, thousands of vehicles (Table 1-20, Rows 6-8)</t>
+  </si>
+  <si>
+    <t>Avg Car Sales from 2010-2013, thousands of vehicles (Table 1-20, Rows 4-5)</t>
+  </si>
+  <si>
+    <t>Table 1-20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
+    <numFmt numFmtId="165" formatCode="\(\R\)General"/>
+    <numFmt numFmtId="166" formatCode="\(\R\)\ ###0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="\(\R\)0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0_)"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,8 +524,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helv"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,8 +765,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -950,8 +1090,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
@@ -1038,8 +1187,20 @@
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="10">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1160,8 +1321,100 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="29" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="29" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="31" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="31" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="62">
     <cellStyle name="20% - Accent1" xfId="35" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="39" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="43" builtinId="38" customBuiltin="1"/>
@@ -1191,6 +1444,7 @@
     <cellStyle name="Calculation" xfId="27" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="29" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Data" xfId="14"/>
+    <cellStyle name="Data no deci" xfId="61"/>
     <cellStyle name="Explanatory Text" xfId="32" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" customBuiltin="1"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="9"/>
@@ -1204,6 +1458,8 @@
     <cellStyle name="Heading 3" xfId="20" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="21" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hed Side" xfId="15"/>
+    <cellStyle name="Hed Side Regular" xfId="60"/>
+    <cellStyle name="Hed Top" xfId="59"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="10"/>
     <cellStyle name="Input" xfId="25" builtinId="20" customBuiltin="1"/>
@@ -1218,6 +1474,7 @@
     <cellStyle name="Section Break: parent row" xfId="5"/>
     <cellStyle name="Table title" xfId="13"/>
     <cellStyle name="Title" xfId="17" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title-2" xfId="58"/>
     <cellStyle name="Total" xfId="33" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="30" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -1559,15 +1816,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1597,7 +1854,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1607,62 +1864,62 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
-        <v>2013</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
-        <v>2013</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
@@ -1672,52 +1929,52 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="26" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
@@ -1732,33 +1989,2361 @@
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="26" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="B21" r:id="rId3"/>
-    <hyperlink ref="B35" r:id="rId4"/>
-    <hyperlink ref="B42" r:id="rId5"/>
+    <hyperlink ref="B35" r:id="rId2"/>
+    <hyperlink ref="B42" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BC61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AB1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" style="14" customWidth="1"/>
+    <col min="2" max="27" width="7.7109375" style="14" customWidth="1"/>
+    <col min="28" max="28" width="7.140625" style="87" customWidth="1"/>
+    <col min="29" max="55" width="9.140625" style="87"/>
+    <col min="56" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+    </row>
+    <row r="2" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51">
+        <v>1980</v>
+      </c>
+      <c r="C2" s="52">
+        <v>1985</v>
+      </c>
+      <c r="D2" s="52">
+        <v>1990</v>
+      </c>
+      <c r="E2" s="52">
+        <v>1991</v>
+      </c>
+      <c r="F2" s="52">
+        <v>1992</v>
+      </c>
+      <c r="G2" s="52">
+        <v>1993</v>
+      </c>
+      <c r="H2" s="52">
+        <v>1994</v>
+      </c>
+      <c r="I2" s="52">
+        <v>1995</v>
+      </c>
+      <c r="J2" s="52">
+        <v>1996</v>
+      </c>
+      <c r="K2" s="52">
+        <v>1997</v>
+      </c>
+      <c r="L2" s="52">
+        <v>1998</v>
+      </c>
+      <c r="M2" s="52">
+        <v>1999</v>
+      </c>
+      <c r="N2" s="52">
+        <v>2000</v>
+      </c>
+      <c r="O2" s="52">
+        <v>2001</v>
+      </c>
+      <c r="P2" s="52">
+        <v>2002</v>
+      </c>
+      <c r="Q2" s="52">
+        <v>2003</v>
+      </c>
+      <c r="R2" s="52">
+        <v>2004</v>
+      </c>
+      <c r="S2" s="52">
+        <v>2005</v>
+      </c>
+      <c r="T2" s="52">
+        <v>2006</v>
+      </c>
+      <c r="U2" s="52">
+        <v>2007</v>
+      </c>
+      <c r="V2" s="52">
+        <v>2008</v>
+      </c>
+      <c r="W2" s="52">
+        <v>2009</v>
+      </c>
+      <c r="X2" s="52">
+        <v>2010</v>
+      </c>
+      <c r="Y2" s="52">
+        <v>2011</v>
+      </c>
+      <c r="Z2" s="53">
+        <v>2012</v>
+      </c>
+      <c r="AA2" s="52">
+        <v>2013</v>
+      </c>
+      <c r="AB2" s="54">
+        <v>2014</v>
+      </c>
+      <c r="AC2" s="55"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="57"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="58"/>
+    </row>
+    <row r="3" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="60">
+        <v>11306</v>
+      </c>
+      <c r="C3" s="60">
+        <v>14460</v>
+      </c>
+      <c r="D3" s="60">
+        <v>12615</v>
+      </c>
+      <c r="E3" s="60">
+        <v>12573</v>
+      </c>
+      <c r="F3" s="60">
+        <v>12172</v>
+      </c>
+      <c r="G3" s="60">
+        <v>13211</v>
+      </c>
+      <c r="H3" s="60">
+        <v>14125</v>
+      </c>
+      <c r="I3" s="60">
+        <v>15145</v>
+      </c>
+      <c r="J3" s="60">
+        <v>13144</v>
+      </c>
+      <c r="K3" s="60">
+        <v>14458</v>
+      </c>
+      <c r="L3" s="60">
+        <v>14456</v>
+      </c>
+      <c r="M3" s="60">
+        <v>15215</v>
+      </c>
+      <c r="N3" s="60">
+        <v>16571</v>
+      </c>
+      <c r="O3" s="60">
+        <v>15605</v>
+      </c>
+      <c r="P3" s="60">
+        <v>16115</v>
+      </c>
+      <c r="Q3" s="60">
+        <v>15773</v>
+      </c>
+      <c r="R3" s="60">
+        <v>15709</v>
+      </c>
+      <c r="S3" s="60">
+        <v>15892</v>
+      </c>
+      <c r="T3" s="60">
+        <v>15104</v>
+      </c>
+      <c r="U3" s="60">
+        <v>15276</v>
+      </c>
+      <c r="V3" s="60">
+        <v>13898</v>
+      </c>
+      <c r="W3" s="60">
+        <v>9316</v>
+      </c>
+      <c r="X3" s="60">
+        <v>11110</v>
+      </c>
+      <c r="Y3" s="60">
+        <v>12003</v>
+      </c>
+      <c r="Z3" s="60">
+        <v>13438</v>
+      </c>
+      <c r="AA3" s="60">
+        <v>14846</v>
+      </c>
+      <c r="AB3" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+    </row>
+    <row r="4" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="64">
+        <v>9443</v>
+      </c>
+      <c r="C4" s="64">
+        <v>10791</v>
+      </c>
+      <c r="D4" s="64">
+        <v>8810</v>
+      </c>
+      <c r="E4" s="64">
+        <v>8524</v>
+      </c>
+      <c r="F4" s="64">
+        <v>8108</v>
+      </c>
+      <c r="G4" s="64">
+        <v>8456</v>
+      </c>
+      <c r="H4" s="64">
+        <v>8415</v>
+      </c>
+      <c r="I4" s="64">
+        <v>9396</v>
+      </c>
+      <c r="J4" s="64">
+        <v>7890</v>
+      </c>
+      <c r="K4" s="64">
+        <v>8334</v>
+      </c>
+      <c r="L4" s="64">
+        <v>7971</v>
+      </c>
+      <c r="M4" s="64">
+        <v>8376</v>
+      </c>
+      <c r="N4" s="64">
+        <v>9125</v>
+      </c>
+      <c r="O4" s="64">
+        <v>8405</v>
+      </c>
+      <c r="P4" s="64">
+        <v>8301</v>
+      </c>
+      <c r="Q4" s="64">
+        <v>7921</v>
+      </c>
+      <c r="R4" s="64">
+        <v>7537</v>
+      </c>
+      <c r="S4" s="64">
+        <v>8027</v>
+      </c>
+      <c r="T4" s="64">
+        <v>7993</v>
+      </c>
+      <c r="U4" s="64">
+        <v>8082</v>
+      </c>
+      <c r="V4" s="64">
+        <v>7319</v>
+      </c>
+      <c r="W4" s="64">
+        <v>5636</v>
+      </c>
+      <c r="X4" s="64">
+        <v>6055</v>
+      </c>
+      <c r="Y4" s="65">
+        <v>5728</v>
+      </c>
+      <c r="Z4" s="65">
+        <v>7379</v>
+      </c>
+      <c r="AA4" s="65">
+        <v>7907</v>
+      </c>
+      <c r="AB4" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="66"/>
+      <c r="AS4" s="66"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="66"/>
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="66"/>
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="66"/>
+      <c r="AZ4" s="66"/>
+      <c r="BA4" s="67"/>
+      <c r="BB4" s="67"/>
+    </row>
+    <row r="5" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="64">
+        <v>0</v>
+      </c>
+      <c r="C5" s="64">
+        <v>88</v>
+      </c>
+      <c r="D5" s="64">
+        <v>65</v>
+      </c>
+      <c r="E5" s="64">
+        <v>224</v>
+      </c>
+      <c r="F5" s="64">
+        <v>243</v>
+      </c>
+      <c r="G5" s="64">
+        <v>473</v>
+      </c>
+      <c r="H5" s="64">
+        <v>332</v>
+      </c>
+      <c r="I5" s="64">
+        <v>220</v>
+      </c>
+      <c r="J5" s="64">
+        <v>287</v>
+      </c>
+      <c r="K5" s="64">
+        <v>361</v>
+      </c>
+      <c r="L5" s="64">
+        <v>454</v>
+      </c>
+      <c r="M5" s="64">
+        <v>488</v>
+      </c>
+      <c r="N5" s="64">
+        <v>617</v>
+      </c>
+      <c r="O5" s="64">
+        <v>743</v>
+      </c>
+      <c r="P5" s="64">
+        <v>603</v>
+      </c>
+      <c r="Q5" s="64">
+        <v>575</v>
+      </c>
+      <c r="R5" s="64">
+        <v>639</v>
+      </c>
+      <c r="S5" s="64">
+        <v>813</v>
+      </c>
+      <c r="T5" s="64">
+        <v>751</v>
+      </c>
+      <c r="U5" s="64">
+        <v>919</v>
+      </c>
+      <c r="V5" s="64">
+        <v>924</v>
+      </c>
+      <c r="W5" s="64">
+        <v>608</v>
+      </c>
+      <c r="X5" s="64">
+        <v>915</v>
+      </c>
+      <c r="Y5" s="65">
+        <v>1207</v>
+      </c>
+      <c r="Z5" s="65">
+        <v>1269</v>
+      </c>
+      <c r="AA5" s="65">
+        <v>1470</v>
+      </c>
+      <c r="AB5" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="66"/>
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66"/>
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="66"/>
+      <c r="AN5" s="66"/>
+      <c r="AO5" s="66"/>
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66"/>
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="66"/>
+      <c r="AT5" s="66"/>
+      <c r="AU5" s="66"/>
+      <c r="AV5" s="66"/>
+      <c r="AW5" s="66"/>
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="66"/>
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="67"/>
+      <c r="BB5" s="67"/>
+    </row>
+    <row r="6" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="64">
+        <v>1437</v>
+      </c>
+      <c r="C6" s="64">
+        <v>2078</v>
+      </c>
+      <c r="D6" s="64">
+        <v>1835</v>
+      </c>
+      <c r="E6" s="64">
+        <v>1920</v>
+      </c>
+      <c r="F6" s="64">
+        <v>1840</v>
+      </c>
+      <c r="G6" s="64">
+        <v>2002</v>
+      </c>
+      <c r="H6" s="64">
+        <v>2669</v>
+      </c>
+      <c r="I6" s="64">
+        <v>2271</v>
+      </c>
+      <c r="J6" s="64">
+        <v>1955</v>
+      </c>
+      <c r="K6" s="64">
+        <v>2408</v>
+      </c>
+      <c r="L6" s="64">
+        <v>2415</v>
+      </c>
+      <c r="M6" s="64">
+        <v>2544</v>
+      </c>
+      <c r="N6" s="64">
+        <v>2612</v>
+      </c>
+      <c r="O6" s="64">
+        <v>2519</v>
+      </c>
+      <c r="P6" s="64">
+        <v>2380</v>
+      </c>
+      <c r="Q6" s="64">
+        <v>2474</v>
+      </c>
+      <c r="R6" s="64">
+        <v>2505</v>
+      </c>
+      <c r="S6" s="64">
+        <v>2300</v>
+      </c>
+      <c r="T6" s="64">
+        <v>2188</v>
+      </c>
+      <c r="U6" s="64">
+        <v>2113</v>
+      </c>
+      <c r="V6" s="64">
+        <v>1794</v>
+      </c>
+      <c r="W6" s="64">
+        <v>989</v>
+      </c>
+      <c r="X6" s="64">
+        <v>1276</v>
+      </c>
+      <c r="Y6" s="65">
+        <v>1479</v>
+      </c>
+      <c r="Z6" s="65">
+        <v>1357</v>
+      </c>
+      <c r="AA6" s="65">
+        <v>1577</v>
+      </c>
+      <c r="AB6" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="66"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="66"/>
+      <c r="AN6" s="66"/>
+      <c r="AO6" s="66"/>
+      <c r="AP6" s="66"/>
+      <c r="AQ6" s="66"/>
+      <c r="AR6" s="66"/>
+      <c r="AS6" s="66"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="66"/>
+      <c r="AV6" s="66"/>
+      <c r="AW6" s="66"/>
+      <c r="AX6" s="66"/>
+      <c r="AY6" s="66"/>
+      <c r="AZ6" s="66"/>
+      <c r="BA6" s="67"/>
+      <c r="BB6" s="67"/>
+    </row>
+    <row r="7" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="64">
+        <v>242</v>
+      </c>
+      <c r="C7" s="64">
+        <v>855</v>
+      </c>
+      <c r="D7" s="64">
+        <v>1262</v>
+      </c>
+      <c r="E7" s="64">
+        <v>1034</v>
+      </c>
+      <c r="F7" s="64">
+        <v>1221</v>
+      </c>
+      <c r="G7" s="64">
+        <v>1441</v>
+      </c>
+      <c r="H7" s="64">
+        <v>1418</v>
+      </c>
+      <c r="I7" s="64">
+        <v>1662</v>
+      </c>
+      <c r="J7" s="64">
+        <v>1409</v>
+      </c>
+      <c r="K7" s="64">
+        <v>1265</v>
+      </c>
+      <c r="L7" s="64">
+        <v>1489</v>
+      </c>
+      <c r="M7" s="64">
+        <v>1463</v>
+      </c>
+      <c r="N7" s="64">
+        <v>1691</v>
+      </c>
+      <c r="O7" s="64">
+        <v>1232</v>
+      </c>
+      <c r="P7" s="64">
+        <v>1243</v>
+      </c>
+      <c r="Q7" s="64">
+        <v>1232</v>
+      </c>
+      <c r="R7" s="64">
+        <v>953</v>
+      </c>
+      <c r="S7" s="64">
+        <v>1481</v>
+      </c>
+      <c r="T7" s="64">
+        <v>1166</v>
+      </c>
+      <c r="U7" s="64">
+        <v>847</v>
+      </c>
+      <c r="V7" s="64">
+        <v>790</v>
+      </c>
+      <c r="W7" s="64">
+        <v>368</v>
+      </c>
+      <c r="X7" s="64">
+        <v>559</v>
+      </c>
+      <c r="Y7" s="65">
+        <v>521</v>
+      </c>
+      <c r="Z7" s="65">
+        <v>661</v>
+      </c>
+      <c r="AA7" s="65">
+        <v>571</v>
+      </c>
+      <c r="AB7" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="66"/>
+      <c r="AE7" s="66"/>
+      <c r="AF7" s="66"/>
+      <c r="AG7" s="66"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="66"/>
+      <c r="AN7" s="66"/>
+      <c r="AO7" s="66"/>
+      <c r="AP7" s="66"/>
+      <c r="AQ7" s="66"/>
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="66"/>
+      <c r="AT7" s="66"/>
+      <c r="AU7" s="66"/>
+      <c r="AV7" s="66"/>
+      <c r="AW7" s="66"/>
+      <c r="AX7" s="66"/>
+      <c r="AY7" s="66"/>
+      <c r="AZ7" s="66"/>
+      <c r="BA7" s="67"/>
+      <c r="BB7" s="67"/>
+    </row>
+    <row r="8" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="64">
+        <v>184</v>
+      </c>
+      <c r="C8" s="64">
+        <v>648</v>
+      </c>
+      <c r="D8" s="64">
+        <v>643</v>
+      </c>
+      <c r="E8" s="64">
+        <v>871</v>
+      </c>
+      <c r="F8" s="64">
+        <v>761</v>
+      </c>
+      <c r="G8" s="64">
+        <v>838</v>
+      </c>
+      <c r="H8" s="64">
+        <v>1291</v>
+      </c>
+      <c r="I8" s="64">
+        <v>1596</v>
+      </c>
+      <c r="J8" s="64">
+        <v>1603</v>
+      </c>
+      <c r="K8" s="64">
+        <v>2089</v>
+      </c>
+      <c r="L8" s="64">
+        <v>2127</v>
+      </c>
+      <c r="M8" s="64">
+        <v>2342</v>
+      </c>
+      <c r="N8" s="64">
+        <v>2526</v>
+      </c>
+      <c r="O8" s="64">
+        <v>2707</v>
+      </c>
+      <c r="P8" s="64">
+        <v>3588</v>
+      </c>
+      <c r="Q8" s="64">
+        <v>3571</v>
+      </c>
+      <c r="R8" s="64">
+        <v>4075</v>
+      </c>
+      <c r="S8" s="64">
+        <v>3272</v>
+      </c>
+      <c r="T8" s="64">
+        <v>3006</v>
+      </c>
+      <c r="U8" s="64">
+        <v>3314</v>
+      </c>
+      <c r="V8" s="64">
+        <v>3072</v>
+      </c>
+      <c r="W8" s="64">
+        <v>1713</v>
+      </c>
+      <c r="X8" s="64">
+        <v>2305</v>
+      </c>
+      <c r="Y8" s="65">
+        <v>3069</v>
+      </c>
+      <c r="Z8" s="65">
+        <v>2773</v>
+      </c>
+      <c r="AA8" s="65">
+        <v>3321</v>
+      </c>
+      <c r="AB8" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="66"/>
+      <c r="AW8" s="66"/>
+      <c r="AX8" s="66"/>
+      <c r="AY8" s="66"/>
+      <c r="AZ8" s="66"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
+    </row>
+    <row r="9" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="70"/>
+      <c r="AM9" s="70"/>
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="70"/>
+      <c r="AP9" s="70"/>
+      <c r="AQ9" s="70"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="70"/>
+      <c r="AT9" s="70"/>
+      <c r="AU9" s="70"/>
+      <c r="AV9" s="70"/>
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="70"/>
+      <c r="BB9" s="70"/>
+    </row>
+    <row r="10" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="71">
+        <f>B4/B$3*100</f>
+        <v>83.522023704227848</v>
+      </c>
+      <c r="C10" s="71">
+        <f>C4/C$3*100</f>
+        <v>74.626556016597505</v>
+      </c>
+      <c r="D10" s="71">
+        <v>69.8</v>
+      </c>
+      <c r="E10" s="71">
+        <v>67.800000000000011</v>
+      </c>
+      <c r="F10" s="71">
+        <v>66.600000000000009</v>
+      </c>
+      <c r="G10" s="71">
+        <v>64</v>
+      </c>
+      <c r="H10" s="71">
+        <v>59.599999999999994</v>
+      </c>
+      <c r="I10" s="71">
+        <v>62</v>
+      </c>
+      <c r="J10" s="71">
+        <v>60</v>
+      </c>
+      <c r="K10" s="71">
+        <v>57.599999999999994</v>
+      </c>
+      <c r="L10" s="71">
+        <v>55.1</v>
+      </c>
+      <c r="M10" s="71">
+        <v>55.1</v>
+      </c>
+      <c r="N10" s="71">
+        <v>55.1</v>
+      </c>
+      <c r="O10" s="71">
+        <v>53.900000000000006</v>
+      </c>
+      <c r="P10" s="71">
+        <v>51.5</v>
+      </c>
+      <c r="Q10" s="71">
+        <v>50.2</v>
+      </c>
+      <c r="R10" s="71">
+        <v>48</v>
+      </c>
+      <c r="S10" s="71">
+        <v>50.5</v>
+      </c>
+      <c r="T10" s="71">
+        <v>52.900000000000006</v>
+      </c>
+      <c r="U10" s="71">
+        <v>52.900000000000006</v>
+      </c>
+      <c r="V10" s="71">
+        <v>52.7</v>
+      </c>
+      <c r="W10" s="71">
+        <v>60.5</v>
+      </c>
+      <c r="X10" s="71">
+        <v>54.500000000000007</v>
+      </c>
+      <c r="Y10" s="71">
+        <v>47.699999999999996</v>
+      </c>
+      <c r="Z10" s="71">
+        <v>54.900000000000006</v>
+      </c>
+      <c r="AA10" s="71">
+        <v>53.300000000000004</v>
+      </c>
+      <c r="AB10" s="71">
+        <v>51.300000000000004</v>
+      </c>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="72"/>
+      <c r="AG10" s="72"/>
+      <c r="AH10" s="72"/>
+      <c r="AI10" s="72"/>
+      <c r="AJ10" s="72"/>
+      <c r="AK10" s="72"/>
+      <c r="AL10" s="72"/>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="72"/>
+      <c r="AO10" s="72"/>
+      <c r="AP10" s="72"/>
+      <c r="AQ10" s="72"/>
+      <c r="AR10" s="72"/>
+      <c r="AS10" s="72"/>
+      <c r="AT10" s="72"/>
+      <c r="AU10" s="72"/>
+      <c r="AV10" s="72"/>
+      <c r="AW10" s="72"/>
+      <c r="AX10" s="72"/>
+      <c r="AY10" s="72"/>
+      <c r="AZ10" s="72"/>
+      <c r="BA10" s="72"/>
+      <c r="BB10" s="72"/>
+    </row>
+    <row r="11" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="71">
+        <v>0</v>
+      </c>
+      <c r="C11" s="71">
+        <v>0.6</v>
+      </c>
+      <c r="D11" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="71">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="F11" s="71">
+        <v>2</v>
+      </c>
+      <c r="G11" s="71">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="H11" s="71">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I11" s="71">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="71">
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="K11" s="71">
+        <v>2.5</v>
+      </c>
+      <c r="L11" s="71">
+        <v>3.1</v>
+      </c>
+      <c r="M11" s="71">
+        <v>3.2</v>
+      </c>
+      <c r="N11" s="71">
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="O11" s="71">
+        <v>4.8</v>
+      </c>
+      <c r="P11" s="71">
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="Q11" s="71">
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="R11" s="71">
+        <v>4.1000000000000005</v>
+      </c>
+      <c r="S11" s="71">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="T11" s="71">
+        <v>5</v>
+      </c>
+      <c r="U11" s="71">
+        <v>6</v>
+      </c>
+      <c r="V11" s="71">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="W11" s="71">
+        <v>6.5</v>
+      </c>
+      <c r="X11" s="71">
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="Y11" s="71">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="Z11" s="71">
+        <v>9.4</v>
+      </c>
+      <c r="AA11" s="71">
+        <v>9.9</v>
+      </c>
+      <c r="AB11" s="71">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="72"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="72"/>
+      <c r="AI11" s="72"/>
+      <c r="AJ11" s="72"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="72"/>
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="72"/>
+      <c r="AO11" s="72"/>
+      <c r="AP11" s="72"/>
+      <c r="AQ11" s="72"/>
+      <c r="AR11" s="72"/>
+      <c r="AS11" s="72"/>
+      <c r="AT11" s="72"/>
+      <c r="AU11" s="72"/>
+      <c r="AV11" s="72"/>
+      <c r="AW11" s="72"/>
+      <c r="AX11" s="72"/>
+      <c r="AY11" s="72"/>
+      <c r="AZ11" s="72"/>
+      <c r="BA11" s="72"/>
+      <c r="BB11" s="72"/>
+    </row>
+    <row r="12" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="73">
+        <v>12.7</v>
+      </c>
+      <c r="C12" s="71">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="D12" s="71">
+        <v>14.499999999999998</v>
+      </c>
+      <c r="E12" s="71">
+        <v>15.299999999999999</v>
+      </c>
+      <c r="F12" s="71">
+        <v>15.1</v>
+      </c>
+      <c r="G12" s="71">
+        <v>15.2</v>
+      </c>
+      <c r="H12" s="71">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I12" s="71">
+        <v>15</v>
+      </c>
+      <c r="J12" s="71">
+        <v>14.899999999999999</v>
+      </c>
+      <c r="K12" s="71">
+        <v>16.7</v>
+      </c>
+      <c r="L12" s="71">
+        <v>16.7</v>
+      </c>
+      <c r="M12" s="71">
+        <v>16.7</v>
+      </c>
+      <c r="N12" s="71">
+        <v>15.8</v>
+      </c>
+      <c r="O12" s="71">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="P12" s="71">
+        <v>14.799999999999999</v>
+      </c>
+      <c r="Q12" s="71">
+        <v>15.7</v>
+      </c>
+      <c r="R12" s="71">
+        <v>15.9</v>
+      </c>
+      <c r="S12" s="71">
+        <v>14.499999999999998</v>
+      </c>
+      <c r="T12" s="71">
+        <v>14.499999999999998</v>
+      </c>
+      <c r="U12" s="71">
+        <v>13.8</v>
+      </c>
+      <c r="V12" s="71">
+        <v>12.9</v>
+      </c>
+      <c r="W12" s="71">
+        <v>10.6</v>
+      </c>
+      <c r="X12" s="71">
+        <v>11.5</v>
+      </c>
+      <c r="Y12" s="71">
+        <v>12.3</v>
+      </c>
+      <c r="Z12" s="71">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="AA12" s="71">
+        <v>10.6</v>
+      </c>
+      <c r="AB12" s="71">
+        <v>11.5</v>
+      </c>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="72"/>
+      <c r="AE12" s="72"/>
+      <c r="AF12" s="72"/>
+      <c r="AG12" s="72"/>
+      <c r="AH12" s="72"/>
+      <c r="AI12" s="72"/>
+      <c r="AJ12" s="72"/>
+      <c r="AK12" s="72"/>
+      <c r="AL12" s="72"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="72"/>
+      <c r="AO12" s="72"/>
+      <c r="AP12" s="72"/>
+      <c r="AQ12" s="72"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="72"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="72"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="72"/>
+      <c r="BA12" s="72"/>
+      <c r="BB12" s="72"/>
+    </row>
+    <row r="13" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="73">
+        <v>2.1</v>
+      </c>
+      <c r="C13" s="71">
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="D13" s="71">
+        <v>10</v>
+      </c>
+      <c r="E13" s="71">
+        <v>8.2000000000000011</v>
+      </c>
+      <c r="F13" s="71">
+        <v>10</v>
+      </c>
+      <c r="G13" s="71">
+        <v>10.9</v>
+      </c>
+      <c r="H13" s="71">
+        <v>10</v>
+      </c>
+      <c r="I13" s="71">
+        <v>11</v>
+      </c>
+      <c r="J13" s="71">
+        <v>10.7</v>
+      </c>
+      <c r="K13" s="71">
+        <v>8.7999999999999989</v>
+      </c>
+      <c r="L13" s="71">
+        <v>10.299999999999999</v>
+      </c>
+      <c r="M13" s="71">
+        <v>9.6</v>
+      </c>
+      <c r="N13" s="71">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O13" s="71">
+        <v>7.9</v>
+      </c>
+      <c r="P13" s="71">
+        <v>7.7</v>
+      </c>
+      <c r="Q13" s="71">
+        <v>7.8</v>
+      </c>
+      <c r="R13" s="71">
+        <v>6.1</v>
+      </c>
+      <c r="S13" s="71">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="T13" s="71">
+        <v>7.7</v>
+      </c>
+      <c r="U13" s="71">
+        <v>5.5</v>
+      </c>
+      <c r="V13" s="71">
+        <v>5.7</v>
+      </c>
+      <c r="W13" s="71">
+        <v>4</v>
+      </c>
+      <c r="X13" s="71">
+        <v>5</v>
+      </c>
+      <c r="Y13" s="71">
+        <v>4.3</v>
+      </c>
+      <c r="Z13" s="71">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AA13" s="71">
+        <v>3.8</v>
+      </c>
+      <c r="AB13" s="71">
+        <v>3.9</v>
+      </c>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="72"/>
+      <c r="AF13" s="72"/>
+      <c r="AG13" s="72"/>
+      <c r="AH13" s="72"/>
+      <c r="AI13" s="72"/>
+      <c r="AJ13" s="72"/>
+      <c r="AK13" s="72"/>
+      <c r="AL13" s="72"/>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="72"/>
+      <c r="AO13" s="72"/>
+      <c r="AP13" s="72"/>
+      <c r="AQ13" s="72"/>
+      <c r="AR13" s="72"/>
+      <c r="AS13" s="72"/>
+      <c r="AT13" s="72"/>
+      <c r="AU13" s="72"/>
+      <c r="AV13" s="72"/>
+      <c r="AW13" s="72"/>
+      <c r="AX13" s="72"/>
+      <c r="AY13" s="72"/>
+      <c r="AZ13" s="72"/>
+      <c r="BA13" s="72"/>
+      <c r="BB13" s="72"/>
+    </row>
+    <row r="14" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="73">
+        <v>1.6</v>
+      </c>
+      <c r="C14" s="71">
+        <v>4.5</v>
+      </c>
+      <c r="D14" s="71">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E14" s="71">
+        <v>6.9</v>
+      </c>
+      <c r="F14" s="71">
+        <v>6.2</v>
+      </c>
+      <c r="G14" s="71">
+        <v>6.3</v>
+      </c>
+      <c r="H14" s="71">
+        <v>9.1</v>
+      </c>
+      <c r="I14" s="71">
+        <v>10.5</v>
+      </c>
+      <c r="J14" s="71">
+        <v>12.2</v>
+      </c>
+      <c r="K14" s="71">
+        <v>14.499999999999998</v>
+      </c>
+      <c r="L14" s="71">
+        <v>14.7</v>
+      </c>
+      <c r="M14" s="71">
+        <v>15.4</v>
+      </c>
+      <c r="N14" s="71">
+        <v>15.2</v>
+      </c>
+      <c r="O14" s="71">
+        <v>17.299999999999997</v>
+      </c>
+      <c r="P14" s="71">
+        <v>22.3</v>
+      </c>
+      <c r="Q14" s="71">
+        <v>22.6</v>
+      </c>
+      <c r="R14" s="71">
+        <v>25.900000000000002</v>
+      </c>
+      <c r="S14" s="71">
+        <v>20.599999999999998</v>
+      </c>
+      <c r="T14" s="71">
+        <v>19.900000000000002</v>
+      </c>
+      <c r="U14" s="71">
+        <v>21.7</v>
+      </c>
+      <c r="V14" s="71">
+        <v>22.1</v>
+      </c>
+      <c r="W14" s="71">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="X14" s="71">
+        <v>20.8</v>
+      </c>
+      <c r="Y14" s="71">
+        <v>25.6</v>
+      </c>
+      <c r="Z14" s="71">
+        <v>20.599999999999998</v>
+      </c>
+      <c r="AA14" s="71">
+        <v>22.400000000000002</v>
+      </c>
+      <c r="AB14" s="71">
+        <v>23.3</v>
+      </c>
+      <c r="AC14" s="63"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="72"/>
+      <c r="AG14" s="72"/>
+      <c r="AH14" s="72"/>
+      <c r="AI14" s="72"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="72"/>
+      <c r="AN14" s="72"/>
+      <c r="AO14" s="72"/>
+      <c r="AP14" s="72"/>
+      <c r="AQ14" s="72"/>
+      <c r="AR14" s="72"/>
+      <c r="AS14" s="72"/>
+      <c r="AT14" s="72"/>
+      <c r="AU14" s="72"/>
+      <c r="AV14" s="72"/>
+      <c r="AW14" s="72"/>
+      <c r="AX14" s="72"/>
+      <c r="AY14" s="72"/>
+      <c r="AZ14" s="72"/>
+      <c r="BA14" s="72"/>
+      <c r="BB14" s="72"/>
+    </row>
+    <row r="15" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="69"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="74"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="74"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="74"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="74"/>
+      <c r="AY15" s="74"/>
+      <c r="AZ15" s="74"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="74"/>
+    </row>
+    <row r="16" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="75">
+        <v>20</v>
+      </c>
+      <c r="C16" s="75">
+        <v>23</v>
+      </c>
+      <c r="D16" s="75">
+        <v>23.3</v>
+      </c>
+      <c r="E16" s="75">
+        <v>23.4</v>
+      </c>
+      <c r="F16" s="75">
+        <v>23.1</v>
+      </c>
+      <c r="G16" s="75">
+        <v>23.5</v>
+      </c>
+      <c r="H16" s="75">
+        <v>23.3</v>
+      </c>
+      <c r="I16" s="75">
+        <v>23.4</v>
+      </c>
+      <c r="J16" s="75">
+        <v>23.3</v>
+      </c>
+      <c r="K16" s="75">
+        <v>23.4</v>
+      </c>
+      <c r="L16" s="75">
+        <v>23.4</v>
+      </c>
+      <c r="M16" s="75">
+        <v>23</v>
+      </c>
+      <c r="N16" s="75">
+        <v>22.9</v>
+      </c>
+      <c r="O16" s="75">
+        <v>23</v>
+      </c>
+      <c r="P16" s="75">
+        <v>23.1</v>
+      </c>
+      <c r="Q16" s="75">
+        <v>23.3</v>
+      </c>
+      <c r="R16" s="75">
+        <v>23.1</v>
+      </c>
+      <c r="S16" s="75">
+        <v>23.5</v>
+      </c>
+      <c r="T16" s="75">
+        <v>23.3</v>
+      </c>
+      <c r="U16" s="75">
+        <v>24.1</v>
+      </c>
+      <c r="V16" s="75">
+        <v>24.3</v>
+      </c>
+      <c r="W16" s="75">
+        <v>25.3</v>
+      </c>
+      <c r="X16" s="75">
+        <v>26.2</v>
+      </c>
+      <c r="Y16" s="75">
+        <v>26</v>
+      </c>
+      <c r="Z16" s="75">
+        <v>27.8</v>
+      </c>
+      <c r="AA16" s="69">
+        <v>28.3</v>
+      </c>
+      <c r="AB16" s="69">
+        <v>28.7</v>
+      </c>
+      <c r="AC16" s="63"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="76"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="76"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="76"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="76"/>
+      <c r="AT16" s="76"/>
+      <c r="AU16" s="76"/>
+      <c r="AV16" s="76"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="76"/>
+      <c r="AY16" s="76"/>
+      <c r="AZ16" s="76"/>
+      <c r="BA16" s="76"/>
+      <c r="BB16" s="76"/>
+    </row>
+    <row r="17" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="75">
+        <v>14.6</v>
+      </c>
+      <c r="C17" s="75">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D17" s="75">
+        <v>18.8</v>
+      </c>
+      <c r="E17" s="75">
+        <v>18.2</v>
+      </c>
+      <c r="F17" s="75">
+        <v>17.8</v>
+      </c>
+      <c r="G17" s="75">
+        <v>17</v>
+      </c>
+      <c r="H17" s="75">
+        <v>18</v>
+      </c>
+      <c r="I17" s="75">
+        <v>17.8</v>
+      </c>
+      <c r="J17" s="75">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K17" s="75">
+        <v>19.2</v>
+      </c>
+      <c r="L17" s="75">
+        <v>18.2</v>
+      </c>
+      <c r="M17" s="75">
+        <v>18.5</v>
+      </c>
+      <c r="N17" s="75">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O17" s="75">
+        <v>18.8</v>
+      </c>
+      <c r="P17" s="75">
+        <v>19.3</v>
+      </c>
+      <c r="Q17" s="75">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="R17" s="75">
+        <v>20</v>
+      </c>
+      <c r="S17" s="75">
+        <v>20.2</v>
+      </c>
+      <c r="T17" s="75">
+        <v>20.5</v>
+      </c>
+      <c r="U17" s="75">
+        <v>20.6</v>
+      </c>
+      <c r="V17" s="75">
+        <v>21.2</v>
+      </c>
+      <c r="W17" s="75">
+        <v>22</v>
+      </c>
+      <c r="X17" s="75">
+        <v>23</v>
+      </c>
+      <c r="Y17" s="75">
+        <v>23.6</v>
+      </c>
+      <c r="Z17" s="75">
+        <v>23.4</v>
+      </c>
+      <c r="AA17" s="69">
+        <v>24.5</v>
+      </c>
+      <c r="AB17" s="69">
+        <v>24.3</v>
+      </c>
+      <c r="AC17" s="63"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="76"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="76"/>
+      <c r="AT17" s="76"/>
+      <c r="AU17" s="76"/>
+      <c r="AV17" s="76"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="76"/>
+      <c r="AY17" s="76"/>
+      <c r="AZ17" s="76"/>
+      <c r="BA17" s="76"/>
+      <c r="BB17" s="76"/>
+    </row>
+    <row r="18" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="75">
+        <v>16.5</v>
+      </c>
+      <c r="C18" s="75">
+        <v>18.2</v>
+      </c>
+      <c r="D18" s="75">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E18" s="75">
+        <v>18.2</v>
+      </c>
+      <c r="F18" s="75">
+        <v>17.5</v>
+      </c>
+      <c r="G18" s="75">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H18" s="75">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I18" s="75">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J18" s="75">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="K18" s="75">
+        <v>16.8</v>
+      </c>
+      <c r="L18" s="75">
+        <v>17</v>
+      </c>
+      <c r="M18" s="75">
+        <v>16.3</v>
+      </c>
+      <c r="N18" s="75">
+        <v>16.7</v>
+      </c>
+      <c r="O18" s="75">
+        <v>16</v>
+      </c>
+      <c r="P18" s="75">
+        <v>15.8</v>
+      </c>
+      <c r="Q18" s="75">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R18" s="75">
+        <v>15.7</v>
+      </c>
+      <c r="S18" s="75">
+        <v>15.8</v>
+      </c>
+      <c r="T18" s="75">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="U18" s="75">
+        <v>16.2</v>
+      </c>
+      <c r="V18" s="75">
+        <v>16.5</v>
+      </c>
+      <c r="W18" s="75">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="X18" s="75">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="Y18" s="75">
+        <v>17.2</v>
+      </c>
+      <c r="Z18" s="75">
+        <v>17.2</v>
+      </c>
+      <c r="AA18" s="69">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="AB18" s="75">
+        <v>18</v>
+      </c>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76"/>
+      <c r="AK18" s="76"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="76"/>
+      <c r="AU18" s="76"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="76"/>
+      <c r="AZ18" s="76"/>
+      <c r="BA18" s="76"/>
+      <c r="BB18" s="76"/>
+    </row>
+    <row r="19" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="75">
+        <v>14.1</v>
+      </c>
+      <c r="C19" s="75">
+        <v>16.5</v>
+      </c>
+      <c r="D19" s="75">
+        <v>17.8</v>
+      </c>
+      <c r="E19" s="75">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F19" s="75">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G19" s="75">
+        <v>18.2</v>
+      </c>
+      <c r="H19" s="75">
+        <v>17.8</v>
+      </c>
+      <c r="I19" s="75">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J19" s="75">
+        <v>18.3</v>
+      </c>
+      <c r="K19" s="75">
+        <v>18.2</v>
+      </c>
+      <c r="L19" s="75">
+        <v>18.7</v>
+      </c>
+      <c r="M19" s="75">
+        <v>18.3</v>
+      </c>
+      <c r="N19" s="75">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="O19" s="75">
+        <v>18</v>
+      </c>
+      <c r="P19" s="75">
+        <v>18.7</v>
+      </c>
+      <c r="Q19" s="75">
+        <v>19</v>
+      </c>
+      <c r="R19" s="75">
+        <v>19.2</v>
+      </c>
+      <c r="S19" s="75">
+        <v>19.3</v>
+      </c>
+      <c r="T19" s="75">
+        <v>19.5</v>
+      </c>
+      <c r="U19" s="75">
+        <v>19.5</v>
+      </c>
+      <c r="V19" s="75">
+        <v>19.8</v>
+      </c>
+      <c r="W19" s="75">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="X19" s="75">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="Y19" s="75">
+        <v>21</v>
+      </c>
+      <c r="Z19" s="75">
+        <v>21.4</v>
+      </c>
+      <c r="AA19" s="69">
+        <v>21.1</v>
+      </c>
+      <c r="AB19" s="69">
+        <v>21.2</v>
+      </c>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="76"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="76"/>
+      <c r="AG19" s="76"/>
+      <c r="AH19" s="76"/>
+      <c r="AI19" s="76"/>
+      <c r="AJ19" s="76"/>
+      <c r="AK19" s="76"/>
+      <c r="AL19" s="76"/>
+      <c r="AM19" s="76"/>
+      <c r="AN19" s="76"/>
+      <c r="AO19" s="76"/>
+      <c r="AP19" s="76"/>
+      <c r="AQ19" s="76"/>
+      <c r="AR19" s="76"/>
+      <c r="AS19" s="76"/>
+      <c r="AT19" s="76"/>
+      <c r="AU19" s="76"/>
+      <c r="AV19" s="76"/>
+      <c r="AW19" s="76"/>
+      <c r="AX19" s="76"/>
+      <c r="AY19" s="76"/>
+      <c r="AZ19" s="76"/>
+      <c r="BA19" s="76"/>
+      <c r="BB19" s="76"/>
+    </row>
+    <row r="20" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="78">
+        <v>13.2</v>
+      </c>
+      <c r="C20" s="78">
+        <v>16.5</v>
+      </c>
+      <c r="D20" s="78">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E20" s="78">
+        <v>16.7</v>
+      </c>
+      <c r="F20" s="78">
+        <v>16.2</v>
+      </c>
+      <c r="G20" s="78">
+        <v>16.3</v>
+      </c>
+      <c r="H20" s="78">
+        <v>16</v>
+      </c>
+      <c r="I20" s="78">
+        <v>16</v>
+      </c>
+      <c r="J20" s="78">
+        <v>16.2</v>
+      </c>
+      <c r="K20" s="78">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="L20" s="78">
+        <v>16.2</v>
+      </c>
+      <c r="M20" s="78">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="N20" s="78">
+        <v>16</v>
+      </c>
+      <c r="O20" s="78">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="P20" s="78">
+        <v>16.3</v>
+      </c>
+      <c r="Q20" s="78">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R20" s="78">
+        <v>16.5</v>
+      </c>
+      <c r="S20" s="78">
+        <v>16.7</v>
+      </c>
+      <c r="T20" s="78">
+        <v>17.2</v>
+      </c>
+      <c r="U20" s="78">
+        <v>17.7</v>
+      </c>
+      <c r="V20" s="78">
+        <v>18.2</v>
+      </c>
+      <c r="W20" s="78">
+        <v>19.3</v>
+      </c>
+      <c r="X20" s="78">
+        <v>19.7</v>
+      </c>
+      <c r="Y20" s="78">
+        <v>19.8</v>
+      </c>
+      <c r="Z20" s="78">
+        <v>20</v>
+      </c>
+      <c r="AA20" s="79">
+        <v>20.9</v>
+      </c>
+      <c r="AB20" s="79">
+        <v>21.2</v>
+      </c>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="76"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="76"/>
+      <c r="BB20" s="76"/>
+    </row>
+    <row r="21" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
+      <c r="Q21" s="80"/>
+    </row>
+    <row r="22" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+    </row>
+    <row r="23" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="82" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+    </row>
+    <row r="24" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
+      <c r="Q24" s="83"/>
+    </row>
+    <row r="25" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="83"/>
+      <c r="N25" s="83"/>
+      <c r="O25" s="83"/>
+      <c r="P25" s="83"/>
+      <c r="Q25" s="83"/>
+    </row>
+    <row r="26" spans="1:54" s="81" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="84" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+    </row>
+    <row r="27" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+    </row>
+    <row r="28" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="85"/>
+    </row>
+    <row r="29" spans="1:54" s="81" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="86" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+    </row>
+    <row r="30" spans="1:54" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:54" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:54" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A29:Q29"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="AC1:BB1"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="A24:Q24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
@@ -1769,21 +4354,21 @@
     <col min="1" max="1" width="30.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="25.140625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1791,10 +4376,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>6</v>
@@ -1808,26 +4393,26 @@
         <v>14</v>
       </c>
       <c r="C3" s="5">
-        <f>AVERAGE(8243,6244,6969,6934,8524)</f>
-        <v>7382.8</v>
+        <f>AVERAGE(SUM('NTS 1-20'!X4:X5),SUM('NTS 1-20'!Y4:Y5),SUM('NTS 1-20'!Z4:Z5),SUM('NTS 1-20'!AA4:AA5))</f>
+        <v>7982.5</v>
       </c>
       <c r="D3" s="5">
-        <f>AVERAGE(5656,3071,4141,5069,4819)</f>
-        <v>4551.2</v>
+        <f>AVERAGE(SUM('NTS 1-20'!X6:X8),SUM('NTS 1-20'!Y6:Y8),SUM('NTS 1-20'!Z6:Z8),SUM('NTS 1-20'!AA6:AA8))</f>
+        <v>4867.25</v>
       </c>
       <c r="E3" s="8">
         <f>(A3*C3+B3*D3)/(C3+D3)</f>
-        <v>13.381364169599465</v>
+        <v>13.378781688359696</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1837,7 +4422,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -1846,38 +4431,38 @@
     </row>
     <row r="10" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C14" s="23"/>
     </row>
@@ -1889,7 +4474,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
@@ -1898,21 +4483,21 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11">
         <v>33</v>
@@ -1920,10 +4505,10 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C20" s="11">
         <v>35</v>
@@ -1932,7 +4517,7 @@
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="15" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C21" s="16">
         <v>34</v>
@@ -1940,17 +4525,17 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -1959,21 +4544,21 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C27" s="16">
         <v>33</v>
@@ -1981,7 +4566,7 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
@@ -1990,19 +4575,19 @@
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D30" s="38" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2217,7 +4802,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -2240,7 +4825,7 @@
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2257,10 +4842,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3:D3" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -2277,24 +4865,24 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B2" s="46">
         <f>Data!E3</f>
-        <v>13.381364169599465</v>
+        <v>13.378781688359696</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <f>Data!A7</f>
@@ -2303,7 +4891,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B4" s="47">
         <f>Data!A15</f>
@@ -2312,7 +4900,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <f>Data!C21</f>
@@ -2321,7 +4909,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <f>Data!C27</f>
@@ -2330,7 +4918,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B7" s="46">
         <f>Data!A47</f>

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>Car Avg Lifetime, years (Page 22, Table 7)</t>
   </si>
@@ -304,6 +304,12 @@
   </si>
   <si>
     <t>Table 1-20</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>The model requires the lifetime to be an integer, so we round to the nearest integer.</t>
   </si>
 </sst>
 </file>
@@ -1319,14 +1325,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="59" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1391,28 +1390,35 @@
     </xf>
     <xf numFmtId="167" fontId="31" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="20% - Accent1" xfId="35" builtinId="30" customBuiltin="1"/>
@@ -1805,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1952,54 +1958,64 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" s="21">
         <v>2009</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2025,2319 +2041,2319 @@
   <cols>
     <col min="1" max="1" width="19.42578125" style="14" customWidth="1"/>
     <col min="2" max="27" width="7.7109375" style="14" customWidth="1"/>
-    <col min="28" max="28" width="7.140625" style="87" customWidth="1"/>
-    <col min="29" max="55" width="9.140625" style="87"/>
+    <col min="28" max="28" width="7.140625" style="78" customWidth="1"/>
+    <col min="29" max="55" width="9.140625" style="78"/>
     <col min="56" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="84"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="84"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="84"/>
+      <c r="AZ1" s="84"/>
+      <c r="BA1" s="84"/>
+      <c r="BB1" s="84"/>
     </row>
     <row r="2" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48">
         <v>1980</v>
       </c>
-      <c r="C2" s="52">
+      <c r="C2" s="49">
         <v>1985</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="49">
         <v>1990</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="49">
         <v>1991</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="49">
         <v>1992</v>
       </c>
-      <c r="G2" s="52">
+      <c r="G2" s="49">
         <v>1993</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="49">
         <v>1994</v>
       </c>
-      <c r="I2" s="52">
+      <c r="I2" s="49">
         <v>1995</v>
       </c>
-      <c r="J2" s="52">
+      <c r="J2" s="49">
         <v>1996</v>
       </c>
-      <c r="K2" s="52">
+      <c r="K2" s="49">
         <v>1997</v>
       </c>
-      <c r="L2" s="52">
+      <c r="L2" s="49">
         <v>1998</v>
       </c>
-      <c r="M2" s="52">
+      <c r="M2" s="49">
         <v>1999</v>
       </c>
-      <c r="N2" s="52">
+      <c r="N2" s="49">
         <v>2000</v>
       </c>
-      <c r="O2" s="52">
+      <c r="O2" s="49">
         <v>2001</v>
       </c>
-      <c r="P2" s="52">
+      <c r="P2" s="49">
         <v>2002</v>
       </c>
-      <c r="Q2" s="52">
+      <c r="Q2" s="49">
         <v>2003</v>
       </c>
-      <c r="R2" s="52">
+      <c r="R2" s="49">
         <v>2004</v>
       </c>
-      <c r="S2" s="52">
+      <c r="S2" s="49">
         <v>2005</v>
       </c>
-      <c r="T2" s="52">
+      <c r="T2" s="49">
         <v>2006</v>
       </c>
-      <c r="U2" s="52">
+      <c r="U2" s="49">
         <v>2007</v>
       </c>
-      <c r="V2" s="52">
+      <c r="V2" s="49">
         <v>2008</v>
       </c>
-      <c r="W2" s="52">
+      <c r="W2" s="49">
         <v>2009</v>
       </c>
-      <c r="X2" s="52">
+      <c r="X2" s="49">
         <v>2010</v>
       </c>
-      <c r="Y2" s="52">
+      <c r="Y2" s="49">
         <v>2011</v>
       </c>
-      <c r="Z2" s="53">
+      <c r="Z2" s="50">
         <v>2012</v>
       </c>
-      <c r="AA2" s="52">
+      <c r="AA2" s="49">
         <v>2013</v>
       </c>
-      <c r="AB2" s="54">
+      <c r="AB2" s="51">
         <v>2014</v>
       </c>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="57"/>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="57"/>
-      <c r="BB2" s="58"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="53"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
+      <c r="AX2" s="54"/>
+      <c r="AY2" s="54"/>
+      <c r="AZ2" s="54"/>
+      <c r="BA2" s="54"/>
+      <c r="BB2" s="55"/>
     </row>
     <row r="3" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="57">
         <v>11306</v>
       </c>
-      <c r="C3" s="60">
+      <c r="C3" s="57">
         <v>14460</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="57">
         <v>12615</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="57">
         <v>12573</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="57">
         <v>12172</v>
       </c>
-      <c r="G3" s="60">
+      <c r="G3" s="57">
         <v>13211</v>
       </c>
-      <c r="H3" s="60">
+      <c r="H3" s="57">
         <v>14125</v>
       </c>
-      <c r="I3" s="60">
+      <c r="I3" s="57">
         <v>15145</v>
       </c>
-      <c r="J3" s="60">
+      <c r="J3" s="57">
         <v>13144</v>
       </c>
-      <c r="K3" s="60">
+      <c r="K3" s="57">
         <v>14458</v>
       </c>
-      <c r="L3" s="60">
+      <c r="L3" s="57">
         <v>14456</v>
       </c>
-      <c r="M3" s="60">
+      <c r="M3" s="57">
         <v>15215</v>
       </c>
-      <c r="N3" s="60">
+      <c r="N3" s="57">
         <v>16571</v>
       </c>
-      <c r="O3" s="60">
+      <c r="O3" s="57">
         <v>15605</v>
       </c>
-      <c r="P3" s="60">
+      <c r="P3" s="57">
         <v>16115</v>
       </c>
-      <c r="Q3" s="60">
+      <c r="Q3" s="57">
         <v>15773</v>
       </c>
-      <c r="R3" s="60">
+      <c r="R3" s="57">
         <v>15709</v>
       </c>
-      <c r="S3" s="60">
+      <c r="S3" s="57">
         <v>15892</v>
       </c>
-      <c r="T3" s="60">
+      <c r="T3" s="57">
         <v>15104</v>
       </c>
-      <c r="U3" s="60">
+      <c r="U3" s="57">
         <v>15276</v>
       </c>
-      <c r="V3" s="60">
+      <c r="V3" s="57">
         <v>13898</v>
       </c>
-      <c r="W3" s="60">
+      <c r="W3" s="57">
         <v>9316</v>
       </c>
-      <c r="X3" s="60">
+      <c r="X3" s="57">
         <v>11110</v>
       </c>
-      <c r="Y3" s="60">
+      <c r="Y3" s="57">
         <v>12003</v>
       </c>
-      <c r="Z3" s="60">
+      <c r="Z3" s="57">
         <v>13438</v>
       </c>
-      <c r="AA3" s="60">
+      <c r="AA3" s="57">
         <v>14846</v>
       </c>
-      <c r="AB3" s="61" t="s">
+      <c r="AB3" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="59"/>
+      <c r="AM3" s="59"/>
+      <c r="AN3" s="59"/>
+      <c r="AO3" s="59"/>
+      <c r="AP3" s="59"/>
+      <c r="AQ3" s="59"/>
+      <c r="AR3" s="59"/>
+      <c r="AS3" s="59"/>
+      <c r="AT3" s="59"/>
+      <c r="AU3" s="59"/>
+      <c r="AV3" s="59"/>
+      <c r="AW3" s="59"/>
+      <c r="AX3" s="59"/>
+      <c r="AY3" s="59"/>
+      <c r="AZ3" s="59"/>
+      <c r="BA3" s="59"/>
+      <c r="BB3" s="59"/>
     </row>
     <row r="4" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="61">
         <v>9443</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="61">
         <v>10791</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="61">
         <v>8810</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="61">
         <v>8524</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="61">
         <v>8108</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="61">
         <v>8456</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="61">
         <v>8415</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="61">
         <v>9396</v>
       </c>
-      <c r="J4" s="64">
+      <c r="J4" s="61">
         <v>7890</v>
       </c>
-      <c r="K4" s="64">
+      <c r="K4" s="61">
         <v>8334</v>
       </c>
-      <c r="L4" s="64">
+      <c r="L4" s="61">
         <v>7971</v>
       </c>
-      <c r="M4" s="64">
+      <c r="M4" s="61">
         <v>8376</v>
       </c>
-      <c r="N4" s="64">
+      <c r="N4" s="61">
         <v>9125</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="61">
         <v>8405</v>
       </c>
-      <c r="P4" s="64">
+      <c r="P4" s="61">
         <v>8301</v>
       </c>
-      <c r="Q4" s="64">
+      <c r="Q4" s="61">
         <v>7921</v>
       </c>
-      <c r="R4" s="64">
+      <c r="R4" s="61">
         <v>7537</v>
       </c>
-      <c r="S4" s="64">
+      <c r="S4" s="61">
         <v>8027</v>
       </c>
-      <c r="T4" s="64">
+      <c r="T4" s="61">
         <v>7993</v>
       </c>
-      <c r="U4" s="64">
+      <c r="U4" s="61">
         <v>8082</v>
       </c>
-      <c r="V4" s="64">
+      <c r="V4" s="61">
         <v>7319</v>
       </c>
-      <c r="W4" s="64">
+      <c r="W4" s="61">
         <v>5636</v>
       </c>
-      <c r="X4" s="64">
+      <c r="X4" s="61">
         <v>6055</v>
       </c>
-      <c r="Y4" s="65">
+      <c r="Y4" s="62">
         <v>5728</v>
       </c>
-      <c r="Z4" s="65">
+      <c r="Z4" s="62">
         <v>7379</v>
       </c>
-      <c r="AA4" s="65">
+      <c r="AA4" s="62">
         <v>7907</v>
       </c>
-      <c r="AB4" s="64" t="s">
+      <c r="AB4" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66"/>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="67"/>
-      <c r="BB4" s="67"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="63"/>
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="63"/>
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="63"/>
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="63"/>
+      <c r="BA4" s="64"/>
+      <c r="BB4" s="64"/>
     </row>
     <row r="5" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="61">
         <v>0</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="61">
         <v>88</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="61">
         <v>65</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="61">
         <v>224</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="61">
         <v>243</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="61">
         <v>473</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="61">
         <v>332</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="61">
         <v>220</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="61">
         <v>287</v>
       </c>
-      <c r="K5" s="64">
+      <c r="K5" s="61">
         <v>361</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="61">
         <v>454</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="61">
         <v>488</v>
       </c>
-      <c r="N5" s="64">
+      <c r="N5" s="61">
         <v>617</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="61">
         <v>743</v>
       </c>
-      <c r="P5" s="64">
+      <c r="P5" s="61">
         <v>603</v>
       </c>
-      <c r="Q5" s="64">
+      <c r="Q5" s="61">
         <v>575</v>
       </c>
-      <c r="R5" s="64">
+      <c r="R5" s="61">
         <v>639</v>
       </c>
-      <c r="S5" s="64">
+      <c r="S5" s="61">
         <v>813</v>
       </c>
-      <c r="T5" s="64">
+      <c r="T5" s="61">
         <v>751</v>
       </c>
-      <c r="U5" s="64">
+      <c r="U5" s="61">
         <v>919</v>
       </c>
-      <c r="V5" s="64">
+      <c r="V5" s="61">
         <v>924</v>
       </c>
-      <c r="W5" s="64">
+      <c r="W5" s="61">
         <v>608</v>
       </c>
-      <c r="X5" s="64">
+      <c r="X5" s="61">
         <v>915</v>
       </c>
-      <c r="Y5" s="65">
+      <c r="Y5" s="62">
         <v>1207</v>
       </c>
-      <c r="Z5" s="65">
+      <c r="Z5" s="62">
         <v>1269</v>
       </c>
-      <c r="AA5" s="65">
+      <c r="AA5" s="62">
         <v>1470</v>
       </c>
-      <c r="AB5" s="64" t="s">
+      <c r="AB5" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AC5" s="63"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="66"/>
-      <c r="AN5" s="66"/>
-      <c r="AO5" s="66"/>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="66"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="66"/>
-      <c r="AV5" s="66"/>
-      <c r="AW5" s="66"/>
-      <c r="AX5" s="66"/>
-      <c r="AY5" s="66"/>
-      <c r="AZ5" s="66"/>
-      <c r="BA5" s="67"/>
-      <c r="BB5" s="67"/>
+      <c r="AC5" s="60"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="63"/>
+      <c r="AK5" s="63"/>
+      <c r="AL5" s="63"/>
+      <c r="AM5" s="63"/>
+      <c r="AN5" s="63"/>
+      <c r="AO5" s="63"/>
+      <c r="AP5" s="63"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="63"/>
+      <c r="AS5" s="63"/>
+      <c r="AT5" s="63"/>
+      <c r="AU5" s="63"/>
+      <c r="AV5" s="63"/>
+      <c r="AW5" s="63"/>
+      <c r="AX5" s="63"/>
+      <c r="AY5" s="63"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="64"/>
+      <c r="BB5" s="64"/>
     </row>
     <row r="6" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="61">
         <v>1437</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="61">
         <v>2078</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="61">
         <v>1835</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="61">
         <v>1920</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="61">
         <v>1840</v>
       </c>
-      <c r="G6" s="64">
+      <c r="G6" s="61">
         <v>2002</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="61">
         <v>2669</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="61">
         <v>2271</v>
       </c>
-      <c r="J6" s="64">
+      <c r="J6" s="61">
         <v>1955</v>
       </c>
-      <c r="K6" s="64">
+      <c r="K6" s="61">
         <v>2408</v>
       </c>
-      <c r="L6" s="64">
+      <c r="L6" s="61">
         <v>2415</v>
       </c>
-      <c r="M6" s="64">
+      <c r="M6" s="61">
         <v>2544</v>
       </c>
-      <c r="N6" s="64">
+      <c r="N6" s="61">
         <v>2612</v>
       </c>
-      <c r="O6" s="64">
+      <c r="O6" s="61">
         <v>2519</v>
       </c>
-      <c r="P6" s="64">
+      <c r="P6" s="61">
         <v>2380</v>
       </c>
-      <c r="Q6" s="64">
+      <c r="Q6" s="61">
         <v>2474</v>
       </c>
-      <c r="R6" s="64">
+      <c r="R6" s="61">
         <v>2505</v>
       </c>
-      <c r="S6" s="64">
+      <c r="S6" s="61">
         <v>2300</v>
       </c>
-      <c r="T6" s="64">
+      <c r="T6" s="61">
         <v>2188</v>
       </c>
-      <c r="U6" s="64">
+      <c r="U6" s="61">
         <v>2113</v>
       </c>
-      <c r="V6" s="64">
+      <c r="V6" s="61">
         <v>1794</v>
       </c>
-      <c r="W6" s="64">
+      <c r="W6" s="61">
         <v>989</v>
       </c>
-      <c r="X6" s="64">
+      <c r="X6" s="61">
         <v>1276</v>
       </c>
-      <c r="Y6" s="65">
+      <c r="Y6" s="62">
         <v>1479</v>
       </c>
-      <c r="Z6" s="65">
+      <c r="Z6" s="62">
         <v>1357</v>
       </c>
-      <c r="AA6" s="65">
+      <c r="AA6" s="62">
         <v>1577</v>
       </c>
-      <c r="AB6" s="64" t="s">
+      <c r="AB6" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="66"/>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="66"/>
-      <c r="AY6" s="66"/>
-      <c r="AZ6" s="66"/>
-      <c r="BA6" s="67"/>
-      <c r="BB6" s="67"/>
+      <c r="AC6" s="60"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="63"/>
+      <c r="AI6" s="63"/>
+      <c r="AJ6" s="63"/>
+      <c r="AK6" s="63"/>
+      <c r="AL6" s="63"/>
+      <c r="AM6" s="63"/>
+      <c r="AN6" s="63"/>
+      <c r="AO6" s="63"/>
+      <c r="AP6" s="63"/>
+      <c r="AQ6" s="63"/>
+      <c r="AR6" s="63"/>
+      <c r="AS6" s="63"/>
+      <c r="AT6" s="63"/>
+      <c r="AU6" s="63"/>
+      <c r="AV6" s="63"/>
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="64"/>
+      <c r="BB6" s="64"/>
     </row>
     <row r="7" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="61">
         <v>242</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="61">
         <v>855</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="61">
         <v>1262</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="61">
         <v>1034</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="61">
         <v>1221</v>
       </c>
-      <c r="G7" s="64">
+      <c r="G7" s="61">
         <v>1441</v>
       </c>
-      <c r="H7" s="64">
+      <c r="H7" s="61">
         <v>1418</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="61">
         <v>1662</v>
       </c>
-      <c r="J7" s="64">
+      <c r="J7" s="61">
         <v>1409</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="61">
         <v>1265</v>
       </c>
-      <c r="L7" s="64">
+      <c r="L7" s="61">
         <v>1489</v>
       </c>
-      <c r="M7" s="64">
+      <c r="M7" s="61">
         <v>1463</v>
       </c>
-      <c r="N7" s="64">
+      <c r="N7" s="61">
         <v>1691</v>
       </c>
-      <c r="O7" s="64">
+      <c r="O7" s="61">
         <v>1232</v>
       </c>
-      <c r="P7" s="64">
+      <c r="P7" s="61">
         <v>1243</v>
       </c>
-      <c r="Q7" s="64">
+      <c r="Q7" s="61">
         <v>1232</v>
       </c>
-      <c r="R7" s="64">
+      <c r="R7" s="61">
         <v>953</v>
       </c>
-      <c r="S7" s="64">
+      <c r="S7" s="61">
         <v>1481</v>
       </c>
-      <c r="T7" s="64">
+      <c r="T7" s="61">
         <v>1166</v>
       </c>
-      <c r="U7" s="64">
+      <c r="U7" s="61">
         <v>847</v>
       </c>
-      <c r="V7" s="64">
+      <c r="V7" s="61">
         <v>790</v>
       </c>
-      <c r="W7" s="64">
+      <c r="W7" s="61">
         <v>368</v>
       </c>
-      <c r="X7" s="64">
+      <c r="X7" s="61">
         <v>559</v>
       </c>
-      <c r="Y7" s="65">
+      <c r="Y7" s="62">
         <v>521</v>
       </c>
-      <c r="Z7" s="65">
+      <c r="Z7" s="62">
         <v>661</v>
       </c>
-      <c r="AA7" s="65">
+      <c r="AA7" s="62">
         <v>571</v>
       </c>
-      <c r="AB7" s="64" t="s">
+      <c r="AB7" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="66"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
+      <c r="AC7" s="60"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="63"/>
+      <c r="AI7" s="63"/>
+      <c r="AJ7" s="63"/>
+      <c r="AK7" s="63"/>
+      <c r="AL7" s="63"/>
+      <c r="AM7" s="63"/>
+      <c r="AN7" s="63"/>
+      <c r="AO7" s="63"/>
+      <c r="AP7" s="63"/>
+      <c r="AQ7" s="63"/>
+      <c r="AR7" s="63"/>
+      <c r="AS7" s="63"/>
+      <c r="AT7" s="63"/>
+      <c r="AU7" s="63"/>
+      <c r="AV7" s="63"/>
+      <c r="AW7" s="63"/>
+      <c r="AX7" s="63"/>
+      <c r="AY7" s="63"/>
+      <c r="AZ7" s="63"/>
+      <c r="BA7" s="64"/>
+      <c r="BB7" s="64"/>
     </row>
     <row r="8" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="64">
+      <c r="B8" s="61">
         <v>184</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="61">
         <v>648</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="61">
         <v>643</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="61">
         <v>871</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="61">
         <v>761</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="61">
         <v>838</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="61">
         <v>1291</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="61">
         <v>1596</v>
       </c>
-      <c r="J8" s="64">
+      <c r="J8" s="61">
         <v>1603</v>
       </c>
-      <c r="K8" s="64">
+      <c r="K8" s="61">
         <v>2089</v>
       </c>
-      <c r="L8" s="64">
+      <c r="L8" s="61">
         <v>2127</v>
       </c>
-      <c r="M8" s="64">
+      <c r="M8" s="61">
         <v>2342</v>
       </c>
-      <c r="N8" s="64">
+      <c r="N8" s="61">
         <v>2526</v>
       </c>
-      <c r="O8" s="64">
+      <c r="O8" s="61">
         <v>2707</v>
       </c>
-      <c r="P8" s="64">
+      <c r="P8" s="61">
         <v>3588</v>
       </c>
-      <c r="Q8" s="64">
+      <c r="Q8" s="61">
         <v>3571</v>
       </c>
-      <c r="R8" s="64">
+      <c r="R8" s="61">
         <v>4075</v>
       </c>
-      <c r="S8" s="64">
+      <c r="S8" s="61">
         <v>3272</v>
       </c>
-      <c r="T8" s="64">
+      <c r="T8" s="61">
         <v>3006</v>
       </c>
-      <c r="U8" s="64">
+      <c r="U8" s="61">
         <v>3314</v>
       </c>
-      <c r="V8" s="64">
+      <c r="V8" s="61">
         <v>3072</v>
       </c>
-      <c r="W8" s="64">
+      <c r="W8" s="61">
         <v>1713</v>
       </c>
-      <c r="X8" s="64">
+      <c r="X8" s="61">
         <v>2305</v>
       </c>
-      <c r="Y8" s="65">
+      <c r="Y8" s="62">
         <v>3069</v>
       </c>
-      <c r="Z8" s="65">
+      <c r="Z8" s="62">
         <v>2773</v>
       </c>
-      <c r="AA8" s="65">
+      <c r="AA8" s="62">
         <v>3321</v>
       </c>
-      <c r="AB8" s="64" t="s">
+      <c r="AB8" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
-      <c r="AZ8" s="66"/>
-      <c r="BA8" s="67"/>
-      <c r="BB8" s="67"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="63"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="63"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="64"/>
+      <c r="BB8" s="64"/>
     </row>
     <row r="9" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="68"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="70"/>
-      <c r="AL9" s="70"/>
-      <c r="AM9" s="70"/>
-      <c r="AN9" s="70"/>
-      <c r="AO9" s="70"/>
-      <c r="AP9" s="70"/>
-      <c r="AQ9" s="70"/>
-      <c r="AR9" s="70"/>
-      <c r="AS9" s="70"/>
-      <c r="AT9" s="70"/>
-      <c r="AU9" s="70"/>
-      <c r="AV9" s="70"/>
-      <c r="AW9" s="70"/>
-      <c r="AX9" s="70"/>
-      <c r="AY9" s="70"/>
-      <c r="AZ9" s="70"/>
-      <c r="BA9" s="70"/>
-      <c r="BB9" s="70"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
+      <c r="AC9" s="65"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="67"/>
+      <c r="AW9" s="67"/>
+      <c r="AX9" s="67"/>
+      <c r="AY9" s="67"/>
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="67"/>
+      <c r="BB9" s="67"/>
     </row>
     <row r="10" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="71">
+      <c r="B10" s="68">
         <f>B4/B$3*100</f>
         <v>83.522023704227848</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="68">
         <f>C4/C$3*100</f>
         <v>74.626556016597505</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="68">
         <v>69.8</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="68">
         <v>67.800000000000011</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="68">
         <v>66.600000000000009</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="68">
         <v>64</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="68">
         <v>59.599999999999994</v>
       </c>
-      <c r="I10" s="71">
+      <c r="I10" s="68">
         <v>62</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="68">
         <v>60</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="68">
         <v>57.599999999999994</v>
       </c>
-      <c r="L10" s="71">
+      <c r="L10" s="68">
         <v>55.1</v>
       </c>
-      <c r="M10" s="71">
+      <c r="M10" s="68">
         <v>55.1</v>
       </c>
-      <c r="N10" s="71">
+      <c r="N10" s="68">
         <v>55.1</v>
       </c>
-      <c r="O10" s="71">
+      <c r="O10" s="68">
         <v>53.900000000000006</v>
       </c>
-      <c r="P10" s="71">
+      <c r="P10" s="68">
         <v>51.5</v>
       </c>
-      <c r="Q10" s="71">
+      <c r="Q10" s="68">
         <v>50.2</v>
       </c>
-      <c r="R10" s="71">
+      <c r="R10" s="68">
         <v>48</v>
       </c>
-      <c r="S10" s="71">
+      <c r="S10" s="68">
         <v>50.5</v>
       </c>
-      <c r="T10" s="71">
+      <c r="T10" s="68">
         <v>52.900000000000006</v>
       </c>
-      <c r="U10" s="71">
+      <c r="U10" s="68">
         <v>52.900000000000006</v>
       </c>
-      <c r="V10" s="71">
+      <c r="V10" s="68">
         <v>52.7</v>
       </c>
-      <c r="W10" s="71">
+      <c r="W10" s="68">
         <v>60.5</v>
       </c>
-      <c r="X10" s="71">
+      <c r="X10" s="68">
         <v>54.500000000000007</v>
       </c>
-      <c r="Y10" s="71">
+      <c r="Y10" s="68">
         <v>47.699999999999996</v>
       </c>
-      <c r="Z10" s="71">
+      <c r="Z10" s="68">
         <v>54.900000000000006</v>
       </c>
-      <c r="AA10" s="71">
+      <c r="AA10" s="68">
         <v>53.300000000000004</v>
       </c>
-      <c r="AB10" s="71">
+      <c r="AB10" s="68">
         <v>51.300000000000004</v>
       </c>
-      <c r="AC10" s="63"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="72"/>
-      <c r="AI10" s="72"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="72"/>
-      <c r="AM10" s="72"/>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="72"/>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="72"/>
-      <c r="AS10" s="72"/>
-      <c r="AT10" s="72"/>
-      <c r="AU10" s="72"/>
-      <c r="AV10" s="72"/>
-      <c r="AW10" s="72"/>
-      <c r="AX10" s="72"/>
-      <c r="AY10" s="72"/>
-      <c r="AZ10" s="72"/>
-      <c r="BA10" s="72"/>
-      <c r="BB10" s="72"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="69"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
+      <c r="AZ10" s="69"/>
+      <c r="BA10" s="69"/>
+      <c r="BB10" s="69"/>
     </row>
     <row r="11" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="68">
         <v>0</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="68">
         <v>0.6</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="68">
         <v>0.5</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="68">
         <v>1.7999999999999998</v>
       </c>
-      <c r="F11" s="71">
+      <c r="F11" s="68">
         <v>2</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="68">
         <v>3.5999999999999996</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="68">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="68">
         <v>1.5</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="68">
         <v>2.1999999999999997</v>
       </c>
-      <c r="K11" s="71">
+      <c r="K11" s="68">
         <v>2.5</v>
       </c>
-      <c r="L11" s="71">
+      <c r="L11" s="68">
         <v>3.1</v>
       </c>
-      <c r="M11" s="71">
+      <c r="M11" s="68">
         <v>3.2</v>
       </c>
-      <c r="N11" s="71">
+      <c r="N11" s="68">
         <v>3.6999999999999997</v>
       </c>
-      <c r="O11" s="71">
+      <c r="O11" s="68">
         <v>4.8</v>
       </c>
-      <c r="P11" s="71">
+      <c r="P11" s="68">
         <v>3.6999999999999997</v>
       </c>
-      <c r="Q11" s="71">
+      <c r="Q11" s="68">
         <v>3.5999999999999996</v>
       </c>
-      <c r="R11" s="71">
+      <c r="R11" s="68">
         <v>4.1000000000000005</v>
       </c>
-      <c r="S11" s="71">
+      <c r="S11" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="T11" s="71">
+      <c r="T11" s="68">
         <v>5</v>
       </c>
-      <c r="U11" s="71">
+      <c r="U11" s="68">
         <v>6</v>
       </c>
-      <c r="V11" s="71">
+      <c r="V11" s="68">
         <v>6.6000000000000005</v>
       </c>
-      <c r="W11" s="71">
+      <c r="W11" s="68">
         <v>6.5</v>
       </c>
-      <c r="X11" s="71">
+      <c r="X11" s="68">
         <v>8.2000000000000011</v>
       </c>
-      <c r="Y11" s="71">
+      <c r="Y11" s="68">
         <v>10.100000000000001</v>
       </c>
-      <c r="Z11" s="71">
+      <c r="Z11" s="68">
         <v>9.4</v>
       </c>
-      <c r="AA11" s="71">
+      <c r="AA11" s="68">
         <v>9.9</v>
       </c>
-      <c r="AB11" s="71">
+      <c r="AB11" s="68">
         <v>10</v>
       </c>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="72"/>
-      <c r="AI11" s="72"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="72"/>
-      <c r="AM11" s="72"/>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="72"/>
-      <c r="AQ11" s="72"/>
-      <c r="AR11" s="72"/>
-      <c r="AS11" s="72"/>
-      <c r="AT11" s="72"/>
-      <c r="AU11" s="72"/>
-      <c r="AV11" s="72"/>
-      <c r="AW11" s="72"/>
-      <c r="AX11" s="72"/>
-      <c r="AY11" s="72"/>
-      <c r="AZ11" s="72"/>
-      <c r="BA11" s="72"/>
-      <c r="BB11" s="72"/>
+      <c r="AC11" s="60"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="69"/>
+      <c r="AG11" s="69"/>
+      <c r="AH11" s="69"/>
+      <c r="AI11" s="69"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="69"/>
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="69"/>
+      <c r="AO11" s="69"/>
+      <c r="AP11" s="69"/>
+      <c r="AQ11" s="69"/>
+      <c r="AR11" s="69"/>
+      <c r="AS11" s="69"/>
+      <c r="AT11" s="69"/>
+      <c r="AU11" s="69"/>
+      <c r="AV11" s="69"/>
+      <c r="AW11" s="69"/>
+      <c r="AX11" s="69"/>
+      <c r="AY11" s="69"/>
+      <c r="AZ11" s="69"/>
+      <c r="BA11" s="69"/>
+      <c r="BB11" s="69"/>
     </row>
     <row r="12" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="73">
+      <c r="B12" s="70">
         <v>12.7</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="68">
         <v>14.399999999999999</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="68">
         <v>14.499999999999998</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="68">
         <v>15.299999999999999</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="68">
         <v>15.1</v>
       </c>
-      <c r="G12" s="71">
+      <c r="G12" s="68">
         <v>15.2</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="68">
         <v>18.899999999999999</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="68">
         <v>15</v>
       </c>
-      <c r="J12" s="71">
+      <c r="J12" s="68">
         <v>14.899999999999999</v>
       </c>
-      <c r="K12" s="71">
+      <c r="K12" s="68">
         <v>16.7</v>
       </c>
-      <c r="L12" s="71">
+      <c r="L12" s="68">
         <v>16.7</v>
       </c>
-      <c r="M12" s="71">
+      <c r="M12" s="68">
         <v>16.7</v>
       </c>
-      <c r="N12" s="71">
+      <c r="N12" s="68">
         <v>15.8</v>
       </c>
-      <c r="O12" s="71">
+      <c r="O12" s="68">
         <v>16.100000000000001</v>
       </c>
-      <c r="P12" s="71">
+      <c r="P12" s="68">
         <v>14.799999999999999</v>
       </c>
-      <c r="Q12" s="71">
+      <c r="Q12" s="68">
         <v>15.7</v>
       </c>
-      <c r="R12" s="71">
+      <c r="R12" s="68">
         <v>15.9</v>
       </c>
-      <c r="S12" s="71">
+      <c r="S12" s="68">
         <v>14.499999999999998</v>
       </c>
-      <c r="T12" s="71">
+      <c r="T12" s="68">
         <v>14.499999999999998</v>
       </c>
-      <c r="U12" s="71">
+      <c r="U12" s="68">
         <v>13.8</v>
       </c>
-      <c r="V12" s="71">
+      <c r="V12" s="68">
         <v>12.9</v>
       </c>
-      <c r="W12" s="71">
+      <c r="W12" s="68">
         <v>10.6</v>
       </c>
-      <c r="X12" s="71">
+      <c r="X12" s="68">
         <v>11.5</v>
       </c>
-      <c r="Y12" s="71">
+      <c r="Y12" s="68">
         <v>12.3</v>
       </c>
-      <c r="Z12" s="71">
+      <c r="Z12" s="68">
         <v>10.100000000000001</v>
       </c>
-      <c r="AA12" s="71">
+      <c r="AA12" s="68">
         <v>10.6</v>
       </c>
-      <c r="AB12" s="71">
+      <c r="AB12" s="68">
         <v>11.5</v>
       </c>
-      <c r="AC12" s="63"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="72"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="72"/>
-      <c r="AL12" s="72"/>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="72"/>
-      <c r="AO12" s="72"/>
-      <c r="AP12" s="72"/>
-      <c r="AQ12" s="72"/>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="72"/>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="72"/>
-      <c r="AY12" s="72"/>
-      <c r="AZ12" s="72"/>
-      <c r="BA12" s="72"/>
-      <c r="BB12" s="72"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
+      <c r="AZ12" s="69"/>
+      <c r="BA12" s="69"/>
+      <c r="BB12" s="69"/>
     </row>
     <row r="13" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="73">
+      <c r="B13" s="70">
         <v>2.1</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="68">
         <v>5.8999999999999995</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="68">
         <v>10</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="68">
         <v>8.2000000000000011</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="68">
         <v>10</v>
       </c>
-      <c r="G13" s="71">
+      <c r="G13" s="68">
         <v>10.9</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="68">
         <v>10</v>
       </c>
-      <c r="I13" s="71">
+      <c r="I13" s="68">
         <v>11</v>
       </c>
-      <c r="J13" s="71">
+      <c r="J13" s="68">
         <v>10.7</v>
       </c>
-      <c r="K13" s="71">
+      <c r="K13" s="68">
         <v>8.7999999999999989</v>
       </c>
-      <c r="L13" s="71">
+      <c r="L13" s="68">
         <v>10.299999999999999</v>
       </c>
-      <c r="M13" s="71">
+      <c r="M13" s="68">
         <v>9.6</v>
       </c>
-      <c r="N13" s="71">
+      <c r="N13" s="68">
         <v>10.199999999999999</v>
       </c>
-      <c r="O13" s="71">
+      <c r="O13" s="68">
         <v>7.9</v>
       </c>
-      <c r="P13" s="71">
+      <c r="P13" s="68">
         <v>7.7</v>
       </c>
-      <c r="Q13" s="71">
+      <c r="Q13" s="68">
         <v>7.8</v>
       </c>
-      <c r="R13" s="71">
+      <c r="R13" s="68">
         <v>6.1</v>
       </c>
-      <c r="S13" s="71">
+      <c r="S13" s="68">
         <v>9.3000000000000007</v>
       </c>
-      <c r="T13" s="71">
+      <c r="T13" s="68">
         <v>7.7</v>
       </c>
-      <c r="U13" s="71">
+      <c r="U13" s="68">
         <v>5.5</v>
       </c>
-      <c r="V13" s="71">
+      <c r="V13" s="68">
         <v>5.7</v>
       </c>
-      <c r="W13" s="71">
+      <c r="W13" s="68">
         <v>4</v>
       </c>
-      <c r="X13" s="71">
+      <c r="X13" s="68">
         <v>5</v>
       </c>
-      <c r="Y13" s="71">
+      <c r="Y13" s="68">
         <v>4.3</v>
       </c>
-      <c r="Z13" s="71">
+      <c r="Z13" s="68">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AA13" s="71">
+      <c r="AA13" s="68">
         <v>3.8</v>
       </c>
-      <c r="AB13" s="71">
+      <c r="AB13" s="68">
         <v>3.9</v>
       </c>
-      <c r="AC13" s="63"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="72"/>
-      <c r="AI13" s="72"/>
-      <c r="AJ13" s="72"/>
-      <c r="AK13" s="72"/>
-      <c r="AL13" s="72"/>
-      <c r="AM13" s="72"/>
-      <c r="AN13" s="72"/>
-      <c r="AO13" s="72"/>
-      <c r="AP13" s="72"/>
-      <c r="AQ13" s="72"/>
-      <c r="AR13" s="72"/>
-      <c r="AS13" s="72"/>
-      <c r="AT13" s="72"/>
-      <c r="AU13" s="72"/>
-      <c r="AV13" s="72"/>
-      <c r="AW13" s="72"/>
-      <c r="AX13" s="72"/>
-      <c r="AY13" s="72"/>
-      <c r="AZ13" s="72"/>
-      <c r="BA13" s="72"/>
-      <c r="BB13" s="72"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="69"/>
     </row>
     <row r="14" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="70">
         <v>1.6</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="68">
         <v>4.5</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="68">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E14" s="71">
+      <c r="E14" s="68">
         <v>6.9</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="68">
         <v>6.2</v>
       </c>
-      <c r="G14" s="71">
+      <c r="G14" s="68">
         <v>6.3</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="68">
         <v>9.1</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="68">
         <v>10.5</v>
       </c>
-      <c r="J14" s="71">
+      <c r="J14" s="68">
         <v>12.2</v>
       </c>
-      <c r="K14" s="71">
+      <c r="K14" s="68">
         <v>14.499999999999998</v>
       </c>
-      <c r="L14" s="71">
+      <c r="L14" s="68">
         <v>14.7</v>
       </c>
-      <c r="M14" s="71">
+      <c r="M14" s="68">
         <v>15.4</v>
       </c>
-      <c r="N14" s="71">
+      <c r="N14" s="68">
         <v>15.2</v>
       </c>
-      <c r="O14" s="71">
+      <c r="O14" s="68">
         <v>17.299999999999997</v>
       </c>
-      <c r="P14" s="71">
+      <c r="P14" s="68">
         <v>22.3</v>
       </c>
-      <c r="Q14" s="71">
+      <c r="Q14" s="68">
         <v>22.6</v>
       </c>
-      <c r="R14" s="71">
+      <c r="R14" s="68">
         <v>25.900000000000002</v>
       </c>
-      <c r="S14" s="71">
+      <c r="S14" s="68">
         <v>20.599999999999998</v>
       </c>
-      <c r="T14" s="71">
+      <c r="T14" s="68">
         <v>19.900000000000002</v>
       </c>
-      <c r="U14" s="71">
+      <c r="U14" s="68">
         <v>21.7</v>
       </c>
-      <c r="V14" s="71">
+      <c r="V14" s="68">
         <v>22.1</v>
       </c>
-      <c r="W14" s="71">
+      <c r="W14" s="68">
         <v>18.399999999999999</v>
       </c>
-      <c r="X14" s="71">
+      <c r="X14" s="68">
         <v>20.8</v>
       </c>
-      <c r="Y14" s="71">
+      <c r="Y14" s="68">
         <v>25.6</v>
       </c>
-      <c r="Z14" s="71">
+      <c r="Z14" s="68">
         <v>20.599999999999998</v>
       </c>
-      <c r="AA14" s="71">
+      <c r="AA14" s="68">
         <v>22.400000000000002</v>
       </c>
-      <c r="AB14" s="71">
+      <c r="AB14" s="68">
         <v>23.3</v>
       </c>
-      <c r="AC14" s="63"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="72"/>
-      <c r="AF14" s="72"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="72"/>
-      <c r="AI14" s="72"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="72"/>
-      <c r="AL14" s="72"/>
-      <c r="AM14" s="72"/>
-      <c r="AN14" s="72"/>
-      <c r="AO14" s="72"/>
-      <c r="AP14" s="72"/>
-      <c r="AQ14" s="72"/>
-      <c r="AR14" s="72"/>
-      <c r="AS14" s="72"/>
-      <c r="AT14" s="72"/>
-      <c r="AU14" s="72"/>
-      <c r="AV14" s="72"/>
-      <c r="AW14" s="72"/>
-      <c r="AX14" s="72"/>
-      <c r="AY14" s="72"/>
-      <c r="AZ14" s="72"/>
-      <c r="BA14" s="72"/>
-      <c r="BB14" s="72"/>
+      <c r="AC14" s="60"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="69"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="69"/>
+      <c r="AM14" s="69"/>
+      <c r="AN14" s="69"/>
+      <c r="AO14" s="69"/>
+      <c r="AP14" s="69"/>
+      <c r="AQ14" s="69"/>
+      <c r="AR14" s="69"/>
+      <c r="AS14" s="69"/>
+      <c r="AT14" s="69"/>
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="69"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="69"/>
+      <c r="AZ14" s="69"/>
+      <c r="BA14" s="69"/>
+      <c r="BB14" s="69"/>
     </row>
     <row r="15" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="74"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="74"/>
-      <c r="AI15" s="74"/>
-      <c r="AJ15" s="74"/>
-      <c r="AK15" s="74"/>
-      <c r="AL15" s="74"/>
-      <c r="AM15" s="74"/>
-      <c r="AN15" s="74"/>
-      <c r="AO15" s="74"/>
-      <c r="AP15" s="74"/>
-      <c r="AQ15" s="74"/>
-      <c r="AR15" s="74"/>
-      <c r="AS15" s="74"/>
-      <c r="AT15" s="74"/>
-      <c r="AU15" s="74"/>
-      <c r="AV15" s="74"/>
-      <c r="AW15" s="74"/>
-      <c r="AX15" s="74"/>
-      <c r="AY15" s="74"/>
-      <c r="AZ15" s="74"/>
-      <c r="BA15" s="74"/>
-      <c r="BB15" s="74"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="66"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="71"/>
+      <c r="AH15" s="71"/>
+      <c r="AI15" s="71"/>
+      <c r="AJ15" s="71"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="71"/>
+      <c r="AN15" s="71"/>
+      <c r="AO15" s="71"/>
+      <c r="AP15" s="71"/>
+      <c r="AQ15" s="71"/>
+      <c r="AR15" s="71"/>
+      <c r="AS15" s="71"/>
+      <c r="AT15" s="71"/>
+      <c r="AU15" s="71"/>
+      <c r="AV15" s="71"/>
+      <c r="AW15" s="71"/>
+      <c r="AX15" s="71"/>
+      <c r="AY15" s="71"/>
+      <c r="AZ15" s="71"/>
+      <c r="BA15" s="71"/>
+      <c r="BB15" s="71"/>
     </row>
     <row r="16" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="72">
         <v>20</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C16" s="72">
         <v>23</v>
       </c>
-      <c r="D16" s="75">
+      <c r="D16" s="72">
         <v>23.3</v>
       </c>
-      <c r="E16" s="75">
+      <c r="E16" s="72">
         <v>23.4</v>
       </c>
-      <c r="F16" s="75">
+      <c r="F16" s="72">
         <v>23.1</v>
       </c>
-      <c r="G16" s="75">
+      <c r="G16" s="72">
         <v>23.5</v>
       </c>
-      <c r="H16" s="75">
+      <c r="H16" s="72">
         <v>23.3</v>
       </c>
-      <c r="I16" s="75">
+      <c r="I16" s="72">
         <v>23.4</v>
       </c>
-      <c r="J16" s="75">
+      <c r="J16" s="72">
         <v>23.3</v>
       </c>
-      <c r="K16" s="75">
+      <c r="K16" s="72">
         <v>23.4</v>
       </c>
-      <c r="L16" s="75">
+      <c r="L16" s="72">
         <v>23.4</v>
       </c>
-      <c r="M16" s="75">
+      <c r="M16" s="72">
         <v>23</v>
       </c>
-      <c r="N16" s="75">
+      <c r="N16" s="72">
         <v>22.9</v>
       </c>
-      <c r="O16" s="75">
+      <c r="O16" s="72">
         <v>23</v>
       </c>
-      <c r="P16" s="75">
+      <c r="P16" s="72">
         <v>23.1</v>
       </c>
-      <c r="Q16" s="75">
+      <c r="Q16" s="72">
         <v>23.3</v>
       </c>
-      <c r="R16" s="75">
+      <c r="R16" s="72">
         <v>23.1</v>
       </c>
-      <c r="S16" s="75">
+      <c r="S16" s="72">
         <v>23.5</v>
       </c>
-      <c r="T16" s="75">
+      <c r="T16" s="72">
         <v>23.3</v>
       </c>
-      <c r="U16" s="75">
+      <c r="U16" s="72">
         <v>24.1</v>
       </c>
-      <c r="V16" s="75">
+      <c r="V16" s="72">
         <v>24.3</v>
       </c>
-      <c r="W16" s="75">
+      <c r="W16" s="72">
         <v>25.3</v>
       </c>
-      <c r="X16" s="75">
+      <c r="X16" s="72">
         <v>26.2</v>
       </c>
-      <c r="Y16" s="75">
+      <c r="Y16" s="72">
         <v>26</v>
       </c>
-      <c r="Z16" s="75">
+      <c r="Z16" s="72">
         <v>27.8</v>
       </c>
-      <c r="AA16" s="69">
+      <c r="AA16" s="66">
         <v>28.3</v>
       </c>
-      <c r="AB16" s="69">
+      <c r="AB16" s="66">
         <v>28.7</v>
       </c>
-      <c r="AC16" s="63"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="76"/>
-      <c r="AH16" s="76"/>
-      <c r="AI16" s="76"/>
-      <c r="AJ16" s="76"/>
-      <c r="AK16" s="76"/>
-      <c r="AL16" s="76"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="76"/>
-      <c r="AP16" s="76"/>
-      <c r="AQ16" s="76"/>
-      <c r="AR16" s="76"/>
-      <c r="AS16" s="76"/>
-      <c r="AT16" s="76"/>
-      <c r="AU16" s="76"/>
-      <c r="AV16" s="76"/>
-      <c r="AW16" s="76"/>
-      <c r="AX16" s="76"/>
-      <c r="AY16" s="76"/>
-      <c r="AZ16" s="76"/>
-      <c r="BA16" s="76"/>
-      <c r="BB16" s="76"/>
+      <c r="AC16" s="60"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="73"/>
+      <c r="AI16" s="73"/>
+      <c r="AJ16" s="73"/>
+      <c r="AK16" s="73"/>
+      <c r="AL16" s="73"/>
+      <c r="AM16" s="73"/>
+      <c r="AN16" s="73"/>
+      <c r="AO16" s="73"/>
+      <c r="AP16" s="73"/>
+      <c r="AQ16" s="73"/>
+      <c r="AR16" s="73"/>
+      <c r="AS16" s="73"/>
+      <c r="AT16" s="73"/>
+      <c r="AU16" s="73"/>
+      <c r="AV16" s="73"/>
+      <c r="AW16" s="73"/>
+      <c r="AX16" s="73"/>
+      <c r="AY16" s="73"/>
+      <c r="AZ16" s="73"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="73"/>
     </row>
     <row r="17" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="72">
         <v>14.6</v>
       </c>
-      <c r="C17" s="75">
+      <c r="C17" s="72">
         <v>20.100000000000001</v>
       </c>
-      <c r="D17" s="75">
+      <c r="D17" s="72">
         <v>18.8</v>
       </c>
-      <c r="E17" s="75">
+      <c r="E17" s="72">
         <v>18.2</v>
       </c>
-      <c r="F17" s="75">
+      <c r="F17" s="72">
         <v>17.8</v>
       </c>
-      <c r="G17" s="75">
+      <c r="G17" s="72">
         <v>17</v>
       </c>
-      <c r="H17" s="75">
+      <c r="H17" s="72">
         <v>18</v>
       </c>
-      <c r="I17" s="75">
+      <c r="I17" s="72">
         <v>17.8</v>
       </c>
-      <c r="J17" s="75">
+      <c r="J17" s="72">
         <v>18.399999999999999</v>
       </c>
-      <c r="K17" s="75">
+      <c r="K17" s="72">
         <v>19.2</v>
       </c>
-      <c r="L17" s="75">
+      <c r="L17" s="72">
         <v>18.2</v>
       </c>
-      <c r="M17" s="75">
+      <c r="M17" s="72">
         <v>18.5</v>
       </c>
-      <c r="N17" s="75">
+      <c r="N17" s="72">
         <v>17.899999999999999</v>
       </c>
-      <c r="O17" s="75">
+      <c r="O17" s="72">
         <v>18.8</v>
       </c>
-      <c r="P17" s="75">
+      <c r="P17" s="72">
         <v>19.3</v>
       </c>
-      <c r="Q17" s="75">
+      <c r="Q17" s="72">
         <v>19.899999999999999</v>
       </c>
-      <c r="R17" s="75">
+      <c r="R17" s="72">
         <v>20</v>
       </c>
-      <c r="S17" s="75">
+      <c r="S17" s="72">
         <v>20.2</v>
       </c>
-      <c r="T17" s="75">
+      <c r="T17" s="72">
         <v>20.5</v>
       </c>
-      <c r="U17" s="75">
+      <c r="U17" s="72">
         <v>20.6</v>
       </c>
-      <c r="V17" s="75">
+      <c r="V17" s="72">
         <v>21.2</v>
       </c>
-      <c r="W17" s="75">
+      <c r="W17" s="72">
         <v>22</v>
       </c>
-      <c r="X17" s="75">
+      <c r="X17" s="72">
         <v>23</v>
       </c>
-      <c r="Y17" s="75">
+      <c r="Y17" s="72">
         <v>23.6</v>
       </c>
-      <c r="Z17" s="75">
+      <c r="Z17" s="72">
         <v>23.4</v>
       </c>
-      <c r="AA17" s="69">
+      <c r="AA17" s="66">
         <v>24.5</v>
       </c>
-      <c r="AB17" s="69">
+      <c r="AB17" s="66">
         <v>24.3</v>
       </c>
-      <c r="AC17" s="63"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
-      <c r="AK17" s="76"/>
-      <c r="AL17" s="76"/>
-      <c r="AM17" s="76"/>
-      <c r="AN17" s="76"/>
-      <c r="AO17" s="76"/>
-      <c r="AP17" s="76"/>
-      <c r="AQ17" s="76"/>
-      <c r="AR17" s="76"/>
-      <c r="AS17" s="76"/>
-      <c r="AT17" s="76"/>
-      <c r="AU17" s="76"/>
-      <c r="AV17" s="76"/>
-      <c r="AW17" s="76"/>
-      <c r="AX17" s="76"/>
-      <c r="AY17" s="76"/>
-      <c r="AZ17" s="76"/>
-      <c r="BA17" s="76"/>
-      <c r="BB17" s="76"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="73"/>
+      <c r="AI17" s="73"/>
+      <c r="AJ17" s="73"/>
+      <c r="AK17" s="73"/>
+      <c r="AL17" s="73"/>
+      <c r="AM17" s="73"/>
+      <c r="AN17" s="73"/>
+      <c r="AO17" s="73"/>
+      <c r="AP17" s="73"/>
+      <c r="AQ17" s="73"/>
+      <c r="AR17" s="73"/>
+      <c r="AS17" s="73"/>
+      <c r="AT17" s="73"/>
+      <c r="AU17" s="73"/>
+      <c r="AV17" s="73"/>
+      <c r="AW17" s="73"/>
+      <c r="AX17" s="73"/>
+      <c r="AY17" s="73"/>
+      <c r="AZ17" s="73"/>
+      <c r="BA17" s="73"/>
+      <c r="BB17" s="73"/>
     </row>
     <row r="18" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="72">
         <v>16.5</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="72">
         <v>18.2</v>
       </c>
-      <c r="D18" s="75">
+      <c r="D18" s="72">
         <v>17.399999999999999</v>
       </c>
-      <c r="E18" s="75">
+      <c r="E18" s="72">
         <v>18.2</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="72">
         <v>17.5</v>
       </c>
-      <c r="G18" s="75">
+      <c r="G18" s="72">
         <v>17.600000000000001</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="72">
         <v>17.399999999999999</v>
       </c>
-      <c r="I18" s="75">
+      <c r="I18" s="72">
         <v>16.899999999999999</v>
       </c>
-      <c r="J18" s="75">
+      <c r="J18" s="72">
         <v>17.100000000000001</v>
       </c>
-      <c r="K18" s="75">
+      <c r="K18" s="72">
         <v>16.8</v>
       </c>
-      <c r="L18" s="75">
+      <c r="L18" s="72">
         <v>17</v>
       </c>
-      <c r="M18" s="75">
+      <c r="M18" s="72">
         <v>16.3</v>
       </c>
-      <c r="N18" s="75">
+      <c r="N18" s="72">
         <v>16.7</v>
       </c>
-      <c r="O18" s="75">
+      <c r="O18" s="72">
         <v>16</v>
       </c>
-      <c r="P18" s="75">
+      <c r="P18" s="72">
         <v>15.8</v>
       </c>
-      <c r="Q18" s="75">
+      <c r="Q18" s="72">
         <v>16.100000000000001</v>
       </c>
-      <c r="R18" s="75">
+      <c r="R18" s="72">
         <v>15.7</v>
       </c>
-      <c r="S18" s="75">
+      <c r="S18" s="72">
         <v>15.8</v>
       </c>
-      <c r="T18" s="75">
+      <c r="T18" s="72">
         <v>16.100000000000001</v>
       </c>
-      <c r="U18" s="75">
+      <c r="U18" s="72">
         <v>16.2</v>
       </c>
-      <c r="V18" s="75">
+      <c r="V18" s="72">
         <v>16.5</v>
       </c>
-      <c r="W18" s="75">
+      <c r="W18" s="72">
         <v>16.899999999999999</v>
       </c>
-      <c r="X18" s="75">
+      <c r="X18" s="72">
         <v>16.899999999999999</v>
       </c>
-      <c r="Y18" s="75">
+      <c r="Y18" s="72">
         <v>17.2</v>
       </c>
-      <c r="Z18" s="75">
+      <c r="Z18" s="72">
         <v>17.2</v>
       </c>
-      <c r="AA18" s="69">
+      <c r="AA18" s="66">
         <v>17.399999999999999</v>
       </c>
-      <c r="AB18" s="75">
+      <c r="AB18" s="72">
         <v>18</v>
       </c>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="76"/>
-      <c r="AK18" s="76"/>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="76"/>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="76"/>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="76"/>
-      <c r="AS18" s="76"/>
-      <c r="AT18" s="76"/>
-      <c r="AU18" s="76"/>
-      <c r="AV18" s="76"/>
-      <c r="AW18" s="76"/>
-      <c r="AX18" s="76"/>
-      <c r="AY18" s="76"/>
-      <c r="AZ18" s="76"/>
-      <c r="BA18" s="76"/>
-      <c r="BB18" s="76"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="73"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="73"/>
+      <c r="AL18" s="73"/>
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="73"/>
+      <c r="AO18" s="73"/>
+      <c r="AP18" s="73"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="73"/>
+      <c r="AS18" s="73"/>
+      <c r="AT18" s="73"/>
+      <c r="AU18" s="73"/>
+      <c r="AV18" s="73"/>
+      <c r="AW18" s="73"/>
+      <c r="AX18" s="73"/>
+      <c r="AY18" s="73"/>
+      <c r="AZ18" s="73"/>
+      <c r="BA18" s="73"/>
+      <c r="BB18" s="73"/>
     </row>
     <row r="19" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="72">
         <v>14.1</v>
       </c>
-      <c r="C19" s="75">
+      <c r="C19" s="72">
         <v>16.5</v>
       </c>
-      <c r="D19" s="75">
+      <c r="D19" s="72">
         <v>17.8</v>
       </c>
-      <c r="E19" s="75">
+      <c r="E19" s="72">
         <v>17.899999999999999</v>
       </c>
-      <c r="F19" s="75">
+      <c r="F19" s="72">
         <v>17.899999999999999</v>
       </c>
-      <c r="G19" s="75">
+      <c r="G19" s="72">
         <v>18.2</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="72">
         <v>17.8</v>
       </c>
-      <c r="I19" s="75">
+      <c r="I19" s="72">
         <v>18.100000000000001</v>
       </c>
-      <c r="J19" s="75">
+      <c r="J19" s="72">
         <v>18.3</v>
       </c>
-      <c r="K19" s="75">
+      <c r="K19" s="72">
         <v>18.2</v>
       </c>
-      <c r="L19" s="75">
+      <c r="L19" s="72">
         <v>18.7</v>
       </c>
-      <c r="M19" s="75">
+      <c r="M19" s="72">
         <v>18.3</v>
       </c>
-      <c r="N19" s="75">
+      <c r="N19" s="72">
         <v>18.600000000000001</v>
       </c>
-      <c r="O19" s="75">
+      <c r="O19" s="72">
         <v>18</v>
       </c>
-      <c r="P19" s="75">
+      <c r="P19" s="72">
         <v>18.7</v>
       </c>
-      <c r="Q19" s="75">
+      <c r="Q19" s="72">
         <v>19</v>
       </c>
-      <c r="R19" s="75">
+      <c r="R19" s="72">
         <v>19.2</v>
       </c>
-      <c r="S19" s="75">
+      <c r="S19" s="72">
         <v>19.3</v>
       </c>
-      <c r="T19" s="75">
+      <c r="T19" s="72">
         <v>19.5</v>
       </c>
-      <c r="U19" s="75">
+      <c r="U19" s="72">
         <v>19.5</v>
       </c>
-      <c r="V19" s="75">
+      <c r="V19" s="72">
         <v>19.8</v>
       </c>
-      <c r="W19" s="75">
+      <c r="W19" s="72">
         <v>20.100000000000001</v>
       </c>
-      <c r="X19" s="75">
+      <c r="X19" s="72">
         <v>20.100000000000001</v>
       </c>
-      <c r="Y19" s="75">
+      <c r="Y19" s="72">
         <v>21</v>
       </c>
-      <c r="Z19" s="75">
+      <c r="Z19" s="72">
         <v>21.4</v>
       </c>
-      <c r="AA19" s="69">
+      <c r="AA19" s="66">
         <v>21.1</v>
       </c>
-      <c r="AB19" s="69">
+      <c r="AB19" s="66">
         <v>21.2</v>
       </c>
-      <c r="AC19" s="63"/>
-      <c r="AD19" s="76"/>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="76"/>
-      <c r="AG19" s="76"/>
-      <c r="AH19" s="76"/>
-      <c r="AI19" s="76"/>
-      <c r="AJ19" s="76"/>
-      <c r="AK19" s="76"/>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="76"/>
-      <c r="AN19" s="76"/>
-      <c r="AO19" s="76"/>
-      <c r="AP19" s="76"/>
-      <c r="AQ19" s="76"/>
-      <c r="AR19" s="76"/>
-      <c r="AS19" s="76"/>
-      <c r="AT19" s="76"/>
-      <c r="AU19" s="76"/>
-      <c r="AV19" s="76"/>
-      <c r="AW19" s="76"/>
-      <c r="AX19" s="76"/>
-      <c r="AY19" s="76"/>
-      <c r="AZ19" s="76"/>
-      <c r="BA19" s="76"/>
-      <c r="BB19" s="76"/>
+      <c r="AC19" s="60"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
+      <c r="AI19" s="73"/>
+      <c r="AJ19" s="73"/>
+      <c r="AK19" s="73"/>
+      <c r="AL19" s="73"/>
+      <c r="AM19" s="73"/>
+      <c r="AN19" s="73"/>
+      <c r="AO19" s="73"/>
+      <c r="AP19" s="73"/>
+      <c r="AQ19" s="73"/>
+      <c r="AR19" s="73"/>
+      <c r="AS19" s="73"/>
+      <c r="AT19" s="73"/>
+      <c r="AU19" s="73"/>
+      <c r="AV19" s="73"/>
+      <c r="AW19" s="73"/>
+      <c r="AX19" s="73"/>
+      <c r="AY19" s="73"/>
+      <c r="AZ19" s="73"/>
+      <c r="BA19" s="73"/>
+      <c r="BB19" s="73"/>
     </row>
     <row r="20" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="78">
+      <c r="B20" s="75">
         <v>13.2</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="75">
         <v>16.5</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="75">
         <v>16.399999999999999</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="75">
         <v>16.7</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="75">
         <v>16.2</v>
       </c>
-      <c r="G20" s="78">
+      <c r="G20" s="75">
         <v>16.3</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="75">
         <v>16</v>
       </c>
-      <c r="I20" s="78">
+      <c r="I20" s="75">
         <v>16</v>
       </c>
-      <c r="J20" s="78">
+      <c r="J20" s="75">
         <v>16.2</v>
       </c>
-      <c r="K20" s="78">
+      <c r="K20" s="75">
         <v>16.100000000000001</v>
       </c>
-      <c r="L20" s="78">
+      <c r="L20" s="75">
         <v>16.2</v>
       </c>
-      <c r="M20" s="78">
+      <c r="M20" s="75">
         <v>16.100000000000001</v>
       </c>
-      <c r="N20" s="78">
+      <c r="N20" s="75">
         <v>16</v>
       </c>
-      <c r="O20" s="78">
+      <c r="O20" s="75">
         <v>16.399999999999999</v>
       </c>
-      <c r="P20" s="78">
+      <c r="P20" s="75">
         <v>16.3</v>
       </c>
-      <c r="Q20" s="78">
+      <c r="Q20" s="75">
         <v>16.399999999999999</v>
       </c>
-      <c r="R20" s="78">
+      <c r="R20" s="75">
         <v>16.5</v>
       </c>
-      <c r="S20" s="78">
+      <c r="S20" s="75">
         <v>16.7</v>
       </c>
-      <c r="T20" s="78">
+      <c r="T20" s="75">
         <v>17.2</v>
       </c>
-      <c r="U20" s="78">
+      <c r="U20" s="75">
         <v>17.7</v>
       </c>
-      <c r="V20" s="78">
+      <c r="V20" s="75">
         <v>18.2</v>
       </c>
-      <c r="W20" s="78">
+      <c r="W20" s="75">
         <v>19.3</v>
       </c>
-      <c r="X20" s="78">
+      <c r="X20" s="75">
         <v>19.7</v>
       </c>
-      <c r="Y20" s="78">
+      <c r="Y20" s="75">
         <v>19.8</v>
       </c>
-      <c r="Z20" s="78">
+      <c r="Z20" s="75">
         <v>20</v>
       </c>
-      <c r="AA20" s="79">
+      <c r="AA20" s="76">
         <v>20.9</v>
       </c>
-      <c r="AB20" s="79">
+      <c r="AB20" s="76">
         <v>21.2</v>
       </c>
-      <c r="AC20" s="63"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="76"/>
-      <c r="AI20" s="76"/>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="76"/>
-      <c r="AP20" s="76"/>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="76"/>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="76"/>
-      <c r="AU20" s="76"/>
-      <c r="AV20" s="76"/>
-      <c r="AW20" s="76"/>
-      <c r="AX20" s="76"/>
-      <c r="AY20" s="76"/>
-      <c r="AZ20" s="76"/>
-      <c r="BA20" s="76"/>
-      <c r="BB20" s="76"/>
-    </row>
-    <row r="21" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="80" t="s">
+      <c r="AC20" s="60"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="73"/>
+      <c r="AI20" s="73"/>
+      <c r="AJ20" s="73"/>
+      <c r="AK20" s="73"/>
+      <c r="AL20" s="73"/>
+      <c r="AM20" s="73"/>
+      <c r="AN20" s="73"/>
+      <c r="AO20" s="73"/>
+      <c r="AP20" s="73"/>
+      <c r="AQ20" s="73"/>
+      <c r="AR20" s="73"/>
+      <c r="AS20" s="73"/>
+      <c r="AT20" s="73"/>
+      <c r="AU20" s="73"/>
+      <c r="AV20" s="73"/>
+      <c r="AW20" s="73"/>
+      <c r="AX20" s="73"/>
+      <c r="AY20" s="73"/>
+      <c r="AZ20" s="73"/>
+      <c r="BA20" s="73"/>
+      <c r="BB20" s="73"/>
+    </row>
+    <row r="21" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-    </row>
-    <row r="22" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-    </row>
-    <row r="23" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="82" t="s">
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="85"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
+      <c r="Q21" s="85"/>
+    </row>
+    <row r="22" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="86"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+    </row>
+    <row r="23" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-    </row>
-    <row r="24" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="83" t="s">
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+    </row>
+    <row r="24" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="83"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="83"/>
-      <c r="Q24" s="83"/>
-    </row>
-    <row r="25" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="83" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+    </row>
+    <row r="25" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="83"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="83"/>
-      <c r="O25" s="83"/>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="83"/>
-    </row>
-    <row r="26" spans="1:54" s="81" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="84" t="s">
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+    </row>
+    <row r="26" spans="1:54" s="77" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-    </row>
-    <row r="27" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="84"/>
-      <c r="Q27" s="84"/>
-    </row>
-    <row r="28" spans="1:54" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="85" t="s">
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
+      <c r="Q26" s="80"/>
+    </row>
+    <row r="27" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+    </row>
+    <row r="28" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-    </row>
-    <row r="29" spans="1:54" s="81" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86" t="s">
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+    </row>
+    <row r="29" spans="1:54" s="77" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-    </row>
-    <row r="30" spans="1:54" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:54" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:54" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="87" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+    </row>
+    <row r="30" spans="1:54" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:54" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:54" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="AC1:BB1"/>
+    <mergeCell ref="A21:Q21"/>
+    <mergeCell ref="A22:Q22"/>
+    <mergeCell ref="A23:Q23"/>
     <mergeCell ref="A25:Q25"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A27:Q27"/>
     <mergeCell ref="A28:Q28"/>
     <mergeCell ref="A29:Q29"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="AC1:BB1"/>
-    <mergeCell ref="A21:Q21"/>
-    <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="A24:Q24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4875,17 +4891,17 @@
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="46">
-        <f>Data!E3</f>
-        <v>13.378781688359696</v>
+      <c r="B2" s="87">
+        <f>ROUND(Data!E3,0)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3">
-        <f>Data!A7</f>
+      <c r="B3" s="87">
+        <f>ROUND(Data!A7,0)</f>
         <v>28</v>
       </c>
     </row>
@@ -4893,8 +4909,8 @@
       <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="47">
-        <f>Data!A15</f>
+      <c r="B4" s="46">
+        <f>ROUND(Data!A15,0)</f>
         <v>24</v>
       </c>
     </row>
@@ -4902,8 +4918,8 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
-        <f>Data!C21</f>
+      <c r="B5" s="87">
+        <f>ROUND(Data!C21,0)</f>
         <v>34</v>
       </c>
     </row>
@@ -4911,8 +4927,8 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <f>Data!C27</f>
+      <c r="B6" s="87">
+        <f>ROUND(Data!C27,0)</f>
         <v>33</v>
       </c>
     </row>
@@ -4920,9 +4936,9 @@
       <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="46">
-        <f>Data!A47</f>
-        <v>17.22332068760786</v>
+      <c r="B7" s="87">
+        <f>ROUND(Data!A47,0)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us-v2 - 2020 Modeling\InputData\trans\AVL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="23955" windowHeight="13545"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="23955" windowHeight="13545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Data" sheetId="2" r:id="rId3"/>
     <sheet name="AVL" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>Car Avg Lifetime, years (Page 22, Table 7)</t>
   </si>
@@ -311,11 +316,32 @@
   <si>
     <t>The model requires the lifetime to be an integer, so we round to the nearest integer.</t>
   </si>
+  <si>
+    <t>ThoughtCo</t>
+  </si>
+  <si>
+    <t>How Long Do Buses and Other Transit Vehicles Last?</t>
+  </si>
+  <si>
+    <t>https://www.thoughtco.com/buses-and-other-transit-lifetime-2798844</t>
+  </si>
+  <si>
+    <t>Bus Lifetime</t>
+  </si>
+  <si>
+    <t>Heavy Truck Start Year Vehicles</t>
+  </si>
+  <si>
+    <t>Bus Start Year Vehicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted Average </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
     <numFmt numFmtId="165" formatCode="\(\R\)General"/>
@@ -1206,7 +1232,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1224,9 +1250,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1394,6 +1417,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1418,7 +1457,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="20% - Accent1" xfId="35" builtinId="30" customBuiltin="1"/>
@@ -1520,6 +1558,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1567,7 +1608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1602,7 +1643,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1811,221 +1852,245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="132.28515625" customWidth="1"/>
+    <col min="2" max="2" width="132.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="10">
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="10">
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+    <row r="23" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B29" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="11">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="10">
         <v>2013</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B36" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B38" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B39" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B41" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B43" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B44" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="21">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B45" s="20">
         <v>2009</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="14" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B46" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="26" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B47" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B48" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B35" r:id="rId2"/>
-    <hyperlink ref="B42" r:id="rId3"/>
+    <hyperlink ref="B40" r:id="rId2"/>
+    <hyperlink ref="B47" r:id="rId3"/>
+    <hyperlink ref="B27" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2037,2310 +2102,2310 @@
       <selection sqref="A1:AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="14" customWidth="1"/>
-    <col min="2" max="27" width="7.7109375" style="14" customWidth="1"/>
-    <col min="28" max="28" width="7.140625" style="78" customWidth="1"/>
-    <col min="29" max="55" width="9.140625" style="78"/>
-    <col min="56" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="19.3984375" style="13" customWidth="1"/>
+    <col min="2" max="27" width="7.73046875" style="13" customWidth="1"/>
+    <col min="28" max="28" width="7.1328125" style="77" customWidth="1"/>
+    <col min="29" max="55" width="9.1328125" style="77"/>
+    <col min="56" max="16384" width="9.1328125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="83"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="84"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="84"/>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="84"/>
-      <c r="AJ1" s="84"/>
-      <c r="AK1" s="84"/>
-      <c r="AL1" s="84"/>
-      <c r="AM1" s="84"/>
-      <c r="AN1" s="84"/>
-      <c r="AO1" s="84"/>
-      <c r="AP1" s="84"/>
-      <c r="AQ1" s="84"/>
-      <c r="AR1" s="84"/>
-      <c r="AS1" s="84"/>
-      <c r="AT1" s="84"/>
-      <c r="AU1" s="84"/>
-      <c r="AV1" s="84"/>
-      <c r="AW1" s="84"/>
-      <c r="AX1" s="84"/>
-      <c r="AY1" s="84"/>
-      <c r="AZ1" s="84"/>
-      <c r="BA1" s="84"/>
-      <c r="BB1" s="84"/>
-    </row>
-    <row r="2" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="89"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="89"/>
+      <c r="AL1" s="89"/>
+      <c r="AM1" s="89"/>
+      <c r="AN1" s="89"/>
+      <c r="AO1" s="89"/>
+      <c r="AP1" s="89"/>
+      <c r="AQ1" s="89"/>
+      <c r="AR1" s="89"/>
+      <c r="AS1" s="89"/>
+      <c r="AT1" s="89"/>
+      <c r="AU1" s="89"/>
+      <c r="AV1" s="89"/>
+      <c r="AW1" s="89"/>
+      <c r="AX1" s="89"/>
+      <c r="AY1" s="89"/>
+      <c r="AZ1" s="89"/>
+      <c r="BA1" s="89"/>
+      <c r="BB1" s="89"/>
+    </row>
+    <row r="2" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="46"/>
+      <c r="B2" s="47">
         <v>1980</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="48">
         <v>1985</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="48">
         <v>1990</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="48">
         <v>1991</v>
       </c>
-      <c r="F2" s="49">
+      <c r="F2" s="48">
         <v>1992</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="48">
         <v>1993</v>
       </c>
-      <c r="H2" s="49">
+      <c r="H2" s="48">
         <v>1994</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="48">
         <v>1995</v>
       </c>
-      <c r="J2" s="49">
+      <c r="J2" s="48">
         <v>1996</v>
       </c>
-      <c r="K2" s="49">
+      <c r="K2" s="48">
         <v>1997</v>
       </c>
-      <c r="L2" s="49">
+      <c r="L2" s="48">
         <v>1998</v>
       </c>
-      <c r="M2" s="49">
+      <c r="M2" s="48">
         <v>1999</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="48">
         <v>2000</v>
       </c>
-      <c r="O2" s="49">
+      <c r="O2" s="48">
         <v>2001</v>
       </c>
-      <c r="P2" s="49">
+      <c r="P2" s="48">
         <v>2002</v>
       </c>
-      <c r="Q2" s="49">
+      <c r="Q2" s="48">
         <v>2003</v>
       </c>
-      <c r="R2" s="49">
+      <c r="R2" s="48">
         <v>2004</v>
       </c>
-      <c r="S2" s="49">
+      <c r="S2" s="48">
         <v>2005</v>
       </c>
-      <c r="T2" s="49">
+      <c r="T2" s="48">
         <v>2006</v>
       </c>
-      <c r="U2" s="49">
+      <c r="U2" s="48">
         <v>2007</v>
       </c>
-      <c r="V2" s="49">
+      <c r="V2" s="48">
         <v>2008</v>
       </c>
-      <c r="W2" s="49">
+      <c r="W2" s="48">
         <v>2009</v>
       </c>
-      <c r="X2" s="49">
+      <c r="X2" s="48">
         <v>2010</v>
       </c>
-      <c r="Y2" s="49">
+      <c r="Y2" s="48">
         <v>2011</v>
       </c>
-      <c r="Z2" s="50">
+      <c r="Z2" s="49">
         <v>2012</v>
       </c>
-      <c r="AA2" s="49">
+      <c r="AA2" s="48">
         <v>2013</v>
       </c>
-      <c r="AB2" s="51">
+      <c r="AB2" s="50">
         <v>2014</v>
       </c>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="54"/>
-      <c r="AW2" s="54"/>
-      <c r="AX2" s="54"/>
-      <c r="AY2" s="54"/>
-      <c r="AZ2" s="54"/>
-      <c r="BA2" s="54"/>
-      <c r="BB2" s="55"/>
-    </row>
-    <row r="3" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52"/>
+      <c r="AR2" s="52"/>
+      <c r="AS2" s="52"/>
+      <c r="AT2" s="52"/>
+      <c r="AU2" s="53"/>
+      <c r="AV2" s="53"/>
+      <c r="AW2" s="53"/>
+      <c r="AX2" s="53"/>
+      <c r="AY2" s="53"/>
+      <c r="AZ2" s="53"/>
+      <c r="BA2" s="53"/>
+      <c r="BB2" s="54"/>
+    </row>
+    <row r="3" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="56">
         <v>11306</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="56">
         <v>14460</v>
       </c>
-      <c r="D3" s="57">
+      <c r="D3" s="56">
         <v>12615</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="56">
         <v>12573</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="56">
         <v>12172</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="56">
         <v>13211</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="56">
         <v>14125</v>
       </c>
-      <c r="I3" s="57">
+      <c r="I3" s="56">
         <v>15145</v>
       </c>
-      <c r="J3" s="57">
+      <c r="J3" s="56">
         <v>13144</v>
       </c>
-      <c r="K3" s="57">
+      <c r="K3" s="56">
         <v>14458</v>
       </c>
-      <c r="L3" s="57">
+      <c r="L3" s="56">
         <v>14456</v>
       </c>
-      <c r="M3" s="57">
+      <c r="M3" s="56">
         <v>15215</v>
       </c>
-      <c r="N3" s="57">
+      <c r="N3" s="56">
         <v>16571</v>
       </c>
-      <c r="O3" s="57">
+      <c r="O3" s="56">
         <v>15605</v>
       </c>
-      <c r="P3" s="57">
+      <c r="P3" s="56">
         <v>16115</v>
       </c>
-      <c r="Q3" s="57">
+      <c r="Q3" s="56">
         <v>15773</v>
       </c>
-      <c r="R3" s="57">
+      <c r="R3" s="56">
         <v>15709</v>
       </c>
-      <c r="S3" s="57">
+      <c r="S3" s="56">
         <v>15892</v>
       </c>
-      <c r="T3" s="57">
+      <c r="T3" s="56">
         <v>15104</v>
       </c>
-      <c r="U3" s="57">
+      <c r="U3" s="56">
         <v>15276</v>
       </c>
-      <c r="V3" s="57">
+      <c r="V3" s="56">
         <v>13898</v>
       </c>
-      <c r="W3" s="57">
+      <c r="W3" s="56">
         <v>9316</v>
       </c>
-      <c r="X3" s="57">
+      <c r="X3" s="56">
         <v>11110</v>
       </c>
-      <c r="Y3" s="57">
+      <c r="Y3" s="56">
         <v>12003</v>
       </c>
-      <c r="Z3" s="57">
+      <c r="Z3" s="56">
         <v>13438</v>
       </c>
-      <c r="AA3" s="57">
+      <c r="AA3" s="56">
         <v>14846</v>
       </c>
-      <c r="AB3" s="58" t="s">
+      <c r="AB3" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="59"/>
-      <c r="AK3" s="59"/>
-      <c r="AL3" s="59"/>
-      <c r="AM3" s="59"/>
-      <c r="AN3" s="59"/>
-      <c r="AO3" s="59"/>
-      <c r="AP3" s="59"/>
-      <c r="AQ3" s="59"/>
-      <c r="AR3" s="59"/>
-      <c r="AS3" s="59"/>
-      <c r="AT3" s="59"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="59"/>
-      <c r="AW3" s="59"/>
-      <c r="AX3" s="59"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="59"/>
-      <c r="BA3" s="59"/>
-      <c r="BB3" s="59"/>
-    </row>
-    <row r="4" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
+      <c r="AC3" s="55"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="58"/>
+      <c r="AU3" s="58"/>
+      <c r="AV3" s="58"/>
+      <c r="AW3" s="58"/>
+      <c r="AX3" s="58"/>
+      <c r="AY3" s="58"/>
+      <c r="AZ3" s="58"/>
+      <c r="BA3" s="58"/>
+      <c r="BB3" s="58"/>
+    </row>
+    <row r="4" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="60">
         <v>9443</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="60">
         <v>10791</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="60">
         <v>8810</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="60">
         <v>8524</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="60">
         <v>8108</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="60">
         <v>8456</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="60">
         <v>8415</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="60">
         <v>9396</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="60">
         <v>7890</v>
       </c>
-      <c r="K4" s="61">
+      <c r="K4" s="60">
         <v>8334</v>
       </c>
-      <c r="L4" s="61">
+      <c r="L4" s="60">
         <v>7971</v>
       </c>
-      <c r="M4" s="61">
+      <c r="M4" s="60">
         <v>8376</v>
       </c>
-      <c r="N4" s="61">
+      <c r="N4" s="60">
         <v>9125</v>
       </c>
-      <c r="O4" s="61">
+      <c r="O4" s="60">
         <v>8405</v>
       </c>
-      <c r="P4" s="61">
+      <c r="P4" s="60">
         <v>8301</v>
       </c>
-      <c r="Q4" s="61">
+      <c r="Q4" s="60">
         <v>7921</v>
       </c>
-      <c r="R4" s="61">
+      <c r="R4" s="60">
         <v>7537</v>
       </c>
-      <c r="S4" s="61">
+      <c r="S4" s="60">
         <v>8027</v>
       </c>
-      <c r="T4" s="61">
+      <c r="T4" s="60">
         <v>7993</v>
       </c>
-      <c r="U4" s="61">
+      <c r="U4" s="60">
         <v>8082</v>
       </c>
-      <c r="V4" s="61">
+      <c r="V4" s="60">
         <v>7319</v>
       </c>
-      <c r="W4" s="61">
+      <c r="W4" s="60">
         <v>5636</v>
       </c>
-      <c r="X4" s="61">
+      <c r="X4" s="60">
         <v>6055</v>
       </c>
-      <c r="Y4" s="62">
+      <c r="Y4" s="61">
         <v>5728</v>
       </c>
-      <c r="Z4" s="62">
+      <c r="Z4" s="61">
         <v>7379</v>
       </c>
-      <c r="AA4" s="62">
+      <c r="AA4" s="61">
         <v>7907</v>
       </c>
-      <c r="AB4" s="61" t="s">
+      <c r="AB4" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="63"/>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="64"/>
-      <c r="BB4" s="64"/>
-    </row>
-    <row r="5" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60" t="s">
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="62"/>
+      <c r="AE4" s="62"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="62"/>
+      <c r="AH4" s="62"/>
+      <c r="AI4" s="62"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="62"/>
+      <c r="AL4" s="62"/>
+      <c r="AM4" s="62"/>
+      <c r="AN4" s="62"/>
+      <c r="AO4" s="62"/>
+      <c r="AP4" s="62"/>
+      <c r="AQ4" s="62"/>
+      <c r="AR4" s="62"/>
+      <c r="AS4" s="62"/>
+      <c r="AT4" s="62"/>
+      <c r="AU4" s="62"/>
+      <c r="AV4" s="62"/>
+      <c r="AW4" s="62"/>
+      <c r="AX4" s="62"/>
+      <c r="AY4" s="62"/>
+      <c r="AZ4" s="62"/>
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="63"/>
+    </row>
+    <row r="5" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="61">
+      <c r="B5" s="60">
         <v>0</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="60">
         <v>88</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="60">
         <v>65</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="60">
         <v>224</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="60">
         <v>243</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="60">
         <v>473</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="60">
         <v>332</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="60">
         <v>220</v>
       </c>
-      <c r="J5" s="61">
+      <c r="J5" s="60">
         <v>287</v>
       </c>
-      <c r="K5" s="61">
+      <c r="K5" s="60">
         <v>361</v>
       </c>
-      <c r="L5" s="61">
+      <c r="L5" s="60">
         <v>454</v>
       </c>
-      <c r="M5" s="61">
+      <c r="M5" s="60">
         <v>488</v>
       </c>
-      <c r="N5" s="61">
+      <c r="N5" s="60">
         <v>617</v>
       </c>
-      <c r="O5" s="61">
+      <c r="O5" s="60">
         <v>743</v>
       </c>
-      <c r="P5" s="61">
+      <c r="P5" s="60">
         <v>603</v>
       </c>
-      <c r="Q5" s="61">
+      <c r="Q5" s="60">
         <v>575</v>
       </c>
-      <c r="R5" s="61">
+      <c r="R5" s="60">
         <v>639</v>
       </c>
-      <c r="S5" s="61">
+      <c r="S5" s="60">
         <v>813</v>
       </c>
-      <c r="T5" s="61">
+      <c r="T5" s="60">
         <v>751</v>
       </c>
-      <c r="U5" s="61">
+      <c r="U5" s="60">
         <v>919</v>
       </c>
-      <c r="V5" s="61">
+      <c r="V5" s="60">
         <v>924</v>
       </c>
-      <c r="W5" s="61">
+      <c r="W5" s="60">
         <v>608</v>
       </c>
-      <c r="X5" s="61">
+      <c r="X5" s="60">
         <v>915</v>
       </c>
-      <c r="Y5" s="62">
+      <c r="Y5" s="61">
         <v>1207</v>
       </c>
-      <c r="Z5" s="62">
+      <c r="Z5" s="61">
         <v>1269</v>
       </c>
-      <c r="AA5" s="62">
+      <c r="AA5" s="61">
         <v>1470</v>
       </c>
-      <c r="AB5" s="61" t="s">
+      <c r="AB5" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="63"/>
-      <c r="AE5" s="63"/>
-      <c r="AF5" s="63"/>
-      <c r="AG5" s="63"/>
-      <c r="AH5" s="63"/>
-      <c r="AI5" s="63"/>
-      <c r="AJ5" s="63"/>
-      <c r="AK5" s="63"/>
-      <c r="AL5" s="63"/>
-      <c r="AM5" s="63"/>
-      <c r="AN5" s="63"/>
-      <c r="AO5" s="63"/>
-      <c r="AP5" s="63"/>
-      <c r="AQ5" s="63"/>
-      <c r="AR5" s="63"/>
-      <c r="AS5" s="63"/>
-      <c r="AT5" s="63"/>
-      <c r="AU5" s="63"/>
-      <c r="AV5" s="63"/>
-      <c r="AW5" s="63"/>
-      <c r="AX5" s="63"/>
-      <c r="AY5" s="63"/>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="64"/>
-      <c r="BB5" s="64"/>
-    </row>
-    <row r="6" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="60" t="s">
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62"/>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="62"/>
+      <c r="AY5" s="62"/>
+      <c r="AZ5" s="62"/>
+      <c r="BA5" s="63"/>
+      <c r="BB5" s="63"/>
+    </row>
+    <row r="6" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="60">
         <v>1437</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="60">
         <v>2078</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="60">
         <v>1835</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="60">
         <v>1920</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="60">
         <v>1840</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="60">
         <v>2002</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="60">
         <v>2669</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="60">
         <v>2271</v>
       </c>
-      <c r="J6" s="61">
+      <c r="J6" s="60">
         <v>1955</v>
       </c>
-      <c r="K6" s="61">
+      <c r="K6" s="60">
         <v>2408</v>
       </c>
-      <c r="L6" s="61">
+      <c r="L6" s="60">
         <v>2415</v>
       </c>
-      <c r="M6" s="61">
+      <c r="M6" s="60">
         <v>2544</v>
       </c>
-      <c r="N6" s="61">
+      <c r="N6" s="60">
         <v>2612</v>
       </c>
-      <c r="O6" s="61">
+      <c r="O6" s="60">
         <v>2519</v>
       </c>
-      <c r="P6" s="61">
+      <c r="P6" s="60">
         <v>2380</v>
       </c>
-      <c r="Q6" s="61">
+      <c r="Q6" s="60">
         <v>2474</v>
       </c>
-      <c r="R6" s="61">
+      <c r="R6" s="60">
         <v>2505</v>
       </c>
-      <c r="S6" s="61">
+      <c r="S6" s="60">
         <v>2300</v>
       </c>
-      <c r="T6" s="61">
+      <c r="T6" s="60">
         <v>2188</v>
       </c>
-      <c r="U6" s="61">
+      <c r="U6" s="60">
         <v>2113</v>
       </c>
-      <c r="V6" s="61">
+      <c r="V6" s="60">
         <v>1794</v>
       </c>
-      <c r="W6" s="61">
+      <c r="W6" s="60">
         <v>989</v>
       </c>
-      <c r="X6" s="61">
+      <c r="X6" s="60">
         <v>1276</v>
       </c>
-      <c r="Y6" s="62">
+      <c r="Y6" s="61">
         <v>1479</v>
       </c>
-      <c r="Z6" s="62">
+      <c r="Z6" s="61">
         <v>1357</v>
       </c>
-      <c r="AA6" s="62">
+      <c r="AA6" s="61">
         <v>1577</v>
       </c>
-      <c r="AB6" s="61" t="s">
+      <c r="AB6" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="63"/>
-      <c r="AM6" s="63"/>
-      <c r="AN6" s="63"/>
-      <c r="AO6" s="63"/>
-      <c r="AP6" s="63"/>
-      <c r="AQ6" s="63"/>
-      <c r="AR6" s="63"/>
-      <c r="AS6" s="63"/>
-      <c r="AT6" s="63"/>
-      <c r="AU6" s="63"/>
-      <c r="AV6" s="63"/>
-      <c r="AW6" s="63"/>
-      <c r="AX6" s="63"/>
-      <c r="AY6" s="63"/>
-      <c r="AZ6" s="63"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-    </row>
-    <row r="7" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="AC6" s="59"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="62"/>
+      <c r="AT6" s="62"/>
+      <c r="AU6" s="62"/>
+      <c r="AV6" s="62"/>
+      <c r="AW6" s="62"/>
+      <c r="AX6" s="62"/>
+      <c r="AY6" s="62"/>
+      <c r="AZ6" s="62"/>
+      <c r="BA6" s="63"/>
+      <c r="BB6" s="63"/>
+    </row>
+    <row r="7" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="60">
         <v>242</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="60">
         <v>855</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="60">
         <v>1262</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="60">
         <v>1034</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="60">
         <v>1221</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="60">
         <v>1441</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="60">
         <v>1418</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="60">
         <v>1662</v>
       </c>
-      <c r="J7" s="61">
+      <c r="J7" s="60">
         <v>1409</v>
       </c>
-      <c r="K7" s="61">
+      <c r="K7" s="60">
         <v>1265</v>
       </c>
-      <c r="L7" s="61">
+      <c r="L7" s="60">
         <v>1489</v>
       </c>
-      <c r="M7" s="61">
+      <c r="M7" s="60">
         <v>1463</v>
       </c>
-      <c r="N7" s="61">
+      <c r="N7" s="60">
         <v>1691</v>
       </c>
-      <c r="O7" s="61">
+      <c r="O7" s="60">
         <v>1232</v>
       </c>
-      <c r="P7" s="61">
+      <c r="P7" s="60">
         <v>1243</v>
       </c>
-      <c r="Q7" s="61">
+      <c r="Q7" s="60">
         <v>1232</v>
       </c>
-      <c r="R7" s="61">
+      <c r="R7" s="60">
         <v>953</v>
       </c>
-      <c r="S7" s="61">
+      <c r="S7" s="60">
         <v>1481</v>
       </c>
-      <c r="T7" s="61">
+      <c r="T7" s="60">
         <v>1166</v>
       </c>
-      <c r="U7" s="61">
+      <c r="U7" s="60">
         <v>847</v>
       </c>
-      <c r="V7" s="61">
+      <c r="V7" s="60">
         <v>790</v>
       </c>
-      <c r="W7" s="61">
+      <c r="W7" s="60">
         <v>368</v>
       </c>
-      <c r="X7" s="61">
+      <c r="X7" s="60">
         <v>559</v>
       </c>
-      <c r="Y7" s="62">
+      <c r="Y7" s="61">
         <v>521</v>
       </c>
-      <c r="Z7" s="62">
+      <c r="Z7" s="61">
         <v>661</v>
       </c>
-      <c r="AA7" s="62">
+      <c r="AA7" s="61">
         <v>571</v>
       </c>
-      <c r="AB7" s="61" t="s">
+      <c r="AB7" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="63"/>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="63"/>
-      <c r="AG7" s="63"/>
-      <c r="AH7" s="63"/>
-      <c r="AI7" s="63"/>
-      <c r="AJ7" s="63"/>
-      <c r="AK7" s="63"/>
-      <c r="AL7" s="63"/>
-      <c r="AM7" s="63"/>
-      <c r="AN7" s="63"/>
-      <c r="AO7" s="63"/>
-      <c r="AP7" s="63"/>
-      <c r="AQ7" s="63"/>
-      <c r="AR7" s="63"/>
-      <c r="AS7" s="63"/>
-      <c r="AT7" s="63"/>
-      <c r="AU7" s="63"/>
-      <c r="AV7" s="63"/>
-      <c r="AW7" s="63"/>
-      <c r="AX7" s="63"/>
-      <c r="AY7" s="63"/>
-      <c r="AZ7" s="63"/>
-      <c r="BA7" s="64"/>
-      <c r="BB7" s="64"/>
-    </row>
-    <row r="8" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="60" t="s">
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62"/>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AW7" s="62"/>
+      <c r="AX7" s="62"/>
+      <c r="AY7" s="62"/>
+      <c r="AZ7" s="62"/>
+      <c r="BA7" s="63"/>
+      <c r="BB7" s="63"/>
+    </row>
+    <row r="8" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="60">
         <v>184</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="60">
         <v>648</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="60">
         <v>643</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="60">
         <v>871</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="60">
         <v>761</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="60">
         <v>838</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="60">
         <v>1291</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="60">
         <v>1596</v>
       </c>
-      <c r="J8" s="61">
+      <c r="J8" s="60">
         <v>1603</v>
       </c>
-      <c r="K8" s="61">
+      <c r="K8" s="60">
         <v>2089</v>
       </c>
-      <c r="L8" s="61">
+      <c r="L8" s="60">
         <v>2127</v>
       </c>
-      <c r="M8" s="61">
+      <c r="M8" s="60">
         <v>2342</v>
       </c>
-      <c r="N8" s="61">
+      <c r="N8" s="60">
         <v>2526</v>
       </c>
-      <c r="O8" s="61">
+      <c r="O8" s="60">
         <v>2707</v>
       </c>
-      <c r="P8" s="61">
+      <c r="P8" s="60">
         <v>3588</v>
       </c>
-      <c r="Q8" s="61">
+      <c r="Q8" s="60">
         <v>3571</v>
       </c>
-      <c r="R8" s="61">
+      <c r="R8" s="60">
         <v>4075</v>
       </c>
-      <c r="S8" s="61">
+      <c r="S8" s="60">
         <v>3272</v>
       </c>
-      <c r="T8" s="61">
+      <c r="T8" s="60">
         <v>3006</v>
       </c>
-      <c r="U8" s="61">
+      <c r="U8" s="60">
         <v>3314</v>
       </c>
-      <c r="V8" s="61">
+      <c r="V8" s="60">
         <v>3072</v>
       </c>
-      <c r="W8" s="61">
+      <c r="W8" s="60">
         <v>1713</v>
       </c>
-      <c r="X8" s="61">
+      <c r="X8" s="60">
         <v>2305</v>
       </c>
-      <c r="Y8" s="62">
+      <c r="Y8" s="61">
         <v>3069</v>
       </c>
-      <c r="Z8" s="62">
+      <c r="Z8" s="61">
         <v>2773</v>
       </c>
-      <c r="AA8" s="62">
+      <c r="AA8" s="61">
         <v>3321</v>
       </c>
-      <c r="AB8" s="61" t="s">
+      <c r="AB8" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="63"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="63"/>
-      <c r="AM8" s="63"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="63"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="63"/>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="64"/>
-      <c r="BB8" s="64"/>
-    </row>
-    <row r="9" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="62"/>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="63"/>
+    </row>
+    <row r="9" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-      <c r="AC9" s="65"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="67"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="67"/>
-      <c r="AP9" s="67"/>
-      <c r="AQ9" s="67"/>
-      <c r="AR9" s="67"/>
-      <c r="AS9" s="67"/>
-      <c r="AT9" s="67"/>
-      <c r="AU9" s="67"/>
-      <c r="AV9" s="67"/>
-      <c r="AW9" s="67"/>
-      <c r="AX9" s="67"/>
-      <c r="AY9" s="67"/>
-      <c r="AZ9" s="67"/>
-      <c r="BA9" s="67"/>
-      <c r="BB9" s="67"/>
-    </row>
-    <row r="10" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="65"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="65"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="66"/>
+      <c r="AE9" s="66"/>
+      <c r="AF9" s="66"/>
+      <c r="AG9" s="66"/>
+      <c r="AH9" s="66"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="66"/>
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="66"/>
+      <c r="AY9" s="66"/>
+      <c r="AZ9" s="66"/>
+      <c r="BA9" s="66"/>
+      <c r="BB9" s="66"/>
+    </row>
+    <row r="10" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="67">
         <f>B4/B$3*100</f>
         <v>83.522023704227848</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="67">
         <f>C4/C$3*100</f>
         <v>74.626556016597505</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="67">
         <v>69.8</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="67">
         <v>67.800000000000011</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="67">
         <v>66.600000000000009</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="67">
         <v>64</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="67">
         <v>59.599999999999994</v>
       </c>
-      <c r="I10" s="68">
+      <c r="I10" s="67">
         <v>62</v>
       </c>
-      <c r="J10" s="68">
+      <c r="J10" s="67">
         <v>60</v>
       </c>
-      <c r="K10" s="68">
+      <c r="K10" s="67">
         <v>57.599999999999994</v>
       </c>
-      <c r="L10" s="68">
+      <c r="L10" s="67">
         <v>55.1</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="67">
         <v>55.1</v>
       </c>
-      <c r="N10" s="68">
+      <c r="N10" s="67">
         <v>55.1</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="67">
         <v>53.900000000000006</v>
       </c>
-      <c r="P10" s="68">
+      <c r="P10" s="67">
         <v>51.5</v>
       </c>
-      <c r="Q10" s="68">
+      <c r="Q10" s="67">
         <v>50.2</v>
       </c>
-      <c r="R10" s="68">
+      <c r="R10" s="67">
         <v>48</v>
       </c>
-      <c r="S10" s="68">
+      <c r="S10" s="67">
         <v>50.5</v>
       </c>
-      <c r="T10" s="68">
+      <c r="T10" s="67">
         <v>52.900000000000006</v>
       </c>
-      <c r="U10" s="68">
+      <c r="U10" s="67">
         <v>52.900000000000006</v>
       </c>
-      <c r="V10" s="68">
+      <c r="V10" s="67">
         <v>52.7</v>
       </c>
-      <c r="W10" s="68">
+      <c r="W10" s="67">
         <v>60.5</v>
       </c>
-      <c r="X10" s="68">
+      <c r="X10" s="67">
         <v>54.500000000000007</v>
       </c>
-      <c r="Y10" s="68">
+      <c r="Y10" s="67">
         <v>47.699999999999996</v>
       </c>
-      <c r="Z10" s="68">
+      <c r="Z10" s="67">
         <v>54.900000000000006</v>
       </c>
-      <c r="AA10" s="68">
+      <c r="AA10" s="67">
         <v>53.300000000000004</v>
       </c>
-      <c r="AB10" s="68">
+      <c r="AB10" s="67">
         <v>51.300000000000004</v>
       </c>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-      <c r="AG10" s="69"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="69"/>
-      <c r="AM10" s="69"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="69"/>
-      <c r="AS10" s="69"/>
-      <c r="AT10" s="69"/>
-      <c r="AU10" s="69"/>
-      <c r="AV10" s="69"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="69"/>
-      <c r="BB10" s="69"/>
-    </row>
-    <row r="11" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="68"/>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="68"/>
+      <c r="AN10" s="68"/>
+      <c r="AO10" s="68"/>
+      <c r="AP10" s="68"/>
+      <c r="AQ10" s="68"/>
+      <c r="AR10" s="68"/>
+      <c r="AS10" s="68"/>
+      <c r="AT10" s="68"/>
+      <c r="AU10" s="68"/>
+      <c r="AV10" s="68"/>
+      <c r="AW10" s="68"/>
+      <c r="AX10" s="68"/>
+      <c r="AY10" s="68"/>
+      <c r="AZ10" s="68"/>
+      <c r="BA10" s="68"/>
+      <c r="BB10" s="68"/>
+    </row>
+    <row r="11" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="68">
+      <c r="B11" s="67">
         <v>0</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="67">
         <v>0.6</v>
       </c>
-      <c r="D11" s="68">
+      <c r="D11" s="67">
         <v>0.5</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="67">
         <v>1.7999999999999998</v>
       </c>
-      <c r="F11" s="68">
+      <c r="F11" s="67">
         <v>2</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="67">
         <v>3.5999999999999996</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="67">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I11" s="68">
+      <c r="I11" s="67">
         <v>1.5</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="67">
         <v>2.1999999999999997</v>
       </c>
-      <c r="K11" s="68">
+      <c r="K11" s="67">
         <v>2.5</v>
       </c>
-      <c r="L11" s="68">
+      <c r="L11" s="67">
         <v>3.1</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="67">
         <v>3.2</v>
       </c>
-      <c r="N11" s="68">
+      <c r="N11" s="67">
         <v>3.6999999999999997</v>
       </c>
-      <c r="O11" s="68">
+      <c r="O11" s="67">
         <v>4.8</v>
       </c>
-      <c r="P11" s="68">
+      <c r="P11" s="67">
         <v>3.6999999999999997</v>
       </c>
-      <c r="Q11" s="68">
+      <c r="Q11" s="67">
         <v>3.5999999999999996</v>
       </c>
-      <c r="R11" s="68">
+      <c r="R11" s="67">
         <v>4.1000000000000005</v>
       </c>
-      <c r="S11" s="68">
+      <c r="S11" s="67">
         <v>5.0999999999999996</v>
       </c>
-      <c r="T11" s="68">
+      <c r="T11" s="67">
         <v>5</v>
       </c>
-      <c r="U11" s="68">
+      <c r="U11" s="67">
         <v>6</v>
       </c>
-      <c r="V11" s="68">
+      <c r="V11" s="67">
         <v>6.6000000000000005</v>
       </c>
-      <c r="W11" s="68">
+      <c r="W11" s="67">
         <v>6.5</v>
       </c>
-      <c r="X11" s="68">
+      <c r="X11" s="67">
         <v>8.2000000000000011</v>
       </c>
-      <c r="Y11" s="68">
+      <c r="Y11" s="67">
         <v>10.100000000000001</v>
       </c>
-      <c r="Z11" s="68">
+      <c r="Z11" s="67">
         <v>9.4</v>
       </c>
-      <c r="AA11" s="68">
+      <c r="AA11" s="67">
         <v>9.9</v>
       </c>
-      <c r="AB11" s="68">
+      <c r="AB11" s="67">
         <v>10</v>
       </c>
-      <c r="AC11" s="60"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-      <c r="AG11" s="69"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="69"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="69"/>
-      <c r="AS11" s="69"/>
-      <c r="AT11" s="69"/>
-      <c r="AU11" s="69"/>
-      <c r="AV11" s="69"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="69"/>
-      <c r="BB11" s="69"/>
-    </row>
-    <row r="12" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="68"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="68"/>
+      <c r="AN11" s="68"/>
+      <c r="AO11" s="68"/>
+      <c r="AP11" s="68"/>
+      <c r="AQ11" s="68"/>
+      <c r="AR11" s="68"/>
+      <c r="AS11" s="68"/>
+      <c r="AT11" s="68"/>
+      <c r="AU11" s="68"/>
+      <c r="AV11" s="68"/>
+      <c r="AW11" s="68"/>
+      <c r="AX11" s="68"/>
+      <c r="AY11" s="68"/>
+      <c r="AZ11" s="68"/>
+      <c r="BA11" s="68"/>
+      <c r="BB11" s="68"/>
+    </row>
+    <row r="12" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="70">
+      <c r="B12" s="69">
         <v>12.7</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="67">
         <v>14.399999999999999</v>
       </c>
-      <c r="D12" s="68">
+      <c r="D12" s="67">
         <v>14.499999999999998</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="67">
         <v>15.299999999999999</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="67">
         <v>15.1</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="67">
         <v>15.2</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="67">
         <v>18.899999999999999</v>
       </c>
-      <c r="I12" s="68">
+      <c r="I12" s="67">
         <v>15</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="67">
         <v>14.899999999999999</v>
       </c>
-      <c r="K12" s="68">
+      <c r="K12" s="67">
         <v>16.7</v>
       </c>
-      <c r="L12" s="68">
+      <c r="L12" s="67">
         <v>16.7</v>
       </c>
-      <c r="M12" s="68">
+      <c r="M12" s="67">
         <v>16.7</v>
       </c>
-      <c r="N12" s="68">
+      <c r="N12" s="67">
         <v>15.8</v>
       </c>
-      <c r="O12" s="68">
+      <c r="O12" s="67">
         <v>16.100000000000001</v>
       </c>
-      <c r="P12" s="68">
+      <c r="P12" s="67">
         <v>14.799999999999999</v>
       </c>
-      <c r="Q12" s="68">
+      <c r="Q12" s="67">
         <v>15.7</v>
       </c>
-      <c r="R12" s="68">
+      <c r="R12" s="67">
         <v>15.9</v>
       </c>
-      <c r="S12" s="68">
+      <c r="S12" s="67">
         <v>14.499999999999998</v>
       </c>
-      <c r="T12" s="68">
+      <c r="T12" s="67">
         <v>14.499999999999998</v>
       </c>
-      <c r="U12" s="68">
+      <c r="U12" s="67">
         <v>13.8</v>
       </c>
-      <c r="V12" s="68">
+      <c r="V12" s="67">
         <v>12.9</v>
       </c>
-      <c r="W12" s="68">
+      <c r="W12" s="67">
         <v>10.6</v>
       </c>
-      <c r="X12" s="68">
+      <c r="X12" s="67">
         <v>11.5</v>
       </c>
-      <c r="Y12" s="68">
+      <c r="Y12" s="67">
         <v>12.3</v>
       </c>
-      <c r="Z12" s="68">
+      <c r="Z12" s="67">
         <v>10.100000000000001</v>
       </c>
-      <c r="AA12" s="68">
+      <c r="AA12" s="67">
         <v>10.6</v>
       </c>
-      <c r="AB12" s="68">
+      <c r="AB12" s="67">
         <v>11.5</v>
       </c>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="69"/>
-      <c r="AM12" s="69"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="69"/>
-      <c r="AS12" s="69"/>
-      <c r="AT12" s="69"/>
-      <c r="AU12" s="69"/>
-      <c r="AV12" s="69"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="69"/>
-      <c r="BB12" s="69"/>
-    </row>
-    <row r="13" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="68"/>
+      <c r="AK12" s="68"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="68"/>
+      <c r="AN12" s="68"/>
+      <c r="AO12" s="68"/>
+      <c r="AP12" s="68"/>
+      <c r="AQ12" s="68"/>
+      <c r="AR12" s="68"/>
+      <c r="AS12" s="68"/>
+      <c r="AT12" s="68"/>
+      <c r="AU12" s="68"/>
+      <c r="AV12" s="68"/>
+      <c r="AW12" s="68"/>
+      <c r="AX12" s="68"/>
+      <c r="AY12" s="68"/>
+      <c r="AZ12" s="68"/>
+      <c r="BA12" s="68"/>
+      <c r="BB12" s="68"/>
+    </row>
+    <row r="13" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="70">
+      <c r="B13" s="69">
         <v>2.1</v>
       </c>
-      <c r="C13" s="68">
+      <c r="C13" s="67">
         <v>5.8999999999999995</v>
       </c>
-      <c r="D13" s="68">
+      <c r="D13" s="67">
         <v>10</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="67">
         <v>8.2000000000000011</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="67">
         <v>10</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="67">
         <v>10.9</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="67">
         <v>10</v>
       </c>
-      <c r="I13" s="68">
+      <c r="I13" s="67">
         <v>11</v>
       </c>
-      <c r="J13" s="68">
+      <c r="J13" s="67">
         <v>10.7</v>
       </c>
-      <c r="K13" s="68">
+      <c r="K13" s="67">
         <v>8.7999999999999989</v>
       </c>
-      <c r="L13" s="68">
+      <c r="L13" s="67">
         <v>10.299999999999999</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="67">
         <v>9.6</v>
       </c>
-      <c r="N13" s="68">
+      <c r="N13" s="67">
         <v>10.199999999999999</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O13" s="67">
         <v>7.9</v>
       </c>
-      <c r="P13" s="68">
+      <c r="P13" s="67">
         <v>7.7</v>
       </c>
-      <c r="Q13" s="68">
+      <c r="Q13" s="67">
         <v>7.8</v>
       </c>
-      <c r="R13" s="68">
+      <c r="R13" s="67">
         <v>6.1</v>
       </c>
-      <c r="S13" s="68">
+      <c r="S13" s="67">
         <v>9.3000000000000007</v>
       </c>
-      <c r="T13" s="68">
+      <c r="T13" s="67">
         <v>7.7</v>
       </c>
-      <c r="U13" s="68">
+      <c r="U13" s="67">
         <v>5.5</v>
       </c>
-      <c r="V13" s="68">
+      <c r="V13" s="67">
         <v>5.7</v>
       </c>
-      <c r="W13" s="68">
+      <c r="W13" s="67">
         <v>4</v>
       </c>
-      <c r="X13" s="68">
+      <c r="X13" s="67">
         <v>5</v>
       </c>
-      <c r="Y13" s="68">
+      <c r="Y13" s="67">
         <v>4.3</v>
       </c>
-      <c r="Z13" s="68">
+      <c r="Z13" s="67">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AA13" s="68">
+      <c r="AA13" s="67">
         <v>3.8</v>
       </c>
-      <c r="AB13" s="68">
+      <c r="AB13" s="67">
         <v>3.9</v>
       </c>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-      <c r="AG13" s="69"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="69"/>
-      <c r="AM13" s="69"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="69"/>
-      <c r="AS13" s="69"/>
-      <c r="AT13" s="69"/>
-      <c r="AU13" s="69"/>
-      <c r="AV13" s="69"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="69"/>
-      <c r="BB13" s="69"/>
-    </row>
-    <row r="14" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="68"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="68"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="68"/>
+    </row>
+    <row r="14" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="70">
+      <c r="B14" s="69">
         <v>1.6</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="67">
         <v>4.5</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="67">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="67">
         <v>6.9</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="67">
         <v>6.2</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="67">
         <v>6.3</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="67">
         <v>9.1</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="67">
         <v>10.5</v>
       </c>
-      <c r="J14" s="68">
+      <c r="J14" s="67">
         <v>12.2</v>
       </c>
-      <c r="K14" s="68">
+      <c r="K14" s="67">
         <v>14.499999999999998</v>
       </c>
-      <c r="L14" s="68">
+      <c r="L14" s="67">
         <v>14.7</v>
       </c>
-      <c r="M14" s="68">
+      <c r="M14" s="67">
         <v>15.4</v>
       </c>
-      <c r="N14" s="68">
+      <c r="N14" s="67">
         <v>15.2</v>
       </c>
-      <c r="O14" s="68">
+      <c r="O14" s="67">
         <v>17.299999999999997</v>
       </c>
-      <c r="P14" s="68">
+      <c r="P14" s="67">
         <v>22.3</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="Q14" s="67">
         <v>22.6</v>
       </c>
-      <c r="R14" s="68">
+      <c r="R14" s="67">
         <v>25.900000000000002</v>
       </c>
-      <c r="S14" s="68">
+      <c r="S14" s="67">
         <v>20.599999999999998</v>
       </c>
-      <c r="T14" s="68">
+      <c r="T14" s="67">
         <v>19.900000000000002</v>
       </c>
-      <c r="U14" s="68">
+      <c r="U14" s="67">
         <v>21.7</v>
       </c>
-      <c r="V14" s="68">
+      <c r="V14" s="67">
         <v>22.1</v>
       </c>
-      <c r="W14" s="68">
+      <c r="W14" s="67">
         <v>18.399999999999999</v>
       </c>
-      <c r="X14" s="68">
+      <c r="X14" s="67">
         <v>20.8</v>
       </c>
-      <c r="Y14" s="68">
+      <c r="Y14" s="67">
         <v>25.6</v>
       </c>
-      <c r="Z14" s="68">
+      <c r="Z14" s="67">
         <v>20.599999999999998</v>
       </c>
-      <c r="AA14" s="68">
+      <c r="AA14" s="67">
         <v>22.400000000000002</v>
       </c>
-      <c r="AB14" s="68">
+      <c r="AB14" s="67">
         <v>23.3</v>
       </c>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="69"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="69"/>
-      <c r="AJ14" s="69"/>
-      <c r="AK14" s="69"/>
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="69"/>
-      <c r="AN14" s="69"/>
-      <c r="AO14" s="69"/>
-      <c r="AP14" s="69"/>
-      <c r="AQ14" s="69"/>
-      <c r="AR14" s="69"/>
-      <c r="AS14" s="69"/>
-      <c r="AT14" s="69"/>
-      <c r="AU14" s="69"/>
-      <c r="AV14" s="69"/>
-      <c r="AW14" s="69"/>
-      <c r="AX14" s="69"/>
-      <c r="AY14" s="69"/>
-      <c r="AZ14" s="69"/>
-      <c r="BA14" s="69"/>
-      <c r="BB14" s="69"/>
-    </row>
-    <row r="15" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="68"/>
+      <c r="AS14" s="68"/>
+      <c r="AT14" s="68"/>
+      <c r="AU14" s="68"/>
+      <c r="AV14" s="68"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="68"/>
+      <c r="AZ14" s="68"/>
+      <c r="BA14" s="68"/>
+      <c r="BB14" s="68"/>
+    </row>
+    <row r="15" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="71"/>
-      <c r="AJ15" s="71"/>
-      <c r="AK15" s="71"/>
-      <c r="AL15" s="71"/>
-      <c r="AM15" s="71"/>
-      <c r="AN15" s="71"/>
-      <c r="AO15" s="71"/>
-      <c r="AP15" s="71"/>
-      <c r="AQ15" s="71"/>
-      <c r="AR15" s="71"/>
-      <c r="AS15" s="71"/>
-      <c r="AT15" s="71"/>
-      <c r="AU15" s="71"/>
-      <c r="AV15" s="71"/>
-      <c r="AW15" s="71"/>
-      <c r="AX15" s="71"/>
-      <c r="AY15" s="71"/>
-      <c r="AZ15" s="71"/>
-      <c r="BA15" s="71"/>
-      <c r="BB15" s="71"/>
-    </row>
-    <row r="16" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60" t="s">
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="70"/>
+      <c r="AM15" s="70"/>
+      <c r="AN15" s="70"/>
+      <c r="AO15" s="70"/>
+      <c r="AP15" s="70"/>
+      <c r="AQ15" s="70"/>
+      <c r="AR15" s="70"/>
+      <c r="AS15" s="70"/>
+      <c r="AT15" s="70"/>
+      <c r="AU15" s="70"/>
+      <c r="AV15" s="70"/>
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="70"/>
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="70"/>
+      <c r="BB15" s="70"/>
+    </row>
+    <row r="16" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="72">
+      <c r="B16" s="71">
         <v>20</v>
       </c>
-      <c r="C16" s="72">
+      <c r="C16" s="71">
         <v>23</v>
       </c>
-      <c r="D16" s="72">
+      <c r="D16" s="71">
         <v>23.3</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="71">
         <v>23.4</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="71">
         <v>23.1</v>
       </c>
-      <c r="G16" s="72">
+      <c r="G16" s="71">
         <v>23.5</v>
       </c>
-      <c r="H16" s="72">
+      <c r="H16" s="71">
         <v>23.3</v>
       </c>
-      <c r="I16" s="72">
+      <c r="I16" s="71">
         <v>23.4</v>
       </c>
-      <c r="J16" s="72">
+      <c r="J16" s="71">
         <v>23.3</v>
       </c>
-      <c r="K16" s="72">
+      <c r="K16" s="71">
         <v>23.4</v>
       </c>
-      <c r="L16" s="72">
+      <c r="L16" s="71">
         <v>23.4</v>
       </c>
-      <c r="M16" s="72">
+      <c r="M16" s="71">
         <v>23</v>
       </c>
-      <c r="N16" s="72">
+      <c r="N16" s="71">
         <v>22.9</v>
       </c>
-      <c r="O16" s="72">
+      <c r="O16" s="71">
         <v>23</v>
       </c>
-      <c r="P16" s="72">
+      <c r="P16" s="71">
         <v>23.1</v>
       </c>
-      <c r="Q16" s="72">
+      <c r="Q16" s="71">
         <v>23.3</v>
       </c>
-      <c r="R16" s="72">
+      <c r="R16" s="71">
         <v>23.1</v>
       </c>
-      <c r="S16" s="72">
+      <c r="S16" s="71">
         <v>23.5</v>
       </c>
-      <c r="T16" s="72">
+      <c r="T16" s="71">
         <v>23.3</v>
       </c>
-      <c r="U16" s="72">
+      <c r="U16" s="71">
         <v>24.1</v>
       </c>
-      <c r="V16" s="72">
+      <c r="V16" s="71">
         <v>24.3</v>
       </c>
-      <c r="W16" s="72">
+      <c r="W16" s="71">
         <v>25.3</v>
       </c>
-      <c r="X16" s="72">
+      <c r="X16" s="71">
         <v>26.2</v>
       </c>
-      <c r="Y16" s="72">
+      <c r="Y16" s="71">
         <v>26</v>
       </c>
-      <c r="Z16" s="72">
+      <c r="Z16" s="71">
         <v>27.8</v>
       </c>
-      <c r="AA16" s="66">
+      <c r="AA16" s="65">
         <v>28.3</v>
       </c>
-      <c r="AB16" s="66">
+      <c r="AB16" s="65">
         <v>28.7</v>
       </c>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="73"/>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="73"/>
-      <c r="AJ16" s="73"/>
-      <c r="AK16" s="73"/>
-      <c r="AL16" s="73"/>
-      <c r="AM16" s="73"/>
-      <c r="AN16" s="73"/>
-      <c r="AO16" s="73"/>
-      <c r="AP16" s="73"/>
-      <c r="AQ16" s="73"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="73"/>
-      <c r="AX16" s="73"/>
-      <c r="AY16" s="73"/>
-      <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BB16" s="73"/>
-    </row>
-    <row r="17" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="72"/>
+      <c r="AG16" s="72"/>
+      <c r="AH16" s="72"/>
+      <c r="AI16" s="72"/>
+      <c r="AJ16" s="72"/>
+      <c r="AK16" s="72"/>
+      <c r="AL16" s="72"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="72"/>
+      <c r="BA16" s="72"/>
+      <c r="BB16" s="72"/>
+    </row>
+    <row r="17" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="72">
+      <c r="B17" s="71">
         <v>14.6</v>
       </c>
-      <c r="C17" s="72">
+      <c r="C17" s="71">
         <v>20.100000000000001</v>
       </c>
-      <c r="D17" s="72">
+      <c r="D17" s="71">
         <v>18.8</v>
       </c>
-      <c r="E17" s="72">
+      <c r="E17" s="71">
         <v>18.2</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="71">
         <v>17.8</v>
       </c>
-      <c r="G17" s="72">
+      <c r="G17" s="71">
         <v>17</v>
       </c>
-      <c r="H17" s="72">
+      <c r="H17" s="71">
         <v>18</v>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="71">
         <v>17.8</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="71">
         <v>18.399999999999999</v>
       </c>
-      <c r="K17" s="72">
+      <c r="K17" s="71">
         <v>19.2</v>
       </c>
-      <c r="L17" s="72">
+      <c r="L17" s="71">
         <v>18.2</v>
       </c>
-      <c r="M17" s="72">
+      <c r="M17" s="71">
         <v>18.5</v>
       </c>
-      <c r="N17" s="72">
+      <c r="N17" s="71">
         <v>17.899999999999999</v>
       </c>
-      <c r="O17" s="72">
+      <c r="O17" s="71">
         <v>18.8</v>
       </c>
-      <c r="P17" s="72">
+      <c r="P17" s="71">
         <v>19.3</v>
       </c>
-      <c r="Q17" s="72">
+      <c r="Q17" s="71">
         <v>19.899999999999999</v>
       </c>
-      <c r="R17" s="72">
+      <c r="R17" s="71">
         <v>20</v>
       </c>
-      <c r="S17" s="72">
+      <c r="S17" s="71">
         <v>20.2</v>
       </c>
-      <c r="T17" s="72">
+      <c r="T17" s="71">
         <v>20.5</v>
       </c>
-      <c r="U17" s="72">
+      <c r="U17" s="71">
         <v>20.6</v>
       </c>
-      <c r="V17" s="72">
+      <c r="V17" s="71">
         <v>21.2</v>
       </c>
-      <c r="W17" s="72">
+      <c r="W17" s="71">
         <v>22</v>
       </c>
-      <c r="X17" s="72">
+      <c r="X17" s="71">
         <v>23</v>
       </c>
-      <c r="Y17" s="72">
+      <c r="Y17" s="71">
         <v>23.6</v>
       </c>
-      <c r="Z17" s="72">
+      <c r="Z17" s="71">
         <v>23.4</v>
       </c>
-      <c r="AA17" s="66">
+      <c r="AA17" s="65">
         <v>24.5</v>
       </c>
-      <c r="AB17" s="66">
+      <c r="AB17" s="65">
         <v>24.3</v>
       </c>
-      <c r="AC17" s="60"/>
-      <c r="AD17" s="73"/>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="73"/>
-      <c r="AJ17" s="73"/>
-      <c r="AK17" s="73"/>
-      <c r="AL17" s="73"/>
-      <c r="AM17" s="73"/>
-      <c r="AN17" s="73"/>
-      <c r="AO17" s="73"/>
-      <c r="AP17" s="73"/>
-      <c r="AQ17" s="73"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="73"/>
-      <c r="AX17" s="73"/>
-      <c r="AY17" s="73"/>
-      <c r="AZ17" s="73"/>
-      <c r="BA17" s="73"/>
-      <c r="BB17" s="73"/>
-    </row>
-    <row r="18" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="72"/>
+      <c r="AF17" s="72"/>
+      <c r="AG17" s="72"/>
+      <c r="AH17" s="72"/>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="72"/>
+      <c r="AK17" s="72"/>
+      <c r="AL17" s="72"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="72"/>
+      <c r="AO17" s="72"/>
+      <c r="AP17" s="72"/>
+      <c r="AQ17" s="72"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="72"/>
+      <c r="AW17" s="72"/>
+      <c r="AX17" s="72"/>
+      <c r="AY17" s="72"/>
+      <c r="AZ17" s="72"/>
+      <c r="BA17" s="72"/>
+      <c r="BB17" s="72"/>
+    </row>
+    <row r="18" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="71">
         <v>16.5</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="71">
         <v>18.2</v>
       </c>
-      <c r="D18" s="72">
+      <c r="D18" s="71">
         <v>17.399999999999999</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="71">
         <v>18.2</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="71">
         <v>17.5</v>
       </c>
-      <c r="G18" s="72">
+      <c r="G18" s="71">
         <v>17.600000000000001</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="71">
         <v>17.399999999999999</v>
       </c>
-      <c r="I18" s="72">
+      <c r="I18" s="71">
         <v>16.899999999999999</v>
       </c>
-      <c r="J18" s="72">
+      <c r="J18" s="71">
         <v>17.100000000000001</v>
       </c>
-      <c r="K18" s="72">
+      <c r="K18" s="71">
         <v>16.8</v>
       </c>
-      <c r="L18" s="72">
+      <c r="L18" s="71">
         <v>17</v>
       </c>
-      <c r="M18" s="72">
+      <c r="M18" s="71">
         <v>16.3</v>
       </c>
-      <c r="N18" s="72">
+      <c r="N18" s="71">
         <v>16.7</v>
       </c>
-      <c r="O18" s="72">
+      <c r="O18" s="71">
         <v>16</v>
       </c>
-      <c r="P18" s="72">
+      <c r="P18" s="71">
         <v>15.8</v>
       </c>
-      <c r="Q18" s="72">
+      <c r="Q18" s="71">
         <v>16.100000000000001</v>
       </c>
-      <c r="R18" s="72">
+      <c r="R18" s="71">
         <v>15.7</v>
       </c>
-      <c r="S18" s="72">
+      <c r="S18" s="71">
         <v>15.8</v>
       </c>
-      <c r="T18" s="72">
+      <c r="T18" s="71">
         <v>16.100000000000001</v>
       </c>
-      <c r="U18" s="72">
+      <c r="U18" s="71">
         <v>16.2</v>
       </c>
-      <c r="V18" s="72">
+      <c r="V18" s="71">
         <v>16.5</v>
       </c>
-      <c r="W18" s="72">
+      <c r="W18" s="71">
         <v>16.899999999999999</v>
       </c>
-      <c r="X18" s="72">
+      <c r="X18" s="71">
         <v>16.899999999999999</v>
       </c>
-      <c r="Y18" s="72">
+      <c r="Y18" s="71">
         <v>17.2</v>
       </c>
-      <c r="Z18" s="72">
+      <c r="Z18" s="71">
         <v>17.2</v>
       </c>
-      <c r="AA18" s="66">
+      <c r="AA18" s="65">
         <v>17.399999999999999</v>
       </c>
-      <c r="AB18" s="72">
+      <c r="AB18" s="71">
         <v>18</v>
       </c>
-      <c r="AC18" s="60"/>
-      <c r="AD18" s="73"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="73"/>
-      <c r="AI18" s="73"/>
-      <c r="AJ18" s="73"/>
-      <c r="AK18" s="73"/>
-      <c r="AL18" s="73"/>
-      <c r="AM18" s="73"/>
-      <c r="AN18" s="73"/>
-      <c r="AO18" s="73"/>
-      <c r="AP18" s="73"/>
-      <c r="AQ18" s="73"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="73"/>
-      <c r="AX18" s="73"/>
-      <c r="AY18" s="73"/>
-      <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BB18" s="73"/>
-    </row>
-    <row r="19" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="72"/>
+      <c r="AO18" s="72"/>
+      <c r="AP18" s="72"/>
+      <c r="AQ18" s="72"/>
+      <c r="AR18" s="72"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+      <c r="AW18" s="72"/>
+      <c r="AX18" s="72"/>
+      <c r="AY18" s="72"/>
+      <c r="AZ18" s="72"/>
+      <c r="BA18" s="72"/>
+      <c r="BB18" s="72"/>
+    </row>
+    <row r="19" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="72">
+      <c r="B19" s="71">
         <v>14.1</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="71">
         <v>16.5</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="71">
         <v>17.8</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="71">
         <v>17.899999999999999</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="71">
         <v>17.899999999999999</v>
       </c>
-      <c r="G19" s="72">
+      <c r="G19" s="71">
         <v>18.2</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="71">
         <v>17.8</v>
       </c>
-      <c r="I19" s="72">
+      <c r="I19" s="71">
         <v>18.100000000000001</v>
       </c>
-      <c r="J19" s="72">
+      <c r="J19" s="71">
         <v>18.3</v>
       </c>
-      <c r="K19" s="72">
+      <c r="K19" s="71">
         <v>18.2</v>
       </c>
-      <c r="L19" s="72">
+      <c r="L19" s="71">
         <v>18.7</v>
       </c>
-      <c r="M19" s="72">
+      <c r="M19" s="71">
         <v>18.3</v>
       </c>
-      <c r="N19" s="72">
+      <c r="N19" s="71">
         <v>18.600000000000001</v>
       </c>
-      <c r="O19" s="72">
+      <c r="O19" s="71">
         <v>18</v>
       </c>
-      <c r="P19" s="72">
+      <c r="P19" s="71">
         <v>18.7</v>
       </c>
-      <c r="Q19" s="72">
+      <c r="Q19" s="71">
         <v>19</v>
       </c>
-      <c r="R19" s="72">
+      <c r="R19" s="71">
         <v>19.2</v>
       </c>
-      <c r="S19" s="72">
+      <c r="S19" s="71">
         <v>19.3</v>
       </c>
-      <c r="T19" s="72">
+      <c r="T19" s="71">
         <v>19.5</v>
       </c>
-      <c r="U19" s="72">
+      <c r="U19" s="71">
         <v>19.5</v>
       </c>
-      <c r="V19" s="72">
+      <c r="V19" s="71">
         <v>19.8</v>
       </c>
-      <c r="W19" s="72">
+      <c r="W19" s="71">
         <v>20.100000000000001</v>
       </c>
-      <c r="X19" s="72">
+      <c r="X19" s="71">
         <v>20.100000000000001</v>
       </c>
-      <c r="Y19" s="72">
+      <c r="Y19" s="71">
         <v>21</v>
       </c>
-      <c r="Z19" s="72">
+      <c r="Z19" s="71">
         <v>21.4</v>
       </c>
-      <c r="AA19" s="66">
+      <c r="AA19" s="65">
         <v>21.1</v>
       </c>
-      <c r="AB19" s="66">
+      <c r="AB19" s="65">
         <v>21.2</v>
       </c>
-      <c r="AC19" s="60"/>
-      <c r="AD19" s="73"/>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="73"/>
-      <c r="AI19" s="73"/>
-      <c r="AJ19" s="73"/>
-      <c r="AK19" s="73"/>
-      <c r="AL19" s="73"/>
-      <c r="AM19" s="73"/>
-      <c r="AN19" s="73"/>
-      <c r="AO19" s="73"/>
-      <c r="AP19" s="73"/>
-      <c r="AQ19" s="73"/>
-      <c r="AR19" s="73"/>
-      <c r="AS19" s="73"/>
-      <c r="AT19" s="73"/>
-      <c r="AU19" s="73"/>
-      <c r="AV19" s="73"/>
-      <c r="AW19" s="73"/>
-      <c r="AX19" s="73"/>
-      <c r="AY19" s="73"/>
-      <c r="AZ19" s="73"/>
-      <c r="BA19" s="73"/>
-      <c r="BB19" s="73"/>
-    </row>
-    <row r="20" spans="1:54" s="14" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="74" t="s">
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="72"/>
+      <c r="AG19" s="72"/>
+      <c r="AH19" s="72"/>
+      <c r="AI19" s="72"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="72"/>
+      <c r="AN19" s="72"/>
+      <c r="AO19" s="72"/>
+      <c r="AP19" s="72"/>
+      <c r="AQ19" s="72"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72"/>
+      <c r="AW19" s="72"/>
+      <c r="AX19" s="72"/>
+      <c r="AY19" s="72"/>
+      <c r="AZ19" s="72"/>
+      <c r="BA19" s="72"/>
+      <c r="BB19" s="72"/>
+    </row>
+    <row r="20" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="74">
         <v>13.2</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="74">
         <v>16.5</v>
       </c>
-      <c r="D20" s="75">
+      <c r="D20" s="74">
         <v>16.399999999999999</v>
       </c>
-      <c r="E20" s="75">
+      <c r="E20" s="74">
         <v>16.7</v>
       </c>
-      <c r="F20" s="75">
+      <c r="F20" s="74">
         <v>16.2</v>
       </c>
-      <c r="G20" s="75">
+      <c r="G20" s="74">
         <v>16.3</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="74">
         <v>16</v>
       </c>
-      <c r="I20" s="75">
+      <c r="I20" s="74">
         <v>16</v>
       </c>
-      <c r="J20" s="75">
+      <c r="J20" s="74">
         <v>16.2</v>
       </c>
-      <c r="K20" s="75">
+      <c r="K20" s="74">
         <v>16.100000000000001</v>
       </c>
-      <c r="L20" s="75">
+      <c r="L20" s="74">
         <v>16.2</v>
       </c>
-      <c r="M20" s="75">
+      <c r="M20" s="74">
         <v>16.100000000000001</v>
       </c>
-      <c r="N20" s="75">
+      <c r="N20" s="74">
         <v>16</v>
       </c>
-      <c r="O20" s="75">
+      <c r="O20" s="74">
         <v>16.399999999999999</v>
       </c>
-      <c r="P20" s="75">
+      <c r="P20" s="74">
         <v>16.3</v>
       </c>
-      <c r="Q20" s="75">
+      <c r="Q20" s="74">
         <v>16.399999999999999</v>
       </c>
-      <c r="R20" s="75">
+      <c r="R20" s="74">
         <v>16.5</v>
       </c>
-      <c r="S20" s="75">
+      <c r="S20" s="74">
         <v>16.7</v>
       </c>
-      <c r="T20" s="75">
+      <c r="T20" s="74">
         <v>17.2</v>
       </c>
-      <c r="U20" s="75">
+      <c r="U20" s="74">
         <v>17.7</v>
       </c>
-      <c r="V20" s="75">
+      <c r="V20" s="74">
         <v>18.2</v>
       </c>
-      <c r="W20" s="75">
+      <c r="W20" s="74">
         <v>19.3</v>
       </c>
-      <c r="X20" s="75">
+      <c r="X20" s="74">
         <v>19.7</v>
       </c>
-      <c r="Y20" s="75">
+      <c r="Y20" s="74">
         <v>19.8</v>
       </c>
-      <c r="Z20" s="75">
+      <c r="Z20" s="74">
         <v>20</v>
       </c>
-      <c r="AA20" s="76">
+      <c r="AA20" s="75">
         <v>20.9</v>
       </c>
-      <c r="AB20" s="76">
+      <c r="AB20" s="75">
         <v>21.2</v>
       </c>
-      <c r="AC20" s="60"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="73"/>
-      <c r="AG20" s="73"/>
-      <c r="AH20" s="73"/>
-      <c r="AI20" s="73"/>
-      <c r="AJ20" s="73"/>
-      <c r="AK20" s="73"/>
-      <c r="AL20" s="73"/>
-      <c r="AM20" s="73"/>
-      <c r="AN20" s="73"/>
-      <c r="AO20" s="73"/>
-      <c r="AP20" s="73"/>
-      <c r="AQ20" s="73"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="73"/>
-      <c r="AX20" s="73"/>
-      <c r="AY20" s="73"/>
-      <c r="AZ20" s="73"/>
-      <c r="BA20" s="73"/>
-      <c r="BB20" s="73"/>
-    </row>
-    <row r="21" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="85" t="s">
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="72"/>
+      <c r="AG20" s="72"/>
+      <c r="AH20" s="72"/>
+      <c r="AI20" s="72"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="72"/>
+      <c r="AN20" s="72"/>
+      <c r="AO20" s="72"/>
+      <c r="AP20" s="72"/>
+      <c r="AQ20" s="72"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="72"/>
+      <c r="AV20" s="72"/>
+      <c r="AW20" s="72"/>
+      <c r="AX20" s="72"/>
+      <c r="AY20" s="72"/>
+      <c r="AZ20" s="72"/>
+      <c r="BA20" s="72"/>
+      <c r="BB20" s="72"/>
+    </row>
+    <row r="21" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-    </row>
-    <row r="22" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-    </row>
-    <row r="23" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86" t="s">
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+    </row>
+    <row r="22" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+    </row>
+    <row r="23" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-    </row>
-    <row r="24" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+    </row>
+    <row r="24" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-    </row>
-    <row r="25" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79" t="s">
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="84"/>
+      <c r="N24" s="84"/>
+      <c r="O24" s="84"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+    </row>
+    <row r="25" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-    </row>
-    <row r="26" spans="1:54" s="77" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80" t="s">
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+    </row>
+    <row r="26" spans="1:54" s="76" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
-      <c r="Q26" s="80"/>
-    </row>
-    <row r="27" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-    </row>
-    <row r="28" spans="1:54" s="77" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="85"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="85"/>
+    </row>
+    <row r="27" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+    </row>
+    <row r="28" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="81"/>
-    </row>
-    <row r="29" spans="1:54" s="77" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="82" t="s">
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+    </row>
+    <row r="29" spans="1:54" s="76" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="87" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-    </row>
-    <row r="30" spans="1:54" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:54" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:54" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="78" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+    </row>
+    <row r="30" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="33" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="34" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="35" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="36" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="37" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="38" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="39" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="40" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="41" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="42" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="43" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="44" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="45" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="46" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="47" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="48" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="49" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="50" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="51" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="52" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="53" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="55" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="56" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="57" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="58" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="59" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="60" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="61" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A24:Q24"/>
@@ -4361,30 +4426,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="30.1328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.86328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.265625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.73046875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.1328125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4401,7 +4468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>13</v>
       </c>
@@ -4421,440 +4488,471 @@
         <v>13.378781688359696</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="79" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="B6" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="80">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="B7" s="80">
+        <v>11932239</v>
+      </c>
+      <c r="C7" s="80">
+        <v>12</v>
+      </c>
+      <c r="D7" s="83">
+        <v>1007829.3084223459</v>
+      </c>
+      <c r="E7" s="8">
+        <f>A7*(B7/(B7+D7))+C7*(D7/(D7+B7))</f>
+        <v>26.753849782673711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+    </row>
+    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+    <row r="14" spans="1:5" s="10" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25">
+      <c r="C15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" s="10" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="24">
         <v>24</v>
       </c>
-      <c r="C15" s="22"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="C16" s="21"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C20" s="10">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+    <row r="21" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C21" s="10">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="15" t="s">
+    <row r="22" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="9"/>
+      <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C22" s="15">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B27" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+    <row r="28" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C28" s="15">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+    <row r="30" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+    </row>
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C31" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E31" s="37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="26">
         <v>1997</v>
       </c>
-      <c r="B31" s="31">
+      <c r="B32" s="30">
         <v>3826373</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C32" s="33">
         <v>260000</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="26">
         <v>1998</v>
       </c>
-      <c r="B32" s="31">
+      <c r="B33" s="30">
         <v>3879450</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C33" s="33">
         <v>311000</v>
       </c>
-      <c r="D32" s="36">
-        <f t="shared" ref="D32:D40" si="0">C32-(B32-B31)</f>
+      <c r="D33" s="35">
+        <f t="shared" ref="D33:D41" si="0">C33-(B33-B32)</f>
         <v>257923</v>
       </c>
-      <c r="E32" s="39">
-        <f>D32/B32</f>
+      <c r="E33" s="38">
+        <f>D33/B33</f>
         <v>6.6484424338501588E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="26">
         <v>1999</v>
       </c>
-      <c r="B33" s="31">
+      <c r="B34" s="30">
         <v>4152433</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C34" s="33">
         <v>394000</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D34" s="35">
         <f t="shared" si="0"/>
         <v>121017</v>
       </c>
-      <c r="E33" s="39">
-        <f t="shared" ref="E33:E41" si="1">D33/B33</f>
+      <c r="E34" s="38">
+        <f t="shared" ref="E34:E42" si="1">D34/B34</f>
         <v>2.9143636995467476E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="26">
         <v>2000</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B35" s="30">
         <v>4346068</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C35" s="33">
         <v>490000</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D35" s="35">
         <f t="shared" si="0"/>
         <v>296365</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E35" s="38">
         <f t="shared" si="1"/>
         <v>6.8191523924614153E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="26">
         <v>2001</v>
       </c>
-      <c r="B35" s="31">
+      <c r="B36" s="30">
         <v>4903056</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C36" s="33">
         <v>577000</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D36" s="35">
         <f t="shared" si="0"/>
         <v>20012</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E36" s="38">
         <f t="shared" si="1"/>
         <v>4.0815360868813244E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="26">
         <v>2002</v>
       </c>
-      <c r="B36" s="31">
+      <c r="B37" s="30">
         <v>5004156</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C37" s="33">
         <v>640000</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D37" s="35">
         <f t="shared" si="0"/>
         <v>538900</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E37" s="38">
         <f t="shared" si="1"/>
         <v>0.10769048766665149</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="26">
         <v>2003</v>
       </c>
-      <c r="B37" s="31">
+      <c r="B38" s="30">
         <v>5370035</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C38" s="33">
         <v>683000</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D38" s="35">
         <f t="shared" si="0"/>
         <v>317121</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E38" s="38">
         <f t="shared" si="1"/>
         <v>5.9053805049687755E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="26">
         <v>2004</v>
       </c>
-      <c r="B38" s="31">
+      <c r="B39" s="30">
         <v>5780870</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C39" s="33">
         <v>750000</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D39" s="35">
         <f t="shared" si="0"/>
         <v>339165</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E39" s="38">
         <f t="shared" si="1"/>
         <v>5.8670234757052138E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="26">
         <v>2005</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B40" s="30">
         <v>6227146</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C40" s="33">
         <v>831000</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D40" s="35">
         <f t="shared" si="0"/>
         <v>384724</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E40" s="38">
         <f t="shared" si="1"/>
         <v>6.1781753631599455E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="27">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="26">
         <v>2006</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B41" s="30">
         <v>6678958</v>
       </c>
-      <c r="C40" s="34">
+      <c r="C41" s="33">
         <v>892000</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D41" s="35">
         <f t="shared" si="0"/>
         <v>440188</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E41" s="38">
         <f t="shared" si="1"/>
         <v>6.5906687839630079E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="32">
+    <row r="42" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="31">
         <v>2007</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B42" s="29">
         <v>7138476</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C42" s="28">
         <v>885000</v>
       </c>
-      <c r="D41" s="36">
-        <f>C41-(B41-B40)</f>
+      <c r="D42" s="35">
+        <f>C42-(B42-B41)</f>
         <v>425482</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E42" s="38">
         <f t="shared" si="1"/>
         <v>5.9604038733197397E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="35">
-        <f>AVERAGE(E32:E41)</f>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="34">
+        <f>AVERAGE(E33:E42)</f>
         <v>5.8060812902328285E-2</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-    </row>
-    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44">
-        <f>1/A44</f>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A48" s="43">
+        <f>1/A45</f>
         <v>17.22332068760786</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4871,73 +4969,75 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="87">
+      <c r="B2" s="78">
         <f>ROUND(Data!E3,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="87">
-        <f>ROUND(Data!A7,0)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="45">
+        <f>ROUND(Data!E7,0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="46">
-        <f>ROUND(Data!A15,0)</f>
+      <c r="B4" s="45">
+        <f>ROUND(Data!A16,0)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="87">
-        <f>ROUND(Data!C21,0)</f>
+      <c r="B5" s="78">
+        <f>ROUND(Data!C22,0)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="87">
-        <f>ROUND(Data!C27,0)</f>
+      <c r="B6" s="78">
+        <f>ROUND(Data!C28,0)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="87">
-        <f>ROUND(Data!A47,0)</f>
+      <c r="B7" s="78">
+        <f>ROUND(Data!A48,0)</f>
         <v>17</v>
       </c>
     </row>

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us-v2 - 2020 Modeling\InputData\trans\AVL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="23955" windowHeight="13545" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="23955" windowHeight="13545"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>Car Avg Lifetime, years (Page 22, Table 7)</t>
   </si>
@@ -199,12 +199,6 @@
   </si>
   <si>
     <t>motorbikes</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Lifetime (yr)</t>
   </si>
   <si>
     <t>Heavy Truck Avg Lifetime, years (Table 3-14, Row 43)</t>
@@ -335,7 +329,31 @@
     <t>Bus Start Year Vehicle</t>
   </si>
   <si>
-    <t xml:space="preserve">Weighted Average </t>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>Freight HDVs</t>
+  </si>
+  <si>
+    <t>Passenger HDVs (Buses)</t>
+  </si>
+  <si>
+    <t>Passenger LDVs are a weighted average of cars and light trucks.  (Most light trucks are SUVs.)  We use the LDV light trucks figure alone</t>
+  </si>
+  <si>
+    <t>for freight LDVs.</t>
+  </si>
+  <si>
+    <t>We assume passenger and freight modes are the same for aircraft, rail, and ships.</t>
+  </si>
+  <si>
+    <t>There are no freight motorbikes in the U.S. EPS, so we arbitrarily set their lifetime equal to passenger motorbikes.</t>
+  </si>
+  <si>
+    <t>Vehicle Lifetime (years)</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1250,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1433,6 +1451,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1456,6 +1483,9 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -1852,11 +1882,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1918,7 +1946,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -1928,12 +1956,12 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="6" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
@@ -1948,146 +1976,171 @@
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B21" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="24" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B29" s="6" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B30" s="9" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B31" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B31" s="10">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2013</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B32" s="9" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B33" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="4" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B34" s="9" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B35" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B36" s="6" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B37" s="6" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B37" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B39" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B40" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B40" s="25" t="s">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B41" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B41" s="13" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B43" s="6" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B44" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B44" s="13" t="s">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B45" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B45" s="20">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B46" s="20">
         <v>2009</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B46" s="13" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B47" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B47" s="25" t="s">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B48" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B48" s="13" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B49" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>87</v>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B40" r:id="rId2"/>
-    <hyperlink ref="B47" r:id="rId3"/>
-    <hyperlink ref="B27" r:id="rId4"/>
+    <hyperlink ref="B41" r:id="rId2"/>
+    <hyperlink ref="B48" r:id="rId3"/>
+    <hyperlink ref="B28" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -2112,62 +2165,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="89"/>
-      <c r="AD1" s="89"/>
-      <c r="AE1" s="89"/>
-      <c r="AF1" s="89"/>
-      <c r="AG1" s="89"/>
-      <c r="AH1" s="89"/>
-      <c r="AI1" s="89"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="89"/>
-      <c r="AL1" s="89"/>
-      <c r="AM1" s="89"/>
-      <c r="AN1" s="89"/>
-      <c r="AO1" s="89"/>
-      <c r="AP1" s="89"/>
-      <c r="AQ1" s="89"/>
-      <c r="AR1" s="89"/>
-      <c r="AS1" s="89"/>
-      <c r="AT1" s="89"/>
-      <c r="AU1" s="89"/>
-      <c r="AV1" s="89"/>
-      <c r="AW1" s="89"/>
-      <c r="AX1" s="89"/>
-      <c r="AY1" s="89"/>
-      <c r="AZ1" s="89"/>
-      <c r="BA1" s="89"/>
-      <c r="BB1" s="89"/>
+      <c r="A1" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="92"/>
+      <c r="BB1" s="92"/>
     </row>
     <row r="2" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="46"/>
@@ -2281,7 +2334,7 @@
     </row>
     <row r="3" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="56">
         <v>11306</v>
@@ -2362,7 +2415,7 @@
         <v>14846</v>
       </c>
       <c r="AB3" s="57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC3" s="55"/>
       <c r="AD3" s="58"/>
@@ -2393,7 +2446,7 @@
     </row>
     <row r="4" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="60">
         <v>9443</v>
@@ -2474,7 +2527,7 @@
         <v>7907</v>
       </c>
       <c r="AB4" s="60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC4" s="59"/>
       <c r="AD4" s="62"/>
@@ -2505,7 +2558,7 @@
     </row>
     <row r="5" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="60">
         <v>0</v>
@@ -2586,7 +2639,7 @@
         <v>1470</v>
       </c>
       <c r="AB5" s="60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC5" s="59"/>
       <c r="AD5" s="62"/>
@@ -2617,7 +2670,7 @@
     </row>
     <row r="6" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="60">
         <v>1437</v>
@@ -2698,7 +2751,7 @@
         <v>1577</v>
       </c>
       <c r="AB6" s="60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC6" s="59"/>
       <c r="AD6" s="62"/>
@@ -2729,7 +2782,7 @@
     </row>
     <row r="7" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="60">
         <v>242</v>
@@ -2810,7 +2863,7 @@
         <v>571</v>
       </c>
       <c r="AB7" s="60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC7" s="59"/>
       <c r="AD7" s="62"/>
@@ -2841,7 +2894,7 @@
     </row>
     <row r="8" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="60">
         <v>184</v>
@@ -2922,7 +2975,7 @@
         <v>3321</v>
       </c>
       <c r="AB8" s="60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC8" s="59"/>
       <c r="AD8" s="62"/>
@@ -2953,7 +3006,7 @@
     </row>
     <row r="9" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="64" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="65"/>
       <c r="C9" s="65"/>
@@ -3011,7 +3064,7 @@
     </row>
     <row r="10" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="67">
         <f>B4/B$3*100</f>
@@ -3125,7 +3178,7 @@
     </row>
     <row r="11" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="67">
         <v>0</v>
@@ -3237,7 +3290,7 @@
     </row>
     <row r="12" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="69">
         <v>12.7</v>
@@ -3349,7 +3402,7 @@
     </row>
     <row r="13" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="69">
         <v>2.1</v>
@@ -3461,7 +3514,7 @@
     </row>
     <row r="14" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="69">
         <v>1.6</v>
@@ -3573,7 +3626,7 @@
     </row>
     <row r="15" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="55" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
@@ -3631,7 +3684,7 @@
     </row>
     <row r="16" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="71">
         <v>20</v>
@@ -3743,7 +3796,7 @@
     </row>
     <row r="17" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="71">
         <v>14.6</v>
@@ -3855,7 +3908,7 @@
     </row>
     <row r="18" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18" s="71">
         <v>16.5</v>
@@ -3967,7 +4020,7 @@
     </row>
     <row r="19" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="59" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19" s="71">
         <v>14.1</v>
@@ -4079,7 +4132,7 @@
     </row>
     <row r="20" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B20" s="74">
         <v>13.2</v>
@@ -4190,189 +4243,189 @@
       <c r="BB20" s="72"/>
     </row>
     <row r="21" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="93" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
+    </row>
+    <row r="22" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+    </row>
+    <row r="23" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
+    </row>
+    <row r="24" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-    </row>
-    <row r="22" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-    </row>
-    <row r="23" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="91" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+    </row>
+    <row r="25" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-    </row>
-    <row r="24" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="84" t="s">
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+    </row>
+    <row r="26" spans="1:54" s="76" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
-      <c r="Q24" s="84"/>
-    </row>
-    <row r="25" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="84" t="s">
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+    </row>
+    <row r="27" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+    </row>
+    <row r="28" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="84"/>
-    </row>
-    <row r="26" spans="1:54" s="76" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="85" t="s">
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+    </row>
+    <row r="29" spans="1:54" s="76" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-    </row>
-    <row r="27" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-    </row>
-    <row r="28" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="86" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-    </row>
-    <row r="29" spans="1:54" s="76" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="87"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
     </row>
     <row r="30" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -4428,9 +4481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4455,14 +4506,14 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>6</v>
@@ -4472,7 +4523,7 @@
       <c r="A3" s="3">
         <v>13</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="86">
         <v>14</v>
       </c>
       <c r="C3" s="5">
@@ -4494,39 +4545,34 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="79" t="s">
-        <v>61</v>
+      <c r="A6" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B6" s="79" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>94</v>
-      </c>
+      <c r="E6" s="84"/>
     </row>
     <row r="7" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="80">
+      <c r="A7" s="86">
         <v>28</v>
       </c>
       <c r="B7" s="80">
         <v>11932239</v>
       </c>
-      <c r="C7" s="80">
-        <v>12</v>
+      <c r="C7" s="86">
+        <v>23</v>
       </c>
       <c r="D7" s="83">
         <v>1007829.3084223459</v>
       </c>
-      <c r="E7" s="8">
-        <f>A7*(B7/(B7+D7))+C7*(D7/(D7+B7))</f>
-        <v>26.753849782673711</v>
-      </c>
+      <c r="E7" s="85"/>
     </row>
     <row r="8" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="81"/>
@@ -4967,27 +5013,29 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.59765625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>59</v>
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="95" t="s">
+        <v>100</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -4995,17 +5043,25 @@
         <f>ROUND(Data!E3,0)</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C2">
+        <f>Data!B3</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="45">
-        <f>ROUND(Data!E7,0)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <f>Data!C7</f>
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <f>Data!A7</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -5013,8 +5069,12 @@
         <f>ROUND(Data!A16,0)</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C4" s="45">
+        <f>B4</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -5022,8 +5082,12 @@
         <f>ROUND(Data!C22,0)</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C5">
+        <f>B5</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -5031,13 +5095,21 @@
         <f>ROUND(Data!C28,0)</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C6">
+        <f>B6</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>58</v>
       </c>
       <c r="B7" s="78">
         <f>ROUND(Data!A48,0)</f>
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <f>B7</f>
         <v>17</v>
       </c>
     </row>

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\AVL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\United States\Model\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4720D5-77AE-4A1A-AE65-B155DB0B4DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="23955" windowHeight="13545"/>
+    <workbookView xWindow="60" yWindow="68" windowWidth="6952" windowHeight="6825" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -17,7 +18,17 @@
     <sheet name="Data" sheetId="2" r:id="rId3"/>
     <sheet name="AVL" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -359,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
     <numFmt numFmtId="165" formatCode="\(\R\)General"/>
@@ -1460,9 +1471,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,21 +1497,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -1514,41 +1525,41 @@
     <cellStyle name="Accent5" xfId="50" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="54" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="23" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="3"/>
+    <cellStyle name="Body: normal cell" xfId="3" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Calculation" xfId="27" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="29" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Data" xfId="14"/>
-    <cellStyle name="Data no deci" xfId="61"/>
+    <cellStyle name="Data" xfId="14" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Data no deci" xfId="61" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Explanatory Text" xfId="32" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="9"/>
-    <cellStyle name="Footnotes: all except top row" xfId="12"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="9" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="12" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Good" xfId="22" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
-    <cellStyle name="Header: top rows" xfId="4"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Header: top rows" xfId="4" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Heading 1" xfId="18" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="19" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="20" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="21" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hed Side" xfId="15"/>
-    <cellStyle name="Hed Side Regular" xfId="60"/>
-    <cellStyle name="Hed Top" xfId="59"/>
+    <cellStyle name="Hed Side" xfId="15" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="60" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Hed Top" xfId="59" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="10"/>
+    <cellStyle name="Hyperlink 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="Input" xfId="25" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="28" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="24" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="31" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="26" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="8"/>
-    <cellStyle name="Section Break: parent row" xfId="5"/>
-    <cellStyle name="Table title" xfId="13"/>
+    <cellStyle name="Section Break" xfId="8" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Table title" xfId="13" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="Title" xfId="17" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Title-2" xfId="58"/>
+    <cellStyle name="Title-2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Total" xfId="33" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="30" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -1579,7 +1590,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1671,6 +1682,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1706,6 +1734,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1881,10 +1926,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2137,10 +2182,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B41" r:id="rId2"/>
-    <hyperlink ref="B48" r:id="rId3"/>
-    <hyperlink ref="B28" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B41" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -2148,7 +2193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BC61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2165,62 +2210,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="92"/>
-      <c r="AL1" s="92"/>
-      <c r="AM1" s="92"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="92"/>
-      <c r="AP1" s="92"/>
-      <c r="AQ1" s="92"/>
-      <c r="AR1" s="92"/>
-      <c r="AS1" s="92"/>
-      <c r="AT1" s="92"/>
-      <c r="AU1" s="92"/>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="92"/>
-      <c r="AX1" s="92"/>
-      <c r="AY1" s="92"/>
-      <c r="AZ1" s="92"/>
-      <c r="BA1" s="92"/>
-      <c r="BB1" s="92"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="90"/>
     </row>
     <row r="2" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="46"/>
@@ -4243,189 +4288,189 @@
       <c r="BB20" s="72"/>
     </row>
     <row r="21" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
     </row>
     <row r="22" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
     </row>
     <row r="23" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
     </row>
     <row r="24" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
     </row>
     <row r="25" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
     </row>
     <row r="26" spans="1:54" s="76" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="88" t="s">
+      <c r="A26" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
     </row>
     <row r="27" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
     </row>
     <row r="28" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="89" t="s">
+      <c r="A28" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
     </row>
     <row r="29" spans="1:54" s="76" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="90" t="s">
+      <c r="A29" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
     </row>
     <row r="30" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -4461,24 +4506,24 @@
     <row r="61" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A29:Q29"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="AC1:BB1"/>
     <mergeCell ref="A21:Q21"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A29:Q29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5009,13 +5054,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5025,7 +5072,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="87" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="11" t="s">

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\United States\Model\InputData\trans\AVL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4720D5-77AE-4A1A-AE65-B155DB0B4DD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="68" windowWidth="6952" windowHeight="6825" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="23955" windowHeight="13545"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -18,17 +17,7 @@
     <sheet name="Data" sheetId="2" r:id="rId3"/>
     <sheet name="AVL" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -370,7 +359,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
     <numFmt numFmtId="165" formatCode="\(\R\)General"/>
@@ -1471,32 +1460,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -1525,41 +1514,41 @@
     <cellStyle name="Accent5" xfId="50" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="54" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="23" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="3" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell" xfId="3"/>
     <cellStyle name="Calculation" xfId="27" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="29" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Data" xfId="14" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Data no deci" xfId="61" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Data" xfId="14"/>
+    <cellStyle name="Data no deci" xfId="61"/>
     <cellStyle name="Explanatory Text" xfId="32" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="9" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="12" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="9"/>
+    <cellStyle name="Footnotes: all except top row" xfId="12"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
     <cellStyle name="Good" xfId="22" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Header: top rows" xfId="4" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Header: bottom row" xfId="2"/>
+    <cellStyle name="Header: top rows" xfId="4"/>
     <cellStyle name="Heading 1" xfId="18" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="19" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="20" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="21" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hed Side" xfId="15" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="60" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Hed Top" xfId="59" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Hed Side" xfId="15"/>
+    <cellStyle name="Hed Side Regular" xfId="60"/>
+    <cellStyle name="Hed Top" xfId="59"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="10"/>
     <cellStyle name="Input" xfId="25" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="28" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="24" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="31" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="26" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Parent row" xfId="6"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="8" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Section Break: parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Table title" xfId="13" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Section Break" xfId="8"/>
+    <cellStyle name="Section Break: parent row" xfId="5"/>
+    <cellStyle name="Table title" xfId="13"/>
     <cellStyle name="Title" xfId="17" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Title-2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Title-2" xfId="58"/>
     <cellStyle name="Total" xfId="33" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="30" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -1590,7 +1579,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Table Style 1" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1682,23 +1671,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1734,23 +1706,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1926,10 +1881,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2182,10 +2137,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B41" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B41" r:id="rId2"/>
+    <hyperlink ref="B48" r:id="rId3"/>
+    <hyperlink ref="B28" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -2193,7 +2148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2210,62 +2165,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="90"/>
-      <c r="AK1" s="90"/>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="90"/>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="90"/>
-      <c r="AU1" s="90"/>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="90"/>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="90"/>
-      <c r="AZ1" s="90"/>
-      <c r="BA1" s="90"/>
-      <c r="BB1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
+      <c r="W1" s="91"/>
+      <c r="X1" s="91"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="91"/>
+      <c r="AB1" s="91"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="92"/>
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="92"/>
+      <c r="AH1" s="92"/>
+      <c r="AI1" s="92"/>
+      <c r="AJ1" s="92"/>
+      <c r="AK1" s="92"/>
+      <c r="AL1" s="92"/>
+      <c r="AM1" s="92"/>
+      <c r="AN1" s="92"/>
+      <c r="AO1" s="92"/>
+      <c r="AP1" s="92"/>
+      <c r="AQ1" s="92"/>
+      <c r="AR1" s="92"/>
+      <c r="AS1" s="92"/>
+      <c r="AT1" s="92"/>
+      <c r="AU1" s="92"/>
+      <c r="AV1" s="92"/>
+      <c r="AW1" s="92"/>
+      <c r="AX1" s="92"/>
+      <c r="AY1" s="92"/>
+      <c r="AZ1" s="92"/>
+      <c r="BA1" s="92"/>
+      <c r="BB1" s="92"/>
     </row>
     <row r="2" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="46"/>
@@ -4288,189 +4243,189 @@
       <c r="BB20" s="72"/>
     </row>
     <row r="21" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="93"/>
+      <c r="M21" s="93"/>
+      <c r="N21" s="93"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="93"/>
     </row>
     <row r="22" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
     </row>
     <row r="23" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="92"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="94"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
+      <c r="Q23" s="94"/>
     </row>
     <row r="24" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="88"/>
-      <c r="N24" s="88"/>
-      <c r="O24" s="88"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="88"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
     </row>
     <row r="25" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-      <c r="L25" s="88"/>
-      <c r="M25" s="88"/>
-      <c r="N25" s="88"/>
-      <c r="O25" s="88"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="88"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
     </row>
     <row r="26" spans="1:54" s="76" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="93" t="s">
+      <c r="A26" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="93"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="93"/>
-      <c r="M26" s="93"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
     </row>
     <row r="27" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="93"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
     </row>
     <row r="28" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="94" t="s">
+      <c r="A28" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="94"/>
-      <c r="Q28" s="94"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
     </row>
     <row r="29" spans="1:54" s="76" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
     </row>
     <row r="30" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
     <row r="31" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
@@ -4506,24 +4461,24 @@
     <row r="61" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A29:Q29"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="AC1:BB1"/>
     <mergeCell ref="A21:Q21"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A29:Q29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5054,15 +5009,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5072,7 +5025,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="95" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="11" t="s">

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B718B0-BD61-4365-9D51-5A8979BFABC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE8B5F-302F-45C1-9F44-CD154D8E5AE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
     <sheet name="AVL" sheetId="10" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ships</t>
   </si>
@@ -69,6 +69,12 @@
   <si>
     <t>(see Vehicle Survival Curve Shape Parameter.xlsx)</t>
   </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Passenger ships done through calibration, arriving at a value of 30</t>
+  </si>
 </sst>
 </file>
 
@@ -76,7 +82,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
-    <numFmt numFmtId="169" formatCode="#,##0_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_)"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -739,7 +745,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="8">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="8">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1208,6 +1214,14 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1222,8 +1236,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="5">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>21</v>

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AE8B5F-302F-45C1-9F44-CD154D8E5AE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813EEA14-5C26-4499-8D76-1B249B13E3DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ships</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Passenger ships done through calibration, arriving at a value of 30</t>
+  </si>
+  <si>
+    <t>Freight rail locomotives are almost entirely sold off into a used locomotive market and not retired from service. We assume an average lifetime of 50.</t>
   </si>
 </sst>
 </file>
@@ -1188,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,6 +1224,11 @@
       </c>
       <c r="B6" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1236,8 +1244,8 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1307,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">

--- a/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
+++ b/InputData/trans/AVL/Avg Vehicle Lifetime.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\AVL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\AVL\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1A0530-7D20-4CBC-BAC9-118060E51989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="23955" windowHeight="13545"/>
+    <workbookView xWindow="19875" yWindow="480" windowWidth="25935" windowHeight="22050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -17,12 +18,23 @@
     <sheet name="Data" sheetId="2" r:id="rId3"/>
     <sheet name="AVL" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>Car Avg Lifetime, years (Page 22, Table 7)</t>
   </si>
@@ -332,9 +344,6 @@
     <t>Passenger</t>
   </si>
   <si>
-    <t>Freight</t>
-  </si>
-  <si>
     <t>Freight HDVs</t>
   </si>
   <si>
@@ -354,12 +363,48 @@
   </si>
   <si>
     <t>Vehicle Lifetime (years)</t>
+  </si>
+  <si>
+    <t>freight LDVs</t>
+  </si>
+  <si>
+    <t>freight HDVs</t>
+  </si>
+  <si>
+    <t>freight aircraft</t>
+  </si>
+  <si>
+    <t>freight rail</t>
+  </si>
+  <si>
+    <t>freight ships</t>
+  </si>
+  <si>
+    <t>freight motorbikes</t>
+  </si>
+  <si>
+    <t>passenger LDVs</t>
+  </si>
+  <si>
+    <t>passenger HDVs</t>
+  </si>
+  <si>
+    <t>passenger aircraft</t>
+  </si>
+  <si>
+    <t>passenger rail</t>
+  </si>
+  <si>
+    <t>passenger ships</t>
+  </si>
+  <si>
+    <t>passenger motorbikes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
     <numFmt numFmtId="165" formatCode="\(\R\)General"/>
@@ -1460,9 +1505,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,21 +1531,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="58" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="62">
@@ -1514,41 +1559,41 @@
     <cellStyle name="Accent5" xfId="50" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="54" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="23" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="3"/>
+    <cellStyle name="Body: normal cell" xfId="3" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Calculation" xfId="27" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="29" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Data" xfId="14"/>
-    <cellStyle name="Data no deci" xfId="61"/>
+    <cellStyle name="Data" xfId="14" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Data no deci" xfId="61" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Explanatory Text" xfId="32" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="9"/>
-    <cellStyle name="Footnotes: all except top row" xfId="12"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="9" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Footnotes: all except top row" xfId="12" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
     <cellStyle name="Good" xfId="22" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="2"/>
-    <cellStyle name="Header: top rows" xfId="4"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Header: top rows" xfId="4" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Heading 1" xfId="18" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="19" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="20" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="21" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hed Side" xfId="15"/>
-    <cellStyle name="Hed Side Regular" xfId="60"/>
-    <cellStyle name="Hed Top" xfId="59"/>
+    <cellStyle name="Hed Side" xfId="15" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="60" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Hed Top" xfId="59" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="10"/>
+    <cellStyle name="Hyperlink 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="Input" xfId="25" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="28" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="24" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="31" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="26" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Section Break" xfId="8"/>
-    <cellStyle name="Section Break: parent row" xfId="5"/>
-    <cellStyle name="Table title" xfId="13"/>
+    <cellStyle name="Section Break" xfId="8" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Section Break: parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Table title" xfId="13" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
     <cellStyle name="Title" xfId="17" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Title-2" xfId="58"/>
+    <cellStyle name="Title-2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
     <cellStyle name="Total" xfId="33" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="30" builtinId="11" customBuiltin="1"/>
   </cellStyles>
@@ -1579,7 +1624,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2">
+    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1671,6 +1716,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1706,6 +1768,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1881,22 +1960,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="132.265625" customWidth="1"/>
+    <col min="2" max="2" width="132.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -1904,243 +1983,243 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>2006</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>2015</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="10">
         <v>2013</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="20">
         <v>2009</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B41" r:id="rId2"/>
-    <hyperlink ref="B48" r:id="rId3"/>
-    <hyperlink ref="B28" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B41" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B28" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -2148,81 +2227,81 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BC61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" style="13" customWidth="1"/>
-    <col min="2" max="27" width="7.73046875" style="13" customWidth="1"/>
-    <col min="28" max="28" width="7.1328125" style="77" customWidth="1"/>
-    <col min="29" max="55" width="9.1328125" style="77"/>
-    <col min="56" max="16384" width="9.1328125" style="13"/>
+    <col min="1" max="1" width="19.42578125" style="13" customWidth="1"/>
+    <col min="2" max="27" width="7.7109375" style="13" customWidth="1"/>
+    <col min="28" max="28" width="7.140625" style="77" customWidth="1"/>
+    <col min="29" max="55" width="9.140625" style="77"/>
+    <col min="56" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="91"/>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="92"/>
-      <c r="AD1" s="92"/>
-      <c r="AE1" s="92"/>
-      <c r="AF1" s="92"/>
-      <c r="AG1" s="92"/>
-      <c r="AH1" s="92"/>
-      <c r="AI1" s="92"/>
-      <c r="AJ1" s="92"/>
-      <c r="AK1" s="92"/>
-      <c r="AL1" s="92"/>
-      <c r="AM1" s="92"/>
-      <c r="AN1" s="92"/>
-      <c r="AO1" s="92"/>
-      <c r="AP1" s="92"/>
-      <c r="AQ1" s="92"/>
-      <c r="AR1" s="92"/>
-      <c r="AS1" s="92"/>
-      <c r="AT1" s="92"/>
-      <c r="AU1" s="92"/>
-      <c r="AV1" s="92"/>
-      <c r="AW1" s="92"/>
-      <c r="AX1" s="92"/>
-      <c r="AY1" s="92"/>
-      <c r="AZ1" s="92"/>
-      <c r="BA1" s="92"/>
-      <c r="BB1" s="92"/>
-    </row>
-    <row r="2" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="90"/>
+      <c r="AK1" s="90"/>
+      <c r="AL1" s="90"/>
+      <c r="AM1" s="90"/>
+      <c r="AN1" s="90"/>
+      <c r="AO1" s="90"/>
+      <c r="AP1" s="90"/>
+      <c r="AQ1" s="90"/>
+      <c r="AR1" s="90"/>
+      <c r="AS1" s="90"/>
+      <c r="AT1" s="90"/>
+      <c r="AU1" s="90"/>
+      <c r="AV1" s="90"/>
+      <c r="AW1" s="90"/>
+      <c r="AX1" s="90"/>
+      <c r="AY1" s="90"/>
+      <c r="AZ1" s="90"/>
+      <c r="BA1" s="90"/>
+      <c r="BB1" s="90"/>
+    </row>
+    <row r="2" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="46"/>
       <c r="B2" s="47">
         <v>1980</v>
@@ -2332,7 +2411,7 @@
       <c r="BA2" s="53"/>
       <c r="BB2" s="54"/>
     </row>
-    <row r="3" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="55" t="s">
         <v>65</v>
       </c>
@@ -2444,7 +2523,7 @@
       <c r="BA3" s="58"/>
       <c r="BB3" s="58"/>
     </row>
-    <row r="4" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>67</v>
       </c>
@@ -2556,7 +2635,7 @@
       <c r="BA4" s="63"/>
       <c r="BB4" s="63"/>
     </row>
-    <row r="5" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>68</v>
       </c>
@@ -2668,7 +2747,7 @@
       <c r="BA5" s="63"/>
       <c r="BB5" s="63"/>
     </row>
-    <row r="6" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>69</v>
       </c>
@@ -2780,7 +2859,7 @@
       <c r="BA6" s="63"/>
       <c r="BB6" s="63"/>
     </row>
-    <row r="7" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
         <v>70</v>
       </c>
@@ -2892,7 +2971,7 @@
       <c r="BA7" s="63"/>
       <c r="BB7" s="63"/>
     </row>
-    <row r="8" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>71</v>
       </c>
@@ -3004,7 +3083,7 @@
       <c r="BA8" s="63"/>
       <c r="BB8" s="63"/>
     </row>
-    <row r="9" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64" t="s">
         <v>72</v>
       </c>
@@ -3062,7 +3141,7 @@
       <c r="BA9" s="66"/>
       <c r="BB9" s="66"/>
     </row>
-    <row r="10" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59" t="s">
         <v>67</v>
       </c>
@@ -3176,7 +3255,7 @@
       <c r="BA10" s="68"/>
       <c r="BB10" s="68"/>
     </row>
-    <row r="11" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="59" t="s">
         <v>68</v>
       </c>
@@ -3288,7 +3367,7 @@
       <c r="BA11" s="68"/>
       <c r="BB11" s="68"/>
     </row>
-    <row r="12" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="59" t="s">
         <v>69</v>
       </c>
@@ -3400,7 +3479,7 @@
       <c r="BA12" s="68"/>
       <c r="BB12" s="68"/>
     </row>
-    <row r="13" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59" t="s">
         <v>70</v>
       </c>
@@ -3512,7 +3591,7 @@
       <c r="BA13" s="68"/>
       <c r="BB13" s="68"/>
     </row>
-    <row r="14" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59" t="s">
         <v>71</v>
       </c>
@@ -3624,7 +3703,7 @@
       <c r="BA14" s="68"/>
       <c r="BB14" s="68"/>
     </row>
-    <row r="15" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="55" t="s">
         <v>73</v>
       </c>
@@ -3682,7 +3761,7 @@
       <c r="BA15" s="70"/>
       <c r="BB15" s="70"/>
     </row>
-    <row r="16" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59" t="s">
         <v>67</v>
       </c>
@@ -3794,7 +3873,7 @@
       <c r="BA16" s="72"/>
       <c r="BB16" s="72"/>
     </row>
-    <row r="17" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>68</v>
       </c>
@@ -3906,7 +3985,7 @@
       <c r="BA17" s="72"/>
       <c r="BB17" s="72"/>
     </row>
-    <row r="18" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59" t="s">
         <v>69</v>
       </c>
@@ -4018,7 +4097,7 @@
       <c r="BA18" s="72"/>
       <c r="BB18" s="72"/>
     </row>
-    <row r="19" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="59" t="s">
         <v>70</v>
       </c>
@@ -4130,7 +4209,7 @@
       <c r="BA19" s="72"/>
       <c r="BB19" s="72"/>
     </row>
-    <row r="20" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:54" s="13" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="73" t="s">
         <v>71</v>
       </c>
@@ -4242,258 +4321,258 @@
       <c r="BA20" s="72"/>
       <c r="BB20" s="72"/>
     </row>
-    <row r="21" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="93" t="s">
+    <row r="21" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="93"/>
-      <c r="M21" s="93"/>
-      <c r="N21" s="93"/>
-      <c r="O21" s="93"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="93"/>
-    </row>
-    <row r="22" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="94"/>
-    </row>
-    <row r="23" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="94" t="s">
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+    </row>
+    <row r="22" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+    </row>
+    <row r="23" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="94"/>
-      <c r="Q23" s="94"/>
-    </row>
-    <row r="24" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="87" t="s">
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+    </row>
+    <row r="24" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-    </row>
-    <row r="25" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="87" t="s">
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+    </row>
+    <row r="25" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-    </row>
-    <row r="26" spans="1:54" s="76" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="88" t="s">
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+    </row>
+    <row r="26" spans="1:54" s="76" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-    </row>
-    <row r="27" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-    </row>
-    <row r="28" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="89" t="s">
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
+      <c r="L26" s="93"/>
+      <c r="M26" s="93"/>
+      <c r="N26" s="93"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="93"/>
+    </row>
+    <row r="27" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="93"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="93"/>
+      <c r="M27" s="93"/>
+      <c r="N27" s="93"/>
+      <c r="O27" s="93"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="93"/>
+    </row>
+    <row r="28" spans="1:54" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="89"/>
-      <c r="N28" s="89"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-    </row>
-    <row r="29" spans="1:54" s="76" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="90" t="s">
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="94"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="94"/>
+      <c r="L28" s="94"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
+      <c r="Q28" s="94"/>
+    </row>
+    <row r="29" spans="1:54" s="76" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="90"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="90"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="90"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="90"/>
-      <c r="O29" s="90"/>
-      <c r="P29" s="90"/>
-      <c r="Q29" s="90"/>
-    </row>
-    <row r="30" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="33" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="34" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="35" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="36" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="37" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="38" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="39" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="40" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="41" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="42" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="43" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="44" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="45" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="46" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="47" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="48" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="49" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="50" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="51" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="52" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="53" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="54" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="55" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="56" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="57" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="58" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="59" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="60" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="61" s="77" customFormat="1" x14ac:dyDescent="0.45"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+    </row>
+    <row r="30" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:54" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="77" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A25:Q25"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A28:Q28"/>
+    <mergeCell ref="A29:Q29"/>
     <mergeCell ref="A24:Q24"/>
     <mergeCell ref="A1:AB1"/>
     <mergeCell ref="AC1:BB1"/>
     <mergeCell ref="A21:Q21"/>
     <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="A25:Q25"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A27:Q27"/>
-    <mergeCell ref="A28:Q28"/>
-    <mergeCell ref="A29:Q29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.86328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.73046875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="25.1328125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.1328125" style="3"/>
+    <col min="1" max="1" width="30.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -4502,7 +4581,7 @@
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -4519,7 +4598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>13</v>
       </c>
@@ -4539,12 +4618,12 @@
         <v>13.378781688359696</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>59</v>
       </c>
@@ -4559,7 +4638,7 @@
       </c>
       <c r="E6" s="84"/>
     </row>
-    <row r="7" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86">
         <v>28</v>
       </c>
@@ -4574,13 +4653,13 @@
       </c>
       <c r="E7" s="85"/>
     </row>
-    <row r="8" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="81"/>
       <c r="B8" s="81"/>
       <c r="C8" s="82"/>
       <c r="D8" s="82"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>56</v>
       </c>
@@ -4589,14 +4668,14 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
     </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
     </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>34</v>
       </c>
@@ -4604,7 +4683,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>36</v>
       </c>
@@ -4612,7 +4691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>38</v>
       </c>
@@ -4620,19 +4699,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="22"/>
     </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24">
         <v>24</v>
       </c>
       <c r="C16" s="21"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>21</v>
       </c>
@@ -4641,7 +4720,7 @@
       <c r="D18" s="42"/>
       <c r="E18" s="42"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>10</v>
       </c>
@@ -4652,7 +4731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>22</v>
       </c>
@@ -4663,7 +4742,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>24</v>
       </c>
@@ -4674,7 +4753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="14" t="s">
         <v>26</v>
@@ -4683,17 +4762,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>13</v>
       </c>
@@ -4702,7 +4781,7 @@
       <c r="D26" s="42"/>
       <c r="E26" s="42"/>
     </row>
-    <row r="27" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>10</v>
       </c>
@@ -4713,7 +4792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>14</v>
       </c>
@@ -4724,7 +4803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>58</v>
       </c>
@@ -4733,7 +4812,7 @@
       <c r="D30" s="42"/>
       <c r="E30" s="42"/>
     </row>
-    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>43</v>
       </c>
@@ -4750,7 +4829,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>1997</v>
       </c>
@@ -4763,7 +4842,7 @@
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>1998</v>
       </c>
@@ -4782,7 +4861,7 @@
         <v>6.6484424338501588E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>1999</v>
       </c>
@@ -4801,7 +4880,7 @@
         <v>2.9143636995467476E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>2000</v>
       </c>
@@ -4820,7 +4899,7 @@
         <v>6.8191523924614153E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>2001</v>
       </c>
@@ -4839,7 +4918,7 @@
         <v>4.0815360868813244E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>2002</v>
       </c>
@@ -4858,7 +4937,7 @@
         <v>0.10769048766665149</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>2003</v>
       </c>
@@ -4877,7 +4956,7 @@
         <v>5.9053805049687755E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <v>2004</v>
       </c>
@@ -4896,7 +4975,7 @@
         <v>5.8670234757052138E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>2005</v>
       </c>
@@ -4915,7 +4994,7 @@
         <v>6.1781753631599455E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <v>2006</v>
       </c>
@@ -4934,7 +5013,7 @@
         <v>6.5906687839630079E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <v>2007</v>
       </c>
@@ -4953,14 +5032,14 @@
         <v>5.9604038733197397E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -4968,7 +5047,7 @@
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <f>AVERAGE(E33:E42)</f>
         <v>5.8060812902328285E-2</v>
@@ -4977,13 +5056,13 @@
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
     </row>
-    <row r="47" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>48</v>
       </c>
@@ -4991,7 +5070,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="43">
         <f>1/A45</f>
         <v>17.22332068760786</v>
@@ -5009,106 +5088,132 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="95" t="s">
-        <v>100</v>
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>99</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="B2" s="78">
         <f>ROUND(Data!E3,0)</f>
         <v>13</v>
       </c>
-      <c r="C2">
-        <f>Data!B3</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="B3" s="45">
         <f>Data!C7</f>
         <v>23</v>
       </c>
-      <c r="C3">
-        <f>Data!A7</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B4" s="45">
         <f>ROUND(Data!A16,0)</f>
         <v>24</v>
       </c>
-      <c r="C4" s="45">
-        <f>B4</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B5" s="78">
         <f>ROUND(Data!C22,0)</f>
         <v>34</v>
       </c>
-      <c r="C5">
-        <f>B5</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="B6" s="78">
         <f>ROUND(Data!C28,0)</f>
         <v>33</v>
       </c>
-      <c r="C6">
-        <f>B6</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="B7" s="78">
         <f>ROUND(Data!A48,0)</f>
         <v>17</v>
       </c>
-      <c r="C7">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <f>Data!B3</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9">
+        <f>Data!A7</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="45">
+        <f>B4</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11">
+        <f>B5</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12">
+        <f>B6</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13">
         <f>B7</f>
         <v>17</v>
       </c>
